--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A8491-C22C-44F2-A8BF-25D226A5545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3F31C-7A24-AA40-830E-69336C6C2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="424">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1267,6 +1267,51 @@
   </si>
   <si>
     <t>~ ETBs with 3 charge counters on it; T, remove a charge counter: Until EOT, any creature dealt damage by target creature is exiled instead of killed; When the last charge counter is removed from ~, draw a card.</t>
+  </si>
+  <si>
+    <t>Roots</t>
+  </si>
+  <si>
+    <t>If another creature with Roots would take damage, you may reduce that by 1 and deal 1 point of damage to ~.  You may not use this ability more than this ~'s toughness.</t>
+  </si>
+  <si>
+    <t>Fleshcraft</t>
+  </si>
+  <si>
+    <t>Mutate, but Humans only</t>
+  </si>
+  <si>
+    <t>Winged Ghoul</t>
+  </si>
+  <si>
+    <t>Flying; Fleshcraft 1U</t>
+  </si>
+  <si>
+    <t>Gorging Golem</t>
+  </si>
+  <si>
+    <t>B: ~ gets +1/+1 until EOT; Fleshcraft 1B</t>
+  </si>
+  <si>
+    <t>Spitting Fleshhound</t>
+  </si>
+  <si>
+    <t>First Strike; Fleshcraft R</t>
+  </si>
+  <si>
+    <t>Smiling Hydra</t>
+  </si>
+  <si>
+    <t>Double Strike; Fleshcraft 2R</t>
+  </si>
+  <si>
+    <t>Cackling Fleshcrafter</t>
+  </si>
+  <si>
+    <t>Whenever you Fleshcraft, put a +1/+1 counter on the creature</t>
+  </si>
+  <si>
+    <t>Creature - Human Cleric</t>
   </si>
 </sst>
 </file>
@@ -1833,25 +1878,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002F29F-2C84-DF41-B776-057630C8E250}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1927,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +1935,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1943,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1906,7 +1951,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1959,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1960,7 +2005,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -1982,7 +2027,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>335</v>
       </c>
@@ -1990,7 +2035,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -1998,12 +2043,28 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2019,18 +2080,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2053,12 +2114,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2136,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2112,42 +2173,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2240,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2199,7 +2260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -2219,7 +2280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2239,7 +2300,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -2262,7 +2323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -2285,7 +2346,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -2308,7 +2369,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -2331,7 +2392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -2361,25 +2422,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X131"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2409,7 +2470,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2423,21 +2484,21 @@
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
@@ -2461,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2542,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s">
         <v>150</v>
@@ -2512,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2526,21 +2587,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2551,7 +2612,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>246</v>
       </c>
@@ -2584,7 +2645,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>153</v>
@@ -2624,7 +2685,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2653,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2682,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2711,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2740,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2769,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -2798,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2824,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2853,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -2882,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -2905,7 +2966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2931,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -2954,7 +3015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -2977,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -3006,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -3035,7 +3096,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -3064,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3093,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -3122,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -3151,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -3180,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -3203,7 +3264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>387</v>
       </c>
@@ -3232,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -3252,7 +3313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -3275,7 +3336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -3298,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3327,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -3356,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -3385,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>252</v>
       </c>
@@ -3414,7 +3475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3443,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -3453,7 +3514,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -3482,7 +3543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3511,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3540,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -3563,7 +3624,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -3592,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3621,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3650,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -3679,7 +3740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>298</v>
       </c>
@@ -3702,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>310</v>
       </c>
@@ -3725,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -3748,7 +3809,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3777,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -3806,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -3835,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -3858,7 +3919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>263</v>
       </c>
@@ -3887,7 +3948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -3897,7 +3958,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -3920,7 +3981,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -3943,7 +4004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -3963,61 +4024,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>396</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>397</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>312</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
       </c>
       <c r="C61" t="s">
         <v>153</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G61" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="G62" t="s">
         <v>92</v>
@@ -4026,18 +4087,18 @@
         <v>8</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4046,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>393</v>
+        <v>268</v>
       </c>
       <c r="G63" t="s">
         <v>92</v>
@@ -4055,50 +4116,56 @@
         <v>8</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>392</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G65" t="s">
         <v>93</v>
@@ -4110,27 +4177,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
@@ -4139,18 +4200,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="G67" t="s">
         <v>94</v>
@@ -4162,63 +4229,57 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>87</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>48</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>60</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>2</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>320</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>355</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="G70" t="s">
         <v>92</v>
@@ -4227,27 +4288,27 @@
         <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>318</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
+        <v>320</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
         <v>355</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G71" t="s">
         <v>92</v>
@@ -4259,15 +4320,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4276,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="G72" t="s">
         <v>92</v>
@@ -4285,21 +4346,27 @@
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>244</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
@@ -4308,21 +4375,21 @@
         <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4331,21 +4398,21 @@
         <v>9</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4353,22 +4420,22 @@
       <c r="H75" t="s">
         <v>9</v>
       </c>
-      <c r="J75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
         <v>153</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4377,27 +4444,21 @@
         <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>89</v>
+        <v>360</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4405,48 +4466,48 @@
       <c r="H77" t="s">
         <v>9</v>
       </c>
-      <c r="I77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
       </c>
       <c r="I78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4455,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="G79" t="s">
         <v>93</v>
@@ -4464,21 +4525,27 @@
         <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>355</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>180</v>
+        <v>416</v>
       </c>
       <c r="G80" t="s">
         <v>93</v>
@@ -4487,15 +4554,15 @@
         <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
         <v>60</v>
@@ -4504,10 +4571,10 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
         <v>93</v>
@@ -4519,21 +4586,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>423</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -4542,76 +4615,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="G85" t="s">
         <v>94</v>
@@ -4620,12 +4687,12 @@
         <v>9</v>
       </c>
       <c r="I85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -4640,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
@@ -4652,24 +4719,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="G87" t="s">
         <v>94</v>
@@ -4681,109 +4742,115 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="25"/>
-    </row>
-    <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>317</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>331</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" t="s">
-        <v>328</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G91" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" t="s">
-        <v>6</v>
-      </c>
-      <c r="I91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G92" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>325</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G93" t="s">
         <v>92</v>
@@ -4795,15 +4862,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4812,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="G94" t="s">
         <v>92</v>
@@ -4821,27 +4888,21 @@
         <v>6</v>
       </c>
       <c r="I94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="G95" t="s">
         <v>92</v>
@@ -4850,27 +4911,27 @@
         <v>6</v>
       </c>
       <c r="I95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
         <v>323</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G96" t="s">
         <v>92</v>
@@ -4882,24 +4943,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="G97" t="s">
         <v>92</v>
@@ -4908,21 +4969,27 @@
         <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="G98" t="s">
         <v>92</v>
@@ -4934,18 +5001,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>323</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="G99" t="s">
         <v>92</v>
@@ -4954,157 +5027,154 @@
         <v>6</v>
       </c>
       <c r="I99" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
         <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>323</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>209</v>
+        <v>334</v>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
         <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
         <v>6</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
         <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s">
         <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
         <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H103" t="s">
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
         <v>194</v>
       </c>
       <c r="C104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104">
+        <v>153</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" t="s">
+        <v>93</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>338</v>
-      </c>
-      <c r="B105" t="s">
-        <v>339</v>
-      </c>
-      <c r="C105" t="s">
-        <v>323</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="G105" t="s">
         <v>93</v>
@@ -5113,21 +5183,27 @@
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>323</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G106" t="s">
         <v>93</v>
@@ -5135,10 +5211,13 @@
       <c r="H106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s">
         <v>194</v>
@@ -5147,13 +5226,13 @@
         <v>323</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
         <v>93</v>
@@ -5165,32 +5244,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
         <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>323</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G108" t="s">
-        <v>93</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B109" t="s">
         <v>339</v>
@@ -5199,16 +5275,16 @@
         <v>323</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="G109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H109" t="s">
         <v>6</v>
@@ -5217,29 +5293,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
         <v>211</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
@@ -5248,16 +5324,16 @@
         <v>323</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s">
         <v>6</v>
@@ -5266,27 +5342,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H112" t="s">
         <v>6</v>
@@ -5295,18 +5365,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>323</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="G113" t="s">
         <v>94</v>
@@ -5315,164 +5391,155 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G114" t="s">
+        <v>94</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
+        <v>355</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G115" t="s">
+        <v>94</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" t="s">
+        <v>323</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G116" t="s">
+        <v>94</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" t="s">
+        <v>94</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>186</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G118" t="s">
+        <v>94</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="26"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="26"/>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>59</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B120" t="s">
         <v>28</v>
-      </c>
-      <c r="C115" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>92</v>
-      </c>
-      <c r="H115" t="s">
-        <v>117</v>
-      </c>
-      <c r="I115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>92</v>
-      </c>
-      <c r="H116" t="s">
-        <v>117</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>384</v>
-      </c>
-      <c r="B117" t="s">
-        <v>385</v>
-      </c>
-      <c r="C117" t="s">
-        <v>153</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G117" t="s">
-        <v>92</v>
-      </c>
-      <c r="H117" t="s">
-        <v>117</v>
-      </c>
-      <c r="I117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s">
-        <v>92</v>
-      </c>
-      <c r="H118" t="s">
-        <v>117</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119" t="s">
-        <v>93</v>
-      </c>
-      <c r="H119" t="s">
-        <v>117</v>
-      </c>
-      <c r="I119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" t="s">
-        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>60</v>
@@ -5484,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s">
         <v>117</v>
@@ -5496,194 +5563,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>361</v>
-      </c>
-      <c r="B121" t="s">
-        <v>362</v>
+        <v>61</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>117</v>
       </c>
       <c r="I121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s">
         <v>117</v>
       </c>
       <c r="I122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>92</v>
+      </c>
+      <c r="H123" t="s">
+        <v>117</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" t="s">
+        <v>117</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G125" t="s">
+        <v>94</v>
+      </c>
+      <c r="H125" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>361</v>
+      </c>
+      <c r="B126" t="s">
+        <v>362</v>
+      </c>
+      <c r="C126" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G126" t="s">
+        <v>94</v>
+      </c>
+      <c r="H126" t="s">
+        <v>117</v>
+      </c>
+      <c r="I126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>372</v>
+      </c>
+      <c r="B127" t="s">
+        <v>373</v>
+      </c>
+      <c r="C127" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G127" t="s">
+        <v>94</v>
+      </c>
+      <c r="H127" t="s">
+        <v>117</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="27"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>364</v>
       </c>
-      <c r="B124">
+      <c r="B129">
         <v>2</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C129" t="s">
         <v>365</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>2</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>2</v>
-      </c>
-      <c r="G124" t="s">
-        <v>92</v>
-      </c>
-      <c r="H124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>306</v>
-      </c>
-      <c r="C125" t="s">
-        <v>155</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-    </row>
-    <row r="126" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>257</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>305</v>
-      </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>211</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G127" t="s">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s">
-        <v>157</v>
-      </c>
-      <c r="I127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>401</v>
-      </c>
-      <c r="B128">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G128" t="s">
-        <v>92</v>
-      </c>
-      <c r="H128" t="s">
-        <v>157</v>
-      </c>
-      <c r="I128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>402</v>
-      </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>257</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="G129" t="s">
         <v>92</v>
@@ -5691,50 +5792,155 @@
       <c r="H129" t="s">
         <v>157</v>
       </c>
-      <c r="I129" t="s">
+    </row>
+    <row r="130" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>404</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>257</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G130" t="s">
-        <v>92</v>
-      </c>
-      <c r="H130" t="s">
-        <v>157</v>
-      </c>
-      <c r="I130" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>407</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>240</v>
-      </c>
       <c r="F131" s="7" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="G131" t="s">
         <v>92</v>
       </c>
       <c r="H131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>305</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
+      <c r="H132" t="s">
+        <v>157</v>
+      </c>
+      <c r="I132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>401</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G133" t="s">
+        <v>92</v>
+      </c>
+      <c r="H133" t="s">
+        <v>157</v>
+      </c>
+      <c r="I133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>402</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>257</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G134" t="s">
+        <v>92</v>
+      </c>
+      <c r="H134" t="s">
+        <v>157</v>
+      </c>
+      <c r="I134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G135" t="s">
+        <v>92</v>
+      </c>
+      <c r="H135" t="s">
+        <v>157</v>
+      </c>
+      <c r="I135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>407</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>240</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G136" t="s">
+        <v>92</v>
+      </c>
+      <c r="H136" t="s">
         <v>157</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3F31C-7A24-AA40-830E-69336C6C2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1D318-5CB7-4EDA-B4EF-052762D47209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="452">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -852,9 +852,6 @@
     <t>Breeze Mephit</t>
   </si>
   <si>
-    <t>UU1</t>
-  </si>
-  <si>
     <t>Exile ~: Counter target spell; Conjuration 2</t>
   </si>
   <si>
@@ -999,15 +996,9 @@
     <t>Venomous Crawler</t>
   </si>
   <si>
-    <t>Deathtouch; Fleshbond</t>
-  </si>
-  <si>
     <t>Flesh Pile</t>
   </si>
   <si>
-    <t>Fleshbond</t>
-  </si>
-  <si>
     <t>Morlock Raider</t>
   </si>
   <si>
@@ -1218,9 +1209,6 @@
     <t>Blinking Shade</t>
   </si>
   <si>
-    <t>Creature - Illusion</t>
-  </si>
-  <si>
     <t>Unblockable</t>
   </si>
   <si>
@@ -1312,6 +1300,102 @@
   </si>
   <si>
     <t>Creature - Human Cleric</t>
+  </si>
+  <si>
+    <t>Wall-mounted Horror</t>
+  </si>
+  <si>
+    <t>Mending Monstrosity</t>
+  </si>
+  <si>
+    <t>B: Regenerate; Fleshcraft 0</t>
+  </si>
+  <si>
+    <t>Defender; B: Regenerate; When ~ is Fleshcrafted, it loses Defender; Fleshcraft B</t>
+  </si>
+  <si>
+    <t>Acid-Drenched Golem</t>
+  </si>
+  <si>
+    <t>Fleshcraft 1R; Damage dealt by ~ cannot be prevented</t>
+  </si>
+  <si>
+    <t>Deathtouch; Fleshcraft 0</t>
+  </si>
+  <si>
+    <t>Fleshcraft 0</t>
+  </si>
+  <si>
+    <t>Thirsting Wretch</t>
+  </si>
+  <si>
+    <t>Fleshcraft 1B; Lifelink</t>
+  </si>
+  <si>
+    <t>Lurching Colossus</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Mesmerize</t>
+  </si>
+  <si>
+    <t>Tap and distribute 2 Stun counters among up to 2 target creatures</t>
+  </si>
+  <si>
+    <t>Aggressive Instinct</t>
+  </si>
+  <si>
+    <t>Target creature you control deals damage equal to its power to target creature you don't control.</t>
+  </si>
+  <si>
+    <t>Adaptive Ghoul</t>
+  </si>
+  <si>
+    <t>When ~ fleshcrafts, put a +1/+1 counter on it</t>
+  </si>
+  <si>
+    <t>Foul Transmogrifant</t>
+  </si>
+  <si>
+    <t>Fleshcraft 1U; The first time ~ is the target of a spell or ability an opponent controls each turn, counter that spell or ability</t>
+  </si>
+  <si>
+    <t>Mesmeric Walker</t>
+  </si>
+  <si>
+    <t>Fleshcraft U; When ~ fleshcrafts, tap target creature and put a stun counter on it</t>
+  </si>
+  <si>
+    <t>Creature - Wizard</t>
+  </si>
+  <si>
+    <t>Spinal Armorcrawler</t>
+  </si>
+  <si>
+    <t>Fleshcraft B; If ~ would die, and is fleshcrafter, you may remove this card from the game instead</t>
+  </si>
+  <si>
+    <t>Fading Chronomancer</t>
+  </si>
+  <si>
+    <t>4UU, T, Sacrifice ~: End the turn</t>
+  </si>
+  <si>
+    <t>Suspend XU; When a time counter is removed from ~, create a 1/1 Wizard Illusion token with '~ gets +1/+0 for each other Wizard Illusion token'; Exile all Wizard Illusion tokens you control</t>
+  </si>
+  <si>
+    <t>Mistborn Army</t>
+  </si>
+  <si>
+    <t>Ephemeral Force</t>
+  </si>
+  <si>
+    <t>4U</t>
+  </si>
+  <si>
+    <t>ETBs with 4 fade counter on it. When the last is removed, sacrifice ~</t>
   </si>
 </sst>
 </file>
@@ -1884,19 +1968,19 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +2011,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +2019,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +2027,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +2035,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +2043,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2005,7 +2089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2027,44 +2111,44 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2080,18 +2164,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2114,29 +2198,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2173,42 +2257,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2240,7 +2324,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2260,7 +2344,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -2280,7 +2364,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2300,7 +2384,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -2323,7 +2407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -2337,16 +2421,16 @@
         <v>225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -2360,16 +2444,16 @@
         <v>228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -2383,7 +2467,7 @@
         <v>231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>232</v>
@@ -2392,7 +2476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -2422,25 +2506,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X136"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2470,7 +2554,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2484,28 +2568,28 @@
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2519,10 +2603,10 @@
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2626,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
         <v>150</v>
@@ -2556,14 +2640,14 @@
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
@@ -2573,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2587,21 +2671,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2612,7 +2696,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>246</v>
       </c>
@@ -2645,7 +2729,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>153</v>
@@ -2659,7 +2743,7 @@
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>186</v>
@@ -2685,7 +2769,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2714,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2743,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2772,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2801,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2830,9 +2914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -2859,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2885,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2914,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -2943,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -2966,7 +3050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2992,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -3015,9 +3099,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -3026,7 +3110,7 @@
         <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G17" t="s">
         <v>93</v>
@@ -3038,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -3067,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -3096,9 +3180,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -3113,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -3125,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3154,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -3183,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -3212,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -3241,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -3264,12 +3348,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
@@ -3281,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -3293,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -3313,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -3336,9 +3420,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -3347,7 +3431,7 @@
         <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -3359,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3388,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -3417,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -3446,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>252</v>
       </c>
@@ -3475,7 +3559,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3504,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -3514,7 +3598,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -3543,7 +3627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3572,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3601,7 +3685,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -3624,7 +3728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -3653,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3682,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3711,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -3740,9 +3844,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
         <v>162</v>
@@ -3751,7 +3855,7 @@
         <v>211</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G45" t="s">
         <v>93</v>
@@ -3763,9 +3867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s">
         <v>204</v>
@@ -3774,7 +3878,7 @@
         <v>153</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G46" t="s">
         <v>93</v>
@@ -3786,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -3809,7 +3913,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3838,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -3867,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -3896,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -3919,7 +4023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>263</v>
       </c>
@@ -3948,7 +4052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -3958,7 +4062,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -3981,18 +4085,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
         <v>153</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" t="s">
         <v>92</v>
@@ -4004,18 +4108,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G59" t="s">
         <v>92</v>
@@ -4024,15 +4128,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s">
         <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4041,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G60" t="s">
         <v>92</v>
@@ -4053,32 +4157,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>442</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
       <c r="G62" t="s">
         <v>92</v>
@@ -4086,28 +4205,25 @@
       <c r="H62" t="s">
         <v>8</v>
       </c>
-      <c r="I62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>268</v>
+        <v>441</v>
       </c>
       <c r="G63" t="s">
         <v>92</v>
@@ -4116,27 +4232,21 @@
         <v>8</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G64" t="s">
         <v>92</v>
@@ -4144,54 +4254,51 @@
       <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
@@ -4200,161 +4307,174 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>442</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s">
         <v>8</v>
       </c>
       <c r="I67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>352</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>176</v>
+        <v>439</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
       </c>
       <c r="I68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>442</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>84</v>
+        <v>446</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>320</v>
-      </c>
-      <c r="B71">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
-        <v>355</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>318</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
       <c r="C72" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
         <v>244</v>
@@ -4363,79 +4483,72 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I73" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>367</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4443,22 +4556,28 @@
       <c r="H76" t="s">
         <v>9</v>
       </c>
-      <c r="J76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>352</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4466,28 +4585,28 @@
       <c r="H77" t="s">
         <v>9</v>
       </c>
-      <c r="J77" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>420</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -4496,47 +4615,44 @@
         <v>9</v>
       </c>
       <c r="I78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>430</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>431</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>279</v>
+        <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>415</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4545,68 +4661,62 @@
         <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
       </c>
       <c r="I81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>421</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>422</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -4615,21 +4725,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>186</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -4638,67 +4748,61 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
       </c>
-      <c r="I84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
         <v>153</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
       </c>
-      <c r="I85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4707,33 +4811,39 @@
         <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>381</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
       </c>
       <c r="I86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="G87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -4742,73 +4852,73 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B88" t="s">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
       </c>
       <c r="I88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>285</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4817,312 +4927,312 @@
         <v>3</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="G90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
       </c>
       <c r="I90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>419</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G91" t="s">
+        <v>93</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G92" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="25"/>
-    </row>
-    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>352</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>331</v>
-      </c>
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
       <c r="F94" s="7" t="s">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96" t="s">
         <v>94</v>
       </c>
-      <c r="C96" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G96" t="s">
-        <v>92</v>
-      </c>
       <c r="H96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>417</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97" t="s">
+        <v>94</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" t="s">
+        <v>356</v>
+      </c>
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>354</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>286</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="G99" t="s">
         <v>94</v>
       </c>
-      <c r="C98" t="s">
-        <v>244</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G98" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" t="s">
-        <v>6</v>
-      </c>
-      <c r="I98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>342</v>
-      </c>
-      <c r="B99" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" t="s">
-        <v>323</v>
-      </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G99" t="s">
-        <v>92</v>
-      </c>
       <c r="H99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>327</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" t="s">
-        <v>328</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G101" t="s">
-        <v>92</v>
-      </c>
-      <c r="H101" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" t="s">
         <v>94</v>
-      </c>
-      <c r="C102" t="s">
-        <v>186</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G102" t="s">
-        <v>92</v>
-      </c>
-      <c r="H102" t="s">
-        <v>6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>324</v>
-      </c>
-      <c r="B103" t="s">
-        <v>194</v>
       </c>
       <c r="C103" t="s">
         <v>153</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G103" t="s">
         <v>92</v>
@@ -5131,53 +5241,53 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>325</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s">
         <v>6</v>
       </c>
       <c r="I104" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H105" t="s">
         <v>6</v>
@@ -5186,7 +5296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -5194,7 +5304,7 @@
         <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5203,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s">
         <v>6</v>
@@ -5215,76 +5325,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H107" t="s">
         <v>6</v>
       </c>
       <c r="I107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>339</v>
+      </c>
+      <c r="B109" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>344</v>
-      </c>
-      <c r="B108" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" t="s">
-        <v>323</v>
-      </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>338</v>
-      </c>
-      <c r="B109" t="s">
-        <v>339</v>
-      </c>
-      <c r="C109" t="s">
-        <v>323</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s">
         <v>6</v>
@@ -5293,47 +5412,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>320</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
       </c>
       <c r="C111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s">
         <v>6</v>
@@ -5342,21 +5470,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
         <v>186</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H112" t="s">
         <v>6</v>
@@ -5365,105 +5493,102 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H113" t="s">
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C115" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>420</v>
+        <v>289</v>
       </c>
       <c r="G115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H115" t="s">
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C116" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
@@ -5472,476 +5597,829 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="B117" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="G117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H117" t="s">
         <v>6</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>424</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>352</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="G118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
       </c>
       <c r="I118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>341</v>
+      </c>
+      <c r="B119" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120" t="s">
+        <v>336</v>
+      </c>
+      <c r="C120" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G120" t="s">
+        <v>93</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" t="s">
+        <v>211</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G121" t="s">
+        <v>93</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>350</v>
+      </c>
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G123" t="s">
+        <v>93</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="26"/>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s">
-        <v>117</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>61</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>92</v>
-      </c>
-      <c r="H121" t="s">
-        <v>117</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>384</v>
-      </c>
-      <c r="B122" t="s">
-        <v>385</v>
-      </c>
-      <c r="C122" t="s">
-        <v>153</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G122" t="s">
-        <v>92</v>
-      </c>
-      <c r="H122" t="s">
-        <v>117</v>
-      </c>
-      <c r="I122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>68</v>
-      </c>
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123">
+    <row r="124" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124">
         <v>2</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>2</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" t="s">
-        <v>92</v>
-      </c>
-      <c r="H123" t="s">
-        <v>117</v>
-      </c>
-      <c r="I123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" t="s">
-        <v>37</v>
-      </c>
-      <c r="C124" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
       <c r="F124" s="7" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="G125" t="s">
         <v>94</v>
       </c>
       <c r="H125" t="s">
-        <v>117</v>
-      </c>
-      <c r="I125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="B126" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="G126" t="s">
         <v>94</v>
       </c>
       <c r="H126" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
         <v>94</v>
       </c>
       <c r="H127" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>114</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="27"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="B128" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" t="s">
+        <v>244</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G128" t="s">
+        <v>94</v>
+      </c>
+      <c r="H128" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>364</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
+        <v>197</v>
+      </c>
+      <c r="B129" t="s">
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>365</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>2</v>
+        <v>186</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="G129" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>306</v>
-      </c>
-      <c r="C130" t="s">
-        <v>155</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="26"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
+        <v>60</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>92</v>
       </c>
       <c r="H131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>211</v>
+        <v>60</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
         <v>92</v>
       </c>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>401</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
+        <v>381</v>
+      </c>
+      <c r="B133" t="s">
+        <v>382</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G133" t="s">
         <v>92</v>
       </c>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>402</v>
-      </c>
-      <c r="B134">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B134" t="s">
+        <v>34</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>60</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
         <v>92</v>
       </c>
       <c r="H134" t="s">
+        <v>117</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" t="s">
+        <v>93</v>
+      </c>
+      <c r="H135" t="s">
+        <v>117</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G136" t="s">
+        <v>94</v>
+      </c>
+      <c r="H136" t="s">
+        <v>117</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>358</v>
+      </c>
+      <c r="B137" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G137" t="s">
+        <v>94</v>
+      </c>
+      <c r="H137" t="s">
+        <v>117</v>
+      </c>
+      <c r="I137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>369</v>
+      </c>
+      <c r="B138" t="s">
+        <v>370</v>
+      </c>
+      <c r="C138" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G138" t="s">
+        <v>94</v>
+      </c>
+      <c r="H138" t="s">
+        <v>117</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="27"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>92</v>
+      </c>
+      <c r="H140" t="s">
         <v>157</v>
       </c>
-      <c r="I134" t="s">
+    </row>
+    <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="C142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G142" t="s">
+        <v>92</v>
+      </c>
+      <c r="H142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>211</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G143" t="s">
+        <v>92</v>
+      </c>
+      <c r="H143" t="s">
+        <v>157</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>352</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G144" t="s">
+        <v>92</v>
+      </c>
+      <c r="H144" t="s">
+        <v>157</v>
+      </c>
+      <c r="I144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G145" t="s">
+        <v>92</v>
+      </c>
+      <c r="H145" t="s">
+        <v>157</v>
+      </c>
+      <c r="I145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>398</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>257</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G146" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" t="s">
+        <v>157</v>
+      </c>
+      <c r="I146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G147" t="s">
+        <v>92</v>
+      </c>
+      <c r="H147" t="s">
+        <v>157</v>
+      </c>
+      <c r="I147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>403</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>240</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B135">
+      <c r="G148" t="s">
+        <v>92</v>
+      </c>
+      <c r="H148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G149" t="s">
+        <v>93</v>
+      </c>
+      <c r="H149" t="s">
+        <v>157</v>
+      </c>
+      <c r="I149" t="s">
         <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>257</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G135" t="s">
-        <v>92</v>
-      </c>
-      <c r="H135" t="s">
-        <v>157</v>
-      </c>
-      <c r="I135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>407</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>240</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G136" t="s">
-        <v>92</v>
-      </c>
-      <c r="H136" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1D318-5CB7-4EDA-B4EF-052762D47209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D89D27-2B07-44C9-97F6-CB2DC7792660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="454">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1396,6 +1396,12 @@
   </si>
   <si>
     <t>ETBs with 4 fade counter on it. When the last is removed, sacrifice ~</t>
+  </si>
+  <si>
+    <t>Timespace Assassin</t>
+  </si>
+  <si>
+    <t>When a time counter is added to or removed from a spell you control, this gets +1/+1 until EOT for each counter.</t>
   </si>
 </sst>
 </file>
@@ -2506,11 +2512,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X149"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="A61:XFD61"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2560,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2575,7 +2581,7 @@
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
@@ -2647,7 +2653,7 @@
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
@@ -2678,7 +2684,7 @@
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>153</v>
@@ -4425,16 +4431,22 @@
     </row>
     <row r="71" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>442</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="G71" t="s">
         <v>93</v>
@@ -4443,50 +4455,44 @@
         <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>448</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>387</v>
-      </c>
-      <c r="B73" t="s">
-        <v>272</v>
+        <v>448</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="G73" t="s">
         <v>94</v>
@@ -4495,21 +4501,27 @@
         <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>387</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="G74" t="s">
         <v>94</v>
@@ -4521,63 +4533,57 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="24"/>
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
-      <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4586,27 +4592,27 @@
         <v>9</v>
       </c>
       <c r="I77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>352</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -4618,21 +4624,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B79" t="s">
-        <v>431</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
         <v>352</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -4644,24 +4653,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -4670,21 +4676,27 @@
         <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>244</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G81" t="s">
         <v>92</v>
@@ -4693,27 +4705,21 @@
         <v>9</v>
       </c>
       <c r="I81" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>352</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G82" t="s">
         <v>92</v>
@@ -4722,21 +4728,27 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>352</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="G83" t="s">
         <v>92</v>
@@ -4745,21 +4757,21 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>365</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
         <v>92</v>
@@ -4767,22 +4779,22 @@
       <c r="H84" t="s">
         <v>9</v>
       </c>
-      <c r="J84" t="s">
-        <v>3</v>
+      <c r="I84" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
         <v>153</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G85" t="s">
         <v>92</v>
@@ -4791,27 +4803,21 @@
         <v>9</v>
       </c>
       <c r="J85" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
@@ -4819,57 +4825,57 @@
       <c r="H86" t="s">
         <v>9</v>
       </c>
-      <c r="I86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
       </c>
       <c r="I87" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>412</v>
+        <v>278</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -4878,27 +4884,27 @@
         <v>9</v>
       </c>
       <c r="I88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="B89" t="s">
         <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -4907,27 +4913,27 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>429</v>
+        <v>67</v>
       </c>
       <c r="G90" t="s">
         <v>93</v>
@@ -4936,27 +4942,27 @@
         <v>9</v>
       </c>
       <c r="I90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>428</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>352</v>
+      </c>
+      <c r="D91">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>417</v>
-      </c>
-      <c r="B91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" t="s">
-        <v>419</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
       <c r="E91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="G91" t="s">
         <v>93</v>
@@ -4970,16 +4976,22 @@
     </row>
     <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>419</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>180</v>
+        <v>418</v>
       </c>
       <c r="G92" t="s">
         <v>93</v>
@@ -4988,27 +5000,21 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>444</v>
+        <v>180</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -5017,27 +5023,27 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>86</v>
+        <v>444</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -5046,50 +5052,50 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s">
         <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="G96" t="s">
         <v>94</v>
@@ -5098,21 +5104,27 @@
         <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>377</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>320</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="G97" t="s">
         <v>94</v>
@@ -5121,27 +5133,21 @@
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>372</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
         <v>94</v>
@@ -5150,27 +5156,27 @@
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="C99" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G99" t="s">
         <v>94</v>
@@ -5179,27 +5185,27 @@
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="G100" t="s">
         <v>94</v>
@@ -5208,60 +5214,60 @@
         <v>9</v>
       </c>
       <c r="I100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="25"/>
-    </row>
-    <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>316</v>
-      </c>
-      <c r="B103" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G103" t="s">
-        <v>92</v>
-      </c>
-      <c r="H103" t="s">
-        <v>6</v>
-      </c>
-      <c r="I103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>328</v>
       </c>
       <c r="B104" t="s">
         <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>325</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G104" t="s">
         <v>92</v>
@@ -5273,18 +5279,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
         <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>325</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="G105" t="s">
         <v>92</v>
@@ -5293,27 +5305,21 @@
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="B106" t="s">
         <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="G106" t="s">
         <v>92</v>
@@ -5322,18 +5328,18 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="G107" t="s">
         <v>92</v>
@@ -5351,27 +5357,27 @@
         <v>6</v>
       </c>
       <c r="I107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>285</v>
+        <v>413</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
       <c r="G108" t="s">
         <v>92</v>
@@ -5380,27 +5386,27 @@
         <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="G109" t="s">
         <v>92</v>
@@ -5409,15 +5415,15 @@
         <v>6</v>
       </c>
       <c r="I109" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C110" t="s">
         <v>320</v>
@@ -5426,10 +5432,10 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G110" t="s">
         <v>92</v>
@@ -5443,22 +5449,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G111" t="s">
         <v>92</v>
@@ -5470,18 +5476,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>186</v>
+        <v>325</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>170</v>
+        <v>326</v>
       </c>
       <c r="G112" t="s">
         <v>92</v>
@@ -5490,21 +5502,21 @@
         <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="G113" t="s">
         <v>92</v>
@@ -5516,9 +5528,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
         <v>194</v>
@@ -5527,36 +5539,30 @@
         <v>153</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="G114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s">
         <v>6</v>
       </c>
       <c r="I114" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="G115" t="s">
         <v>93</v>
@@ -5565,27 +5571,27 @@
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="G116" t="s">
         <v>93</v>
@@ -5594,27 +5600,27 @@
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
         <v>320</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G117" t="s">
         <v>93</v>
@@ -5626,24 +5632,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="B118" t="s">
         <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="G118" t="s">
         <v>93</v>
@@ -5652,27 +5658,27 @@
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="B119" t="s">
         <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="G119" t="s">
         <v>93</v>
@@ -5681,27 +5687,27 @@
         <v>6</v>
       </c>
       <c r="I119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
         <v>320</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G120" t="s">
         <v>93</v>
@@ -5715,16 +5721,22 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="C121" t="s">
-        <v>211</v>
+        <v>320</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="G121" t="s">
         <v>93</v>
@@ -5732,25 +5744,22 @@
       <c r="H121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="G122" t="s">
         <v>93</v>
@@ -5758,22 +5767,25 @@
       <c r="H122" t="s">
         <v>6</v>
       </c>
-      <c r="I122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="B123" t="s">
         <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>320</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="G123" t="s">
         <v>93</v>
@@ -5782,50 +5794,50 @@
         <v>6</v>
       </c>
       <c r="I123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="B124" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H124" t="s">
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>211</v>
+        <v>320</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="G125" t="s">
         <v>94</v>
@@ -5833,25 +5845,22 @@
       <c r="H125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>416</v>
+        <v>212</v>
       </c>
       <c r="G126" t="s">
         <v>94</v>
@@ -5859,28 +5868,25 @@
       <c r="H126" t="s">
         <v>6</v>
       </c>
-      <c r="I126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G127" t="s">
         <v>94</v>
@@ -5889,27 +5895,27 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="G128" t="s">
         <v>94</v>
@@ -5918,21 +5924,27 @@
         <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>244</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="G129" t="s">
         <v>94</v>
@@ -5944,57 +5956,51 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>113</v>
-      </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="26"/>
+        <v>197</v>
+      </c>
+      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G130" t="s">
+        <v>94</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>59</v>
-      </c>
-      <c r="B131" t="s">
-        <v>28</v>
-      </c>
-      <c r="C131" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" t="s">
-        <v>92</v>
-      </c>
-      <c r="H131" t="s">
-        <v>117</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
       </c>
       <c r="C132" t="s">
         <v>60</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6012,18 +6018,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>381</v>
-      </c>
-      <c r="B133" t="s">
-        <v>382</v>
+        <v>61</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>92</v>
@@ -6032,27 +6044,21 @@
         <v>117</v>
       </c>
       <c r="I133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="C134" t="s">
-        <v>60</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>29</v>
+        <v>383</v>
       </c>
       <c r="G134" t="s">
         <v>92</v>
@@ -6061,30 +6067,30 @@
         <v>117</v>
       </c>
       <c r="I134" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C135" t="s">
         <v>60</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s">
         <v>117</v>
@@ -6093,12 +6099,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
         <v>60</v>
@@ -6110,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
         <v>117</v>
@@ -6122,24 +6128,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="G137" t="s">
         <v>94</v>
@@ -6148,18 +6154,18 @@
         <v>117</v>
       </c>
       <c r="I137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C138" t="s">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6168,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G138" t="s">
         <v>94</v>
@@ -6177,93 +6183,102 @@
         <v>117</v>
       </c>
       <c r="I138" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>114</v>
-      </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="27"/>
+        <v>369</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G139" t="s">
+        <v>94</v>
+      </c>
+      <c r="H139" t="s">
+        <v>117</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>114</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="27"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>361</v>
       </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
         <v>362</v>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
         <v>92</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>305</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>155</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-    </row>
-    <row r="142" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>256</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>257</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G142" t="s">
-        <v>92</v>
-      </c>
-      <c r="H142" t="s">
-        <v>157</v>
-      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
     </row>
     <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="G143" t="s">
         <v>92</v>
@@ -6271,28 +6286,19 @@
       <c r="H143" t="s">
         <v>157</v>
       </c>
-      <c r="I143" t="s">
+    </row>
+    <row r="144" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>318</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
       <c r="C144" t="s">
-        <v>352</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="G144" t="s">
         <v>92</v>
@@ -6304,18 +6310,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>257</v>
+        <v>352</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="G145" t="s">
         <v>92</v>
@@ -6324,12 +6336,12 @@
         <v>157</v>
       </c>
       <c r="I145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6338,7 +6350,7 @@
         <v>257</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G146" t="s">
         <v>92</v>
@@ -6352,7 +6364,7 @@
     </row>
     <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -6361,7 +6373,7 @@
         <v>257</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G147" t="s">
         <v>92</v>
@@ -6373,18 +6385,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G148" t="s">
         <v>92</v>
@@ -6392,33 +6404,56 @@
       <c r="H148" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>352</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H149" t="s">
         <v>157</v>
       </c>
-      <c r="I149" t="s">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>436</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>352</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G150" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" t="s">
+        <v>157</v>
+      </c>
+      <c r="I150" t="s">
         <v>3</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D89D27-2B07-44C9-97F6-CB2DC7792660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A1C2F-C914-2F43-94B5-7BEA87FD126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="471">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Armored Oathsworn</t>
   </si>
   <si>
-    <t>Absorb 1</t>
-  </si>
-  <si>
     <t>Rising Champion</t>
   </si>
   <si>
@@ -481,13 +478,7 @@
     <t>Flying; T: Untap target non-Wizard creature. If it is an Insect and it is your combat phase, there is an additional combat phase after this one.</t>
   </si>
   <si>
-    <t>Flying; Absorb 1; Monstrous 3: 1W</t>
-  </si>
-  <si>
     <t>Hercules Knight</t>
-  </si>
-  <si>
-    <t>Absorb 1; First Strike</t>
   </si>
   <si>
     <t>Arcanum</t>
@@ -1402,6 +1393,66 @@
   </si>
   <si>
     <t>When a time counter is added to or removed from a spell you control, this gets +1/+1 until EOT for each counter.</t>
+  </si>
+  <si>
+    <t>Fleshcraft 3B</t>
+  </si>
+  <si>
+    <t>Disruptive chronomage</t>
+  </si>
+  <si>
+    <t>T: Tap target creature</t>
+  </si>
+  <si>
+    <t>Time Stop</t>
+  </si>
+  <si>
+    <t>4UU</t>
+  </si>
+  <si>
+    <t>End the turn</t>
+  </si>
+  <si>
+    <t>Martial Law</t>
+  </si>
+  <si>
+    <t>blah blah blah</t>
+  </si>
+  <si>
+    <t>Flying; Armor 1; Monstrous 3: 1W</t>
+  </si>
+  <si>
+    <t>Armor 1; First Strike</t>
+  </si>
+  <si>
+    <t>Carapace Plate</t>
+  </si>
+  <si>
+    <t>Equipped creature gets +0+1 and Armor 1 Equip 2</t>
+  </si>
+  <si>
+    <t>Phantasmal Image</t>
+  </si>
+  <si>
+    <t>Creature - Illusion</t>
+  </si>
+  <si>
+    <t>blah blah</t>
+  </si>
+  <si>
+    <t>Overgrown Cluster</t>
+  </si>
+  <si>
+    <t>Creature - Plant</t>
+  </si>
+  <si>
+    <t>Propagation; At the end of your turn, gain a ife for each plant you control</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Propagation;</t>
   </si>
 </sst>
 </file>
@@ -1971,22 +2022,22 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +2068,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2076,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2084,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2092,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2100,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2092,10 +2143,10 @@
         <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2117,44 +2168,44 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
         <v>405</v>
-      </c>
-      <c r="B17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2170,18 +2221,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2204,29 +2255,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>106</v>
@@ -2252,53 +2303,53 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2315,10 +2366,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2330,176 +2381,176 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="B26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E27" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="D28" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>237</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2512,25 +2563,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="A71:XFD71"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2560,14 +2611,14 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="15">
         <f>COUNTIF($H:$H,"White")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>119</v>
@@ -2581,7 +2632,7 @@
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
@@ -2595,7 +2646,7 @@
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2609,10 +2660,10 @@
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2676,7 @@
       </c>
       <c r="N2">
         <f>COUNTIF($I:$I,M2)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -2635,7 +2686,7 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R2">
         <f>COUNTIF($I:$I,Q2)</f>
@@ -2653,17 +2704,17 @@
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2677,21 +2728,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2702,15 +2753,15 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2719,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
         <v>92</v>
@@ -2728,45 +2779,45 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
         <v>8</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R4" s="20">
         <f>COUNTIF($C:$C,"*Enchantment*")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="T4" s="20">
         <f>COUNTIF($C:$C,"*Artifact*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V4" s="20">
         <f>COUNTIF($C:$C,"*Land*")</f>
@@ -2775,7 +2826,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2833,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2862,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2891,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2920,9 +2971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -2937,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -2949,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2975,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2992,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -3004,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3033,18 +3084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
@@ -3053,18 +3104,18 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3082,18 +3133,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>92</v>
@@ -3102,21 +3153,21 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
         <v>93</v>
@@ -3128,9 +3179,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -3145,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
         <v>93</v>
@@ -3157,15 +3208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3174,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G19" t="s">
         <v>93</v>
@@ -3183,12 +3234,12 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -3203,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -3215,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3244,12 +3295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
         <v>131</v>
@@ -3273,9 +3324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -3290,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>459</v>
       </c>
       <c r="G23" t="s">
         <v>93</v>
@@ -3302,9 +3353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -3319,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>460</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3331,18 +3382,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3351,15 +3402,15 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
@@ -3371,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -3383,18 +3434,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3403,18 +3454,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
         <v>94</v>
@@ -3423,21 +3474,21 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -3449,9 +3500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -3466,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
         <v>94</v>
@@ -3478,24 +3529,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="G31" t="s">
         <v>94</v>
@@ -3507,24 +3552,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -3536,24 +3581,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
         <v>94</v>
@@ -3562,27 +3607,27 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -3591,66 +3636,66 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>244</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
         <v>92</v>
@@ -3659,27 +3704,27 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>467</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>470</v>
       </c>
       <c r="G38" t="s">
         <v>92</v>
@@ -3688,21 +3733,27 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>435</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3710,19 +3761,28 @@
       <c r="H39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -3731,73 +3791,58 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>431</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
@@ -3806,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
         <v>93</v>
@@ -3821,24 +3866,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
         <v>93</v>
@@ -3847,21 +3892,27 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
         <v>93</v>
@@ -3873,18 +3924,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>241</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="G46" t="s">
         <v>93</v>
@@ -3893,21 +3950,21 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
@@ -3916,27 +3973,21 @@
         <v>7</v>
       </c>
       <c r="I47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
       <c r="F48" s="7" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="G48" t="s">
         <v>93</v>
@@ -3945,59 +3996,53 @@
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -4006,18 +4051,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
         <v>94</v>
@@ -4026,27 +4077,27 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="B52" t="s">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>467</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>262</v>
+        <v>468</v>
       </c>
       <c r="G52" t="s">
         <v>94</v>
@@ -4055,103 +4106,112 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>299</v>
-      </c>
-      <c r="B58" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G59" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>409</v>
-      </c>
-      <c r="B60" t="s">
-        <v>199</v>
-      </c>
       <c r="C60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>410</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
         <v>92</v>
@@ -4160,27 +4220,21 @@
         <v>8</v>
       </c>
       <c r="I60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>449</v>
+        <v>296</v>
       </c>
       <c r="B61" t="s">
-        <v>450</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>442</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="G61" t="s">
         <v>92</v>
@@ -4192,18 +4246,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="G62" t="s">
         <v>92</v>
@@ -4212,24 +4266,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="G63" t="s">
         <v>92</v>
@@ -4241,18 +4295,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>439</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
         <v>92</v>
@@ -4260,19 +4320,22 @@
       <c r="H64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>312</v>
+        <v>430</v>
       </c>
       <c r="G65" t="s">
         <v>92</v>
@@ -4280,28 +4343,25 @@
       <c r="H65" t="s">
         <v>8</v>
       </c>
-      <c r="I65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="G66" t="s">
         <v>92</v>
@@ -4310,27 +4370,21 @@
         <v>8</v>
       </c>
       <c r="I66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" t="s">
+        <v>390</v>
+      </c>
+      <c r="C67" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B67" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" t="s">
-        <v>442</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
       <c r="F67" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G67" t="s">
         <v>92</v>
@@ -4338,31 +4392,22 @@
       <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="I67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
@@ -4371,44 +4416,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4417,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
@@ -4429,21 +4474,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>452</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>453</v>
@@ -4458,18 +4503,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>349</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="G72" t="s">
         <v>93</v>
@@ -4478,277 +4529,274 @@
         <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>448</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>387</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>241</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>439</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>274</v>
+        <v>443</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>439</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>176</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
       </c>
       <c r="I75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F77" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G77" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>464</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>445</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="24"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B83" t="s">
         <v>48</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C83" t="s">
         <v>60</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G77" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>317</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>420</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" t="s">
-        <v>352</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>430</v>
-      </c>
-      <c r="B80" t="s">
-        <v>431</v>
-      </c>
-      <c r="C80" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>92</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>275</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G81" t="s">
-        <v>92</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>300</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>421</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>352</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="G83" t="s">
         <v>92</v>
@@ -4757,21 +4805,27 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>349</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="G84" t="s">
         <v>92</v>
@@ -4780,21 +4834,27 @@
         <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>349</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="G85" t="s">
         <v>92</v>
@@ -4802,22 +4862,28 @@
       <c r="H85" t="s">
         <v>9</v>
       </c>
-      <c r="J85" t="s">
+      <c r="I85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>427</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>349</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
@@ -4825,19 +4891,19 @@
       <c r="H86" t="s">
         <v>9</v>
       </c>
-      <c r="J86" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4846,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -4855,47 +4921,41 @@
         <v>9</v>
       </c>
       <c r="I87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
       </c>
       <c r="I88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4904,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -4916,134 +4976,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>352</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>419</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
       </c>
-      <c r="I92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>60</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>443</v>
+        <v>274</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -5052,27 +5100,27 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="G95" t="s">
         <v>93</v>
@@ -5081,122 +5129,128 @@
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="G96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
       </c>
       <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>425</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>377</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="G97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>416</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>177</v>
+        <v>415</v>
       </c>
       <c r="G98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H98" t="s">
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>372</v>
+        <v>177</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5205,237 +5259,231 @@
         <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H100" t="s">
         <v>9</v>
       </c>
       <c r="I100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>284</v>
-      </c>
-      <c r="B101" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
       <c r="F101" s="7" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
       </c>
       <c r="I101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F102" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G102" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G103" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G104" t="s">
+        <v>94</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>365</v>
+      </c>
+      <c r="B105" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G106" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G107" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="25"/>
-    </row>
-    <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>316</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>313</v>
+      </c>
+      <c r="B110" t="s">
         <v>94</v>
       </c>
-      <c r="C104" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G104" t="s">
-        <v>92</v>
-      </c>
-      <c r="H104" t="s">
-        <v>6</v>
-      </c>
-      <c r="I104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G105" t="s">
-        <v>92</v>
-      </c>
-      <c r="H105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" t="s">
-        <v>153</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G106" t="s">
-        <v>92</v>
-      </c>
-      <c r="H106" t="s">
-        <v>6</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="C110" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>322</v>
-      </c>
-      <c r="B107" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" t="s">
-        <v>320</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G107" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" t="s">
-        <v>6</v>
-      </c>
-      <c r="I107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>413</v>
-      </c>
-      <c r="B108" t="s">
-        <v>288</v>
-      </c>
-      <c r="C108" t="s">
-        <v>352</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G108" t="s">
-        <v>92</v>
-      </c>
-      <c r="H108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>285</v>
-      </c>
-      <c r="B109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" t="s">
-        <v>244</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G109" t="s">
-        <v>92</v>
-      </c>
-      <c r="H109" t="s">
-        <v>6</v>
-      </c>
-      <c r="I109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" t="s">
-        <v>288</v>
-      </c>
-      <c r="C110" t="s">
-        <v>320</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
       <c r="F110" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G110" t="s">
         <v>92</v>
@@ -5447,24 +5495,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G111" t="s">
         <v>92</v>
@@ -5476,24 +5524,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
       <c r="G112" t="s">
         <v>92</v>
@@ -5502,21 +5544,27 @@
         <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
         <v>94</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>317</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="G113" t="s">
         <v>92</v>
@@ -5525,21 +5573,27 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>349</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>301</v>
+        <v>411</v>
       </c>
       <c r="G114" t="s">
         <v>92</v>
@@ -5548,82 +5602,88 @@
         <v>6</v>
       </c>
       <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>241</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H115" t="s">
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="G116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s">
         <v>6</v>
@@ -5632,27 +5692,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="G118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -5661,82 +5721,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C119" t="s">
-        <v>352</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>425</v>
+        <v>167</v>
       </c>
       <c r="G119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s">
         <v>6</v>
       </c>
       <c r="I119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120">
-        <v>4</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s">
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>320</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="G121" t="s">
         <v>93</v>
@@ -5745,21 +5787,27 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>241</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="G122" t="s">
         <v>93</v>
@@ -5767,25 +5815,28 @@
       <c r="H122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="G123" t="s">
         <v>93</v>
@@ -5797,18 +5848,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>317</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="G124" t="s">
         <v>93</v>
@@ -5817,396 +5874,387 @@
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="C125" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="G125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H125" t="s">
         <v>6</v>
       </c>
       <c r="I125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" t="s">
+        <v>317</v>
+      </c>
+      <c r="D126">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>210</v>
-      </c>
-      <c r="B126" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" t="s">
-        <v>211</v>
+      <c r="E126">
+        <v>3</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="G126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="G127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H127" t="s">
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C128" t="s">
-        <v>320</v>
-      </c>
-      <c r="D128">
-        <v>3</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
         <v>6</v>
       </c>
-      <c r="I128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="B129" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C129" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="G129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H129" t="s">
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G130" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H130" t="s">
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" t="s">
+        <v>317</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G131" t="s">
+        <v>94</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G132" t="s">
+        <v>94</v>
+      </c>
+      <c r="H132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>412</v>
+      </c>
+      <c r="B133" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G133" t="s">
+        <v>94</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+      <c r="I133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" t="s">
+        <v>317</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G134" t="s">
+        <v>94</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>241</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G135" t="s">
+        <v>94</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>94</v>
+      </c>
+      <c r="H136" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>113</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="26"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>59</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B138" t="s">
         <v>28</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C138" t="s">
         <v>60</v>
       </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G138" t="s">
         <v>92</v>
-      </c>
-      <c r="H132" t="s">
-        <v>117</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" t="s">
-        <v>92</v>
-      </c>
-      <c r="H133" t="s">
-        <v>117</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>381</v>
-      </c>
-      <c r="B134" t="s">
-        <v>382</v>
-      </c>
-      <c r="C134" t="s">
-        <v>153</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G134" t="s">
-        <v>92</v>
-      </c>
-      <c r="H134" t="s">
-        <v>117</v>
-      </c>
-      <c r="I134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>68</v>
-      </c>
-      <c r="B135" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" t="s">
-        <v>92</v>
-      </c>
-      <c r="H135" t="s">
-        <v>117</v>
-      </c>
-      <c r="I135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" t="s">
-        <v>37</v>
-      </c>
-      <c r="C136" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G136" t="s">
-        <v>93</v>
-      </c>
-      <c r="H136" t="s">
-        <v>117</v>
-      </c>
-      <c r="I136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G137" t="s">
-        <v>94</v>
-      </c>
-      <c r="H137" t="s">
-        <v>117</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>358</v>
-      </c>
-      <c r="B138" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" t="s">
-        <v>320</v>
-      </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138">
-        <v>2</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G138" t="s">
-        <v>94</v>
       </c>
       <c r="H138" t="s">
         <v>117</v>
       </c>
       <c r="I138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>369</v>
-      </c>
-      <c r="B139" t="s">
-        <v>370</v>
+        <v>61</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
       </c>
       <c r="C139" t="s">
         <v>60</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H139" t="s">
         <v>117</v>
@@ -6215,251 +6263,442 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>114</v>
-      </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="27"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="B140" t="s">
+        <v>379</v>
+      </c>
+      <c r="C140" t="s">
+        <v>150</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G140" t="s">
+        <v>92</v>
+      </c>
+      <c r="H140" t="s">
+        <v>117</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>361</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>362</v>
+        <v>60</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
         <v>2</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>92</v>
       </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>305</v>
+        <v>36</v>
+      </c>
+      <c r="B142" t="s">
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>60</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-    </row>
-    <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G142" t="s">
+        <v>93</v>
+      </c>
+      <c r="H142" t="s">
+        <v>117</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>257</v>
+        <v>60</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>304</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
+        <v>355</v>
+      </c>
+      <c r="B144" t="s">
+        <v>356</v>
       </c>
       <c r="C144" t="s">
-        <v>211</v>
+        <v>317</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="G144" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H144" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>318</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>367</v>
       </c>
       <c r="C145" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="G145" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H145" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>397</v>
-      </c>
-      <c r="B146">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>257</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G146" t="s">
-        <v>92</v>
-      </c>
-      <c r="H146" t="s">
-        <v>157</v>
-      </c>
-      <c r="I146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="27"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>257</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>399</v>
+        <v>359</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
       </c>
       <c r="G147" t="s">
         <v>92</v>
       </c>
       <c r="H147" t="s">
-        <v>157</v>
-      </c>
-      <c r="I147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>253</v>
+      </c>
+      <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>400</v>
-      </c>
-      <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>257</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G148" t="s">
-        <v>92</v>
-      </c>
-      <c r="H148" t="s">
-        <v>157</v>
-      </c>
-      <c r="I148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>403</v>
-      </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="G149" t="s">
         <v>92</v>
       </c>
       <c r="H149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>301</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>352</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="G150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H150" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I150" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G151" t="s">
+        <v>92</v>
+      </c>
+      <c r="H151" t="s">
+        <v>154</v>
+      </c>
+      <c r="I151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>394</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>254</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G152" t="s">
+        <v>92</v>
+      </c>
+      <c r="H152" t="s">
+        <v>154</v>
+      </c>
+      <c r="I152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>395</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>254</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G153" t="s">
+        <v>92</v>
+      </c>
+      <c r="H153" t="s">
+        <v>154</v>
+      </c>
+      <c r="I153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>397</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>254</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G154" t="s">
+        <v>92</v>
+      </c>
+      <c r="H154" t="s">
+        <v>154</v>
+      </c>
+      <c r="I154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G155" t="s">
+        <v>92</v>
+      </c>
+      <c r="H155" t="s">
+        <v>154</v>
+      </c>
+      <c r="I155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>400</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G156" t="s">
+        <v>92</v>
+      </c>
+      <c r="H156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>349</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
+      </c>
+      <c r="H157" t="s">
+        <v>154</v>
+      </c>
+      <c r="I157" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G34">
-    <sortCondition ref="G5:G34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G35">
+    <sortCondition ref="G5:G35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A1C2F-C914-2F43-94B5-7BEA87FD126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36EF9C-05A4-0846-87B3-43BBE8DD2F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="489">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1365,9 +1365,6 @@
     <t>Spinal Armorcrawler</t>
   </si>
   <si>
-    <t>Fleshcraft B; If ~ would die, and is fleshcrafter, you may remove this card from the game instead</t>
-  </si>
-  <si>
     <t>Fading Chronomancer</t>
   </si>
   <si>
@@ -1449,10 +1446,67 @@
     <t>Propagation; At the end of your turn, gain a ife for each plant you control</t>
   </si>
   <si>
-    <t>Sapling</t>
-  </si>
-  <si>
-    <t>Propagation;</t>
+    <t>Weed Eater</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted</t>
+  </si>
+  <si>
+    <t>Root Cluster</t>
+  </si>
+  <si>
+    <t>Seedspitter</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, it dealls 1 damage to target player</t>
+  </si>
+  <si>
+    <t>Deepvine Connection</t>
+  </si>
+  <si>
+    <t>Pay 1 lie: Prevent the next 1 damage that would be dealt to target creature you control</t>
+  </si>
+  <si>
+    <t>Soul Warden</t>
+  </si>
+  <si>
+    <t>When another creature ETBs, gain 1 life</t>
+  </si>
+  <si>
+    <t>Brain Crawler</t>
+  </si>
+  <si>
+    <t>Fleshcraft 2U; When ~ deals combat damage to a player, draw a card.</t>
+  </si>
+  <si>
+    <t>Sweatsoaked Sentry</t>
+  </si>
+  <si>
+    <t>Fleshcraft 2U; Hexproof</t>
+  </si>
+  <si>
+    <t>Innocent Blood</t>
+  </si>
+  <si>
+    <t>Each player sacrifices a creature</t>
+  </si>
+  <si>
+    <t>Devour Flesh</t>
+  </si>
+  <si>
+    <t>Profane Ritual</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, each player sacrifices a creature. For each player who can't you lose a life</t>
+  </si>
+  <si>
+    <t>Uterine Mass</t>
+  </si>
+  <si>
+    <t>Fleshcraft 2B; At the beginning of your upkeep, make a 0/1 colorless Flesh pile creature token</t>
+  </si>
+  <si>
+    <t>Fleshcraft 2B; If ~ would die, and is fleshcrafted, you may remove this card from the game instead</t>
   </si>
 </sst>
 </file>
@@ -2563,11 +2617,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X157"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M85" sqref="M85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2611,28 +2665,28 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="15">
         <f>COUNTIF($H:$H,"White")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>119</v>
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
@@ -2646,7 +2700,7 @@
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2683,7 +2737,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
@@ -2711,7 +2765,7 @@
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2728,21 +2782,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2786,28 +2840,28 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
       </c>
       <c r="R4" s="20">
         <f>COUNTIF($C:$C,"*Enchantment*")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>237</v>
@@ -3297,22 +3351,22 @@
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>476</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3321,15 +3375,15 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
         <v>131</v>
@@ -3341,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
         <v>93</v>
@@ -3355,22 +3409,22 @@
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>131</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3382,18 +3436,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>459</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3402,27 +3462,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -3431,21 +3485,27 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>126</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3453,42 +3513,42 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -3497,27 +3557,21 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
         <v>94</v>
@@ -3529,18 +3583,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>457</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
         <v>94</v>
@@ -3554,22 +3614,16 @@
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -3581,24 +3635,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
         <v>94</v>
@@ -3610,24 +3664,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -3636,27 +3690,27 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -3665,66 +3719,66 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>244</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>469</v>
       </c>
       <c r="B38" t="s">
         <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>467</v>
+        <v>241</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>470</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
         <v>92</v>
@@ -3733,27 +3787,27 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>470</v>
       </c>
       <c r="B39" t="s">
         <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>466</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3762,27 +3816,27 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -3794,18 +3848,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="G41" t="s">
         <v>92</v>
@@ -3813,19 +3873,22 @@
       <c r="H41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>166</v>
+        <v>432</v>
       </c>
       <c r="G42" t="s">
         <v>92</v>
@@ -3833,115 +3896,106 @@
       <c r="H42" t="s">
         <v>7</v>
       </c>
-      <c r="I42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>468</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>466</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>65</v>
+        <v>469</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>466</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>160</v>
+        <v>472</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
         <v>93</v>
@@ -3950,21 +4004,27 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
         <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
@@ -3976,18 +4036,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>307</v>
+        <v>474</v>
       </c>
       <c r="G48" t="s">
         <v>93</v>
@@ -4001,16 +4061,22 @@
     </row>
     <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
         <v>93</v>
@@ -4019,27 +4085,27 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
         <v>93</v>
@@ -4048,30 +4114,24 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -4080,27 +4140,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>467</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -4109,76 +4163,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
         <v>94</v>
@@ -4187,132 +4241,141 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>466</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="23"/>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>199</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>93</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G60" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>296</v>
-      </c>
-      <c r="B61" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>387</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G62" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>406</v>
-      </c>
-      <c r="B63" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" t="s">
-        <v>447</v>
-      </c>
-      <c r="C64" t="s">
-        <v>439</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="G64" t="s">
         <v>92</v>
@@ -4321,21 +4384,21 @@
         <v>8</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s">
         <v>295</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="G65" t="s">
         <v>92</v>
@@ -4343,25 +4406,22 @@
       <c r="H65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
-        <v>349</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="G66" t="s">
         <v>92</v>
@@ -4369,22 +4429,25 @@
       <c r="H66" t="s">
         <v>8</v>
       </c>
-      <c r="I66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>349</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="G67" t="s">
         <v>92</v>
@@ -4392,19 +4455,28 @@
       <c r="H67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>439</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="G68" t="s">
         <v>92</v>
@@ -4413,27 +4485,21 @@
         <v>8</v>
       </c>
       <c r="I68" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>265</v>
+        <v>430</v>
       </c>
       <c r="G69" t="s">
         <v>92</v>
@@ -4441,28 +4507,25 @@
       <c r="H69" t="s">
         <v>8</v>
       </c>
-      <c r="I69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
         <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="G70" t="s">
         <v>92</v>
@@ -4471,59 +4534,44 @@
         <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="C71" t="s">
-        <v>439</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="I71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>435</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>436</v>
+        <v>309</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
@@ -4532,27 +4580,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>387</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
         <v>241</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
@@ -4563,10 +4611,10 @@
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>439</v>
@@ -4578,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
@@ -4590,24 +4638,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
         <v>439</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G75" t="s">
         <v>93</v>
@@ -4621,16 +4669,22 @@
     </row>
     <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s">
         <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>349</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="G76" t="s">
         <v>93</v>
@@ -4639,76 +4693,88 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>349</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
-        <v>464</v>
+        <v>241</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>445</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>439</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s">
         <v>8</v>
@@ -4717,50 +4783,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>439</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
         <v>183</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
@@ -4769,51 +4835,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="24"/>
-    </row>
-    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="B82" t="s">
+        <v>454</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>463</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>84</v>
+        <v>464</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>349</v>
@@ -4825,146 +4904,121 @@
         <v>1</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>417</v>
-      </c>
-      <c r="B85" t="s">
-        <v>48</v>
+        <v>444</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>451</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I87" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H88" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>418</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>60</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s">
         <v>92</v>
@@ -4973,21 +5027,27 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>349</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="G90" t="s">
         <v>92</v>
@@ -4996,21 +5056,27 @@
         <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>349</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G91" t="s">
         <v>92</v>
@@ -5018,22 +5084,28 @@
       <c r="H91" t="s">
         <v>9</v>
       </c>
-      <c r="J91" t="s">
+      <c r="I91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>349</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="G92" t="s">
         <v>92</v>
@@ -5041,28 +5113,22 @@
       <c r="H92" t="s">
         <v>9</v>
       </c>
-      <c r="J92" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>483</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>89</v>
+        <v>464</v>
       </c>
       <c r="G93" t="s">
         <v>92</v>
@@ -5070,48 +5136,36 @@
       <c r="H93" t="s">
         <v>9</v>
       </c>
-      <c r="I93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>481</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>275</v>
+        <v>482</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
       </c>
-      <c r="I94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5120,68 +5174,62 @@
         <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
         <v>349</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -5190,108 +5238,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>416</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="G98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s">
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>361</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="G99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
       </c>
-      <c r="I99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>349</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
         <v>9</v>
       </c>
-      <c r="I100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
         <v>60</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -5300,38 +5336,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="G102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
       </c>
       <c r="I102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5340,120 +5382,120 @@
         <v>1</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="G103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="G104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H104" t="s">
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="G105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="G106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="G107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -5462,300 +5504,300 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>440</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="25"/>
-    </row>
-    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G109" t="s">
+        <v>93</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s">
+        <v>93</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G111" t="s">
         <v>94</v>
       </c>
-      <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G110" t="s">
-        <v>92</v>
-      </c>
-      <c r="H110" t="s">
-        <v>6</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" t="s">
+        <v>317</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G112" t="s">
+        <v>94</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>325</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113" t="s">
         <v>94</v>
       </c>
-      <c r="C111" t="s">
-        <v>322</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G111" t="s">
-        <v>92</v>
-      </c>
-      <c r="H111" t="s">
-        <v>6</v>
-      </c>
-      <c r="I111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>484</v>
+      </c>
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" t="s">
         <v>94</v>
       </c>
-      <c r="C112" t="s">
-        <v>150</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G112" t="s">
-        <v>92</v>
-      </c>
-      <c r="H112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>319</v>
-      </c>
-      <c r="B113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G113" t="s">
-        <v>92</v>
-      </c>
-      <c r="H113" t="s">
-        <v>6</v>
-      </c>
-      <c r="I113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>410</v>
-      </c>
-      <c r="B114" t="s">
-        <v>285</v>
-      </c>
-      <c r="C114" t="s">
-        <v>349</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G114" t="s">
-        <v>92</v>
-      </c>
       <c r="H114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I114" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G115" t="s">
         <v>94</v>
       </c>
-      <c r="C115" t="s">
-        <v>241</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G115" t="s">
-        <v>92</v>
-      </c>
       <c r="H115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
         <v>317</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G116" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I116" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="G117" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>321</v>
-      </c>
-      <c r="B118" t="s">
-        <v>191</v>
-      </c>
-      <c r="C118" t="s">
-        <v>322</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118">
-        <v>3</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G118" t="s">
-        <v>92</v>
-      </c>
-      <c r="H118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>195</v>
-      </c>
-      <c r="B119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="25"/>
+    </row>
+    <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s">
         <v>94</v>
-      </c>
-      <c r="C119" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G119" t="s">
-        <v>92</v>
-      </c>
-      <c r="H119" t="s">
-        <v>6</v>
-      </c>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>318</v>
-      </c>
-      <c r="B120" t="s">
-        <v>191</v>
       </c>
       <c r="C120" t="s">
         <v>150</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="G120" t="s">
         <v>92</v>
@@ -5764,53 +5806,53 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>322</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
-      </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
@@ -5821,7 +5863,7 @@
     </row>
     <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B123" t="s">
         <v>94</v>
@@ -5836,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s">
         <v>6</v>
@@ -5850,68 +5892,68 @@
     </row>
     <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C124" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H124" t="s">
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
       <c r="G125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H125" t="s">
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C126" t="s">
         <v>317</v>
@@ -5920,13 +5962,13 @@
         <v>4</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s">
         <v>6</v>
@@ -5937,25 +5979,25 @@
     </row>
     <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
         <v>317</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s">
         <v>6</v>
@@ -5964,70 +6006,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>322</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="G128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H129" t="s">
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="B130" t="s">
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H130" t="s">
         <v>6</v>
@@ -6036,87 +6081,90 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="G132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H132" t="s">
         <v>6</v>
       </c>
+      <c r="I132" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="G133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
         <v>191</v>
@@ -6125,16 +6173,16 @@
         <v>317</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="G134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H134" t="s">
         <v>6</v>
@@ -6143,15 +6191,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -6160,141 +6208,157 @@
         <v>3</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>288</v>
+        <v>422</v>
       </c>
       <c r="G135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H135" t="s">
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="B136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>317</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="G136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
         <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="26"/>
+        <v>332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G137" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="G138" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H138" t="s">
-        <v>117</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>61</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="G139" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H139" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="G140" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H140" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6303,402 +6367,652 @@
         <v>2</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="G141" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H141" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>60</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H142" t="s">
-        <v>117</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>73</v>
+        <v>413</v>
       </c>
       <c r="G143" t="s">
         <v>94</v>
       </c>
       <c r="H143" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B144" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
         <v>317</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G144" t="s">
         <v>94</v>
       </c>
       <c r="H144" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I144" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="G145" t="s">
         <v>94</v>
       </c>
       <c r="H145" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>114</v>
-      </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="27"/>
+        <v>194</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" t="s">
+        <v>94</v>
+      </c>
+      <c r="H146" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>358</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>359</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>2</v>
-      </c>
-      <c r="G147" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" t="s">
+        <v>60</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" t="s">
         <v>92</v>
       </c>
-      <c r="H147" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>302</v>
-      </c>
-      <c r="C148" t="s">
-        <v>152</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>117</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>254</v>
+        <v>60</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>92</v>
       </c>
       <c r="H149" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>301</v>
-      </c>
-      <c r="B150">
-        <v>3</v>
+        <v>378</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G150" t="s">
         <v>92</v>
       </c>
       <c r="H150" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I150" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>315</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>60</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>92</v>
       </c>
       <c r="H151" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>394</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B152" t="s">
+        <v>37</v>
       </c>
       <c r="C152" t="s">
-        <v>254</v>
+        <v>60</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>399</v>
+        <v>71</v>
       </c>
       <c r="G152" t="s">
+        <v>93</v>
+      </c>
+      <c r="H152" t="s">
+        <v>117</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G153" t="s">
+        <v>94</v>
+      </c>
+      <c r="H153" t="s">
+        <v>117</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" t="s">
+        <v>356</v>
+      </c>
+      <c r="C154" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G154" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" t="s">
+        <v>117</v>
+      </c>
+      <c r="I154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G155" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" t="s">
+        <v>117</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="27"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>359</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="G157" t="s">
         <v>92</v>
-      </c>
-      <c r="H152" t="s">
-        <v>154</v>
-      </c>
-      <c r="I152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>395</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>254</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G153" t="s">
-        <v>92</v>
-      </c>
-      <c r="H153" t="s">
-        <v>154</v>
-      </c>
-      <c r="I153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>397</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G154" t="s">
-        <v>92</v>
-      </c>
-      <c r="H154" t="s">
-        <v>154</v>
-      </c>
-      <c r="I154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>461</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>254</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G155" t="s">
-        <v>92</v>
-      </c>
-      <c r="H155" t="s">
-        <v>154</v>
-      </c>
-      <c r="I155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>400</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156" t="s">
-        <v>237</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G156" t="s">
-        <v>92</v>
-      </c>
-      <c r="H156" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>433</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-      <c r="C157" t="s">
-        <v>349</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G157" t="s">
-        <v>93</v>
       </c>
       <c r="H157" t="s">
         <v>154</v>
       </c>
-      <c r="I157" t="s">
+    </row>
+    <row r="158" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>302</v>
+      </c>
+      <c r="C158" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>253</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>254</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G159" t="s">
+        <v>92</v>
+      </c>
+      <c r="H159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160">
         <v>3</v>
       </c>
+      <c r="C160" t="s">
+        <v>208</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G160" t="s">
+        <v>92</v>
+      </c>
+      <c r="H160" t="s">
+        <v>154</v>
+      </c>
+      <c r="I160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>349</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G161" t="s">
+        <v>92</v>
+      </c>
+      <c r="H161" t="s">
+        <v>154</v>
+      </c>
+      <c r="I161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>394</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>254</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G162" t="s">
+        <v>92</v>
+      </c>
+      <c r="H162" t="s">
+        <v>154</v>
+      </c>
+      <c r="I162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>395</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>254</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G163" t="s">
+        <v>92</v>
+      </c>
+      <c r="H163" t="s">
+        <v>154</v>
+      </c>
+      <c r="I163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>397</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>254</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G164" t="s">
+        <v>92</v>
+      </c>
+      <c r="H164" t="s">
+        <v>154</v>
+      </c>
+      <c r="I164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>460</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>254</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G165" t="s">
+        <v>92</v>
+      </c>
+      <c r="H165" t="s">
+        <v>154</v>
+      </c>
+      <c r="I165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>237</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G166" t="s">
+        <v>92</v>
+      </c>
+      <c r="H166" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>433</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G167" t="s">
+        <v>93</v>
+      </c>
+      <c r="H167" t="s">
+        <v>154</v>
+      </c>
+      <c r="I167" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G35">
-    <sortCondition ref="G5:G35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G36">
+    <sortCondition ref="G5:G36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36EF9C-05A4-0846-87B3-43BBE8DD2F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8A5DD-18C4-B744-BB2A-FC1B25CD8521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8A5DD-18C4-B744-BB2A-FC1B25CD8521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25AE52-DDF6-4431-9BFB-92B2B30DD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="510">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -948,9 +948,6 @@
     <t>Physiological Augmentation</t>
   </si>
   <si>
-    <t>Aertherborder Outpost</t>
-  </si>
-  <si>
     <t>Restore Vitality</t>
   </si>
   <si>
@@ -1443,9 +1440,6 @@
     <t>Creature - Plant</t>
   </si>
   <si>
-    <t>Propagation; At the end of your turn, gain a ife for each plant you control</t>
-  </si>
-  <si>
     <t>Weed Eater</t>
   </si>
   <si>
@@ -1507,6 +1501,75 @@
   </si>
   <si>
     <t>Fleshcraft 2B; If ~ would die, and is fleshcrafted, you may remove this card from the game instead</t>
+  </si>
+  <si>
+    <t>Heinrich the Feral</t>
+  </si>
+  <si>
+    <t>XR</t>
+  </si>
+  <si>
+    <t>Heinrich ETBs with X +1/+1 counters; Exile a non-Cleric Human you control: Put X +1/+1 counters on ~ where X is the exiled creature's Power.  Fleshcraft that creature beneath ~. Use only as a sorcery; T, Remove X +1/+1 counters from ~: You may return a card Fleshcrafted onto ~ with Power X or less to the battlefield. If you don't, create an X/X Human creature token</t>
+  </si>
+  <si>
+    <t>Crucible of Worlds</t>
+  </si>
+  <si>
+    <t>You may play lands out of your graveyard</t>
+  </si>
+  <si>
+    <t>T: Add a ©; T, exile a card from your graveyard: Add a mana of any color. If that card was a land, gain 2 life. If it was a creature, put a +1/+1 counter on a creature you control.  If it was an instant or sorcery, draw a card</t>
+  </si>
+  <si>
+    <t>Terramorphic Expanse</t>
+  </si>
+  <si>
+    <t>Aetherborder Outpost</t>
+  </si>
+  <si>
+    <t>Paradox Rift</t>
+  </si>
+  <si>
+    <t>T: Add a ©; T, return a land to your hand: Add a mana of any color</t>
+  </si>
+  <si>
+    <t>Alter of Infusion</t>
+  </si>
+  <si>
+    <t>T, X: Exile target creature from a graveyard with CMC X.  Create an X/X Worm creature token</t>
+  </si>
+  <si>
+    <t>Solemn Cemetary</t>
+  </si>
+  <si>
+    <t>Call the Skybreaker</t>
+  </si>
+  <si>
+    <t>5 R/U R/U</t>
+  </si>
+  <si>
+    <t>Create a 5/5 blue and red Elemental creature token with flying; Retrace</t>
+  </si>
+  <si>
+    <t>Paradox Haze</t>
+  </si>
+  <si>
+    <t>You get an additional Upkeep</t>
+  </si>
+  <si>
+    <t>Moment to Think</t>
+  </si>
+  <si>
+    <t>Second Stutter</t>
+  </si>
+  <si>
+    <t>As an additional cost to cast ~, return X lands you control to your hand; Counter target spell unless its control pays 1 + X</t>
+  </si>
+  <si>
+    <t>As an additional cost to cast ~, return a land you control to your hand; Draw 2 cards</t>
+  </si>
+  <si>
+    <t>Propagation; At the end of your turn, gain a life for each plant you control</t>
   </si>
 </sst>
 </file>
@@ -2079,19 +2142,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2185,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2193,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2138,7 +2201,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2146,7 +2209,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2154,7 +2217,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2200,7 +2263,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2222,44 +2285,44 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>329</v>
       </c>
-      <c r="B14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>330</v>
       </c>
-      <c r="B15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" t="s">
         <v>402</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>404</v>
-      </c>
-      <c r="B18" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2275,18 +2338,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2309,29 +2372,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2357,7 +2420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2368,42 +2431,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2435,7 +2498,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2455,7 +2518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2475,7 +2538,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -2495,7 +2558,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -2518,7 +2581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -2541,7 +2604,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -2564,7 +2627,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -2587,7 +2650,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -2617,25 +2680,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2728,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2686,14 +2749,14 @@
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
@@ -2707,17 +2770,17 @@
       </c>
       <c r="V1" s="15">
         <f>COUNTIF($H:$H,"Gold")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>124</v>
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2737,28 +2800,28 @@
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
       </c>
       <c r="R2">
         <f>COUNTIF($I:$I,Q2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
@@ -2768,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2782,21 +2845,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2807,7 +2870,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>243</v>
       </c>
@@ -2840,47 +2903,47 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
       </c>
       <c r="R4" s="20">
         <f>COUNTIF($C:$C,"*Enchantment*")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>237</v>
       </c>
       <c r="T4" s="20">
         <f>COUNTIF($C:$C,"*Artifact*")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>152</v>
       </c>
       <c r="V4" s="20">
         <f>COUNTIF($C:$C,"*Land*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2938,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2967,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2996,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3025,9 +3088,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -3042,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -3054,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3080,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -3097,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -3109,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3138,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3161,7 +3224,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -3187,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -3210,9 +3273,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -3221,7 +3284,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G17" t="s">
         <v>93</v>
@@ -3233,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3262,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -3291,9 +3354,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -3308,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -3320,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3349,15 +3412,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3366,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3378,7 +3441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3407,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -3424,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3436,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3453,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3465,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3488,12 +3551,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" t="s">
         <v>381</v>
-      </c>
-      <c r="B27" t="s">
-        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
@@ -3505,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3517,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -3537,7 +3600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -3560,7 +3623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -3583,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3612,9 +3675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
         <v>184</v>
@@ -3623,7 +3686,7 @@
         <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -3635,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3664,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3693,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -3722,7 +3785,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3751,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3761,7 +3824,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -3790,15 +3853,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B39" t="s">
         <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3807,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3819,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3848,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3877,9 +3940,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
         <v>159</v>
@@ -3888,7 +3951,7 @@
         <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G42" t="s">
         <v>92</v>
@@ -3897,15 +3960,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B43" t="s">
         <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3914,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -3926,15 +3989,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3943,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -3955,7 +4018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -3978,7 +4041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -4007,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -4036,9 +4099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -4047,7 +4110,7 @@
         <v>183</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
         <v>93</v>
@@ -4059,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -4088,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -4117,7 +4180,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>294</v>
       </c>
@@ -4140,9 +4203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s">
         <v>201</v>
@@ -4151,7 +4214,7 @@
         <v>150</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -4163,7 +4226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -4186,7 +4249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4215,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -4244,15 +4307,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4261,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
         <v>94</v>
@@ -4273,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -4302,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -4325,7 +4388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -4354,7 +4417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4364,7 +4427,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -4387,7 +4450,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>296</v>
       </c>
@@ -4410,18 +4473,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G66" t="s">
         <v>92</v>
@@ -4430,15 +4493,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s">
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4447,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G67" t="s">
         <v>92</v>
@@ -4459,15 +4522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" t="s">
         <v>445</v>
       </c>
-      <c r="B68" t="s">
-        <v>446</v>
-      </c>
       <c r="C68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -4476,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G68" t="s">
         <v>92</v>
@@ -4488,9 +4551,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s">
         <v>295</v>
@@ -4499,7 +4562,7 @@
         <v>208</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G69" t="s">
         <v>92</v>
@@ -4508,15 +4571,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s">
         <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4525,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G70" t="s">
         <v>92</v>
@@ -4537,18 +4600,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>389</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>150</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>391</v>
+        <v>507</v>
       </c>
       <c r="G71" t="s">
         <v>92</v>
@@ -4556,19 +4619,22 @@
       <c r="H71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
         <v>150</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="G72" t="s">
         <v>92</v>
@@ -4576,28 +4642,19 @@
       <c r="H72" t="s">
         <v>8</v>
       </c>
-      <c r="I72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
@@ -4606,18 +4663,18 @@
         <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4626,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4635,30 +4692,24 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
@@ -4667,53 +4718,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="G77" t="s">
         <v>93</v>
@@ -4722,27 +4773,21 @@
         <v>8</v>
       </c>
       <c r="I77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>268</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="G78" t="s">
         <v>93</v>
@@ -4751,27 +4796,27 @@
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G79" t="s">
         <v>93</v>
@@ -4780,27 +4825,27 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="G80" t="s">
         <v>93</v>
@@ -4809,21 +4854,27 @@
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G81" t="s">
         <v>93</v>
@@ -4835,21 +4886,27 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B82" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>438</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
@@ -4858,27 +4915,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B83" t="s">
         <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s">
         <v>8</v>
@@ -4887,47 +4944,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>479</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" t="s">
         <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>349</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G84" t="s">
-        <v>94</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>444</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>452</v>
+      </c>
+      <c r="B85" t="s">
+        <v>453</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G85" t="s">
         <v>94</v>
@@ -4939,24 +4990,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>462</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>271</v>
+        <v>463</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
@@ -4965,21 +5016,27 @@
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="G87" t="s">
         <v>94</v>
@@ -4988,124 +5045,112 @@
         <v>8</v>
       </c>
       <c r="I87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>443</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>383</v>
+      </c>
+      <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C92" t="s">
         <v>60</v>
       </c>
-      <c r="D89">
+      <c r="D92">
         <v>2</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" s="7" t="s">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G89" t="s">
-        <v>92</v>
-      </c>
-      <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>314</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>349</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>417</v>
-      </c>
-      <c r="B91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" t="s">
-        <v>349</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G91" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>427</v>
-      </c>
-      <c r="B92" t="s">
-        <v>428</v>
-      </c>
-      <c r="C92" t="s">
-        <v>349</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-      <c r="E92">
-        <v>6</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="G92" t="s">
         <v>92</v>
@@ -5114,21 +5159,27 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>483</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G93" t="s">
         <v>92</v>
@@ -5136,19 +5187,28 @@
       <c r="H93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>348</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="G94" t="s">
         <v>92</v>
@@ -5156,25 +5216,28 @@
       <c r="H94" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="G95" t="s">
         <v>92</v>
@@ -5183,21 +5246,21 @@
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>481</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
         <v>150</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="G96" t="s">
         <v>92</v>
@@ -5205,28 +5268,19 @@
       <c r="H96" t="s">
         <v>9</v>
       </c>
-      <c r="I96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s">
         <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>349</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="G97" t="s">
         <v>92</v>
@@ -5234,22 +5288,25 @@
       <c r="H97" t="s">
         <v>9</v>
       </c>
-      <c r="I97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
         <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s">
         <v>92</v>
@@ -5261,18 +5318,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
         <v>150</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="G99" t="s">
         <v>92</v>
@@ -5280,22 +5337,28 @@
       <c r="H99" t="s">
         <v>9</v>
       </c>
-      <c r="J99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="G100" t="s">
         <v>92</v>
@@ -5303,28 +5366,22 @@
       <c r="H100" t="s">
         <v>9</v>
       </c>
-      <c r="J100" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="B101" t="s">
         <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="G101" t="s">
         <v>92</v>
@@ -5333,88 +5390,76 @@
         <v>9</v>
       </c>
       <c r="I101" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
       </c>
-      <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
-        <v>349</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
       </c>
-      <c r="I103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="J103" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
         <v>60</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s">
         <v>9</v>
@@ -5423,24 +5468,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>425</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="G105" t="s">
         <v>93</v>
@@ -5449,27 +5494,27 @@
         <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G106" t="s">
         <v>93</v>
@@ -5481,18 +5526,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
         <v>93</v>
@@ -5501,27 +5552,27 @@
         <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="G108" t="s">
         <v>93</v>
@@ -5533,24 +5584,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="G109" t="s">
         <v>93</v>
@@ -5562,24 +5613,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="G110" t="s">
         <v>93</v>
@@ -5588,24 +5633,30 @@
         <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>439</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>310</v>
+        <v>486</v>
       </c>
       <c r="G111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -5614,70 +5665,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
         <v>49</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>484</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="G114" t="s">
         <v>94</v>
@@ -5689,24 +5746,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G115" t="s">
         <v>94</v>
@@ -5715,27 +5772,21 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="G116" t="s">
         <v>94</v>
@@ -5744,27 +5795,21 @@
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>281</v>
+        <v>482</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>280</v>
+        <v>483</v>
       </c>
       <c r="G117" t="s">
         <v>94</v>
@@ -5773,112 +5818,118 @@
         <v>9</v>
       </c>
       <c r="I117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B118" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G118" t="s">
+        <v>94</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G119" t="s">
+        <v>94</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G120" t="s">
+        <v>94</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>112</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="25"/>
-    </row>
-    <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>313</v>
-      </c>
-      <c r="B120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C120" t="s">
-        <v>150</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="25"/>
+    </row>
+    <row r="123" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>312</v>
-      </c>
-      <c r="G120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>325</v>
-      </c>
-      <c r="B121" t="s">
-        <v>94</v>
-      </c>
-      <c r="C121" t="s">
-        <v>322</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G121" t="s">
-        <v>92</v>
-      </c>
-      <c r="H121" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" t="s">
-        <v>150</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>92</v>
-      </c>
-      <c r="H122" t="s">
-        <v>6</v>
-      </c>
-      <c r="I122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>319</v>
       </c>
       <c r="B123" t="s">
         <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G123" t="s">
         <v>92</v>
@@ -5890,24 +5941,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="G124" t="s">
         <v>92</v>
@@ -5916,27 +5967,21 @@
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
         <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="G125" t="s">
         <v>92</v>
@@ -5948,24 +5993,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G126" t="s">
         <v>92</v>
@@ -5977,24 +6022,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C127" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="G127" t="s">
         <v>92</v>
@@ -6003,27 +6048,27 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C128" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="G128" t="s">
         <v>92</v>
@@ -6032,21 +6077,27 @@
         <v>6</v>
       </c>
       <c r="I128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>195</v>
-      </c>
-      <c r="B129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C129" t="s">
-        <v>183</v>
+      <c r="E129">
+        <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="G129" t="s">
         <v>92</v>
@@ -6055,21 +6106,27 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B130" t="s">
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G130" t="s">
         <v>92</v>
@@ -6078,53 +6135,53 @@
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
         <v>191</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>321</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="G131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="G132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s">
         <v>6</v>
@@ -6133,53 +6190,41 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s">
-        <v>317</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="G133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
         <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="G134" t="s">
         <v>93</v>
@@ -6188,27 +6233,27 @@
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="G135" t="s">
         <v>93</v>
@@ -6217,27 +6262,27 @@
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G136" t="s">
         <v>93</v>
@@ -6249,15 +6294,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -6266,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G137" t="s">
         <v>93</v>
@@ -6278,18 +6323,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>348</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G138" t="s">
         <v>93</v>
@@ -6297,25 +6348,28 @@
       <c r="H138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B139" t="s">
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G139" t="s">
         <v>93</v>
@@ -6327,18 +6381,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="G140" t="s">
         <v>93</v>
@@ -6347,105 +6407,99 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G141" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
         <v>6</v>
       </c>
-      <c r="I141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="G142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>412</v>
+        <v>193</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
-      </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
-      <c r="E143">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="G143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H143" t="s">
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G144" t="s">
         <v>94</v>
@@ -6457,24 +6511,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>488</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>288</v>
+        <v>489</v>
       </c>
       <c r="G145" t="s">
         <v>94</v>
@@ -6483,21 +6537,21 @@
         <v>6</v>
       </c>
       <c r="I145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
         <v>192</v>
       </c>
       <c r="C146" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G146" t="s">
         <v>94</v>
@@ -6505,136 +6559,133 @@
       <c r="H146" t="s">
         <v>6</v>
       </c>
-      <c r="I146" t="s">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>411</v>
+      </c>
+      <c r="B147" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" t="s">
+        <v>348</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G147" t="s">
+        <v>94</v>
+      </c>
+      <c r="H147" t="s">
+        <v>6</v>
+      </c>
+      <c r="I147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G148" t="s">
+        <v>94</v>
+      </c>
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G149" t="s">
+        <v>94</v>
+      </c>
+      <c r="H149" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="150" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" t="s">
+        <v>183</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G150" t="s">
+        <v>94</v>
+      </c>
+      <c r="H150" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>113</v>
       </c>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="26"/>
-    </row>
-    <row r="148" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="26"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>59</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
         <v>28</v>
-      </c>
-      <c r="C148" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" t="s">
-        <v>92</v>
-      </c>
-      <c r="H148" t="s">
-        <v>117</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>61</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>60</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" t="s">
-        <v>92</v>
-      </c>
-      <c r="H149" t="s">
-        <v>117</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>378</v>
-      </c>
-      <c r="B150" t="s">
-        <v>379</v>
-      </c>
-      <c r="C150" t="s">
-        <v>150</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G150" t="s">
-        <v>92</v>
-      </c>
-      <c r="H150" t="s">
-        <v>117</v>
-      </c>
-      <c r="I150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151">
-        <v>2</v>
-      </c>
-      <c r="E151">
-        <v>2</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>92</v>
-      </c>
-      <c r="H151" t="s">
-        <v>117</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>36</v>
-      </c>
-      <c r="B152" t="s">
-        <v>37</v>
       </c>
       <c r="C152" t="s">
         <v>60</v>
@@ -6646,10 +6697,10 @@
         <v>1</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H152" t="s">
         <v>117</v>
@@ -6658,27 +6709,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
       </c>
       <c r="C153" t="s">
         <v>60</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>117</v>
@@ -6687,41 +6738,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
-      </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="G154" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H154" t="s">
         <v>117</v>
       </c>
       <c r="I154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
         <v>60</v>
@@ -6733,10 +6778,10 @@
         <v>2</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H155" t="s">
         <v>117</v>
@@ -6745,142 +6790,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" t="s">
+        <v>37</v>
+      </c>
+      <c r="C156" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G156" t="s">
+        <v>93</v>
+      </c>
+      <c r="H156" t="s">
+        <v>117</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G157" t="s">
+        <v>94</v>
+      </c>
+      <c r="H157" t="s">
+        <v>117</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>354</v>
+      </c>
+      <c r="B158" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G158" t="s">
+        <v>94</v>
+      </c>
+      <c r="H158" t="s">
+        <v>117</v>
+      </c>
+      <c r="I158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>500</v>
+      </c>
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" t="s">
+        <v>208</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G159" t="s">
+        <v>94</v>
+      </c>
+      <c r="H159" t="s">
+        <v>117</v>
+      </c>
+      <c r="I159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>365</v>
+      </c>
+      <c r="B160" t="s">
+        <v>366</v>
+      </c>
+      <c r="C160" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G160" t="s">
+        <v>94</v>
+      </c>
+      <c r="H160" t="s">
+        <v>117</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>114</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="27"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="27"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
         <v>358</v>
       </c>
-      <c r="B157">
+      <c r="D162">
         <v>2</v>
       </c>
-      <c r="C157" t="s">
-        <v>359</v>
-      </c>
-      <c r="D157">
+      <c r="E162">
         <v>2</v>
-      </c>
-      <c r="E157">
-        <v>2</v>
-      </c>
-      <c r="G157" t="s">
-        <v>92</v>
-      </c>
-      <c r="H157" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>302</v>
-      </c>
-      <c r="C158" t="s">
-        <v>152</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>253</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>254</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G159" t="s">
-        <v>92</v>
-      </c>
-      <c r="H159" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>301</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>208</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G160" t="s">
-        <v>92</v>
-      </c>
-      <c r="H160" t="s">
-        <v>154</v>
-      </c>
-      <c r="I160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>315</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>349</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H161" t="s">
-        <v>154</v>
-      </c>
-      <c r="I161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>394</v>
-      </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>254</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="G162" t="s">
         <v>92</v>
@@ -6888,45 +6961,38 @@
       <c r="H162" t="s">
         <v>154</v>
       </c>
-      <c r="I162" t="s">
+    </row>
+    <row r="163" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>494</v>
+      </c>
+      <c r="C163" t="s">
+        <v>152</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164">
         <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>395</v>
-      </c>
-      <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
-        <v>254</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G163" t="s">
-        <v>92</v>
-      </c>
-      <c r="H163" t="s">
-        <v>154</v>
-      </c>
-      <c r="I163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>397</v>
-      </c>
-      <c r="B164">
-        <v>3</v>
       </c>
       <c r="C164" t="s">
         <v>254</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>398</v>
+        <v>255</v>
       </c>
       <c r="G164" t="s">
         <v>92</v>
@@ -6934,22 +7000,16 @@
       <c r="H164" t="s">
         <v>154</v>
       </c>
-      <c r="I164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>460</v>
-      </c>
-      <c r="B165">
-        <v>2</v>
+        <v>493</v>
       </c>
       <c r="C165" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G165" t="s">
         <v>92</v>
@@ -6957,22 +7017,19 @@
       <c r="H165" t="s">
         <v>154</v>
       </c>
-      <c r="I165" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="G166" t="s">
         <v>92</v>
@@ -6980,34 +7037,255 @@
       <c r="H166" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>433</v>
+        <v>314</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H167" t="s">
         <v>154</v>
       </c>
       <c r="I167" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>393</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>254</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G168" t="s">
+        <v>92</v>
+      </c>
+      <c r="H168" t="s">
+        <v>154</v>
+      </c>
+      <c r="I168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>394</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>254</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G169" t="s">
+        <v>92</v>
+      </c>
+      <c r="H169" t="s">
+        <v>154</v>
+      </c>
+      <c r="I169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>396</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>254</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G170" t="s">
+        <v>92</v>
+      </c>
+      <c r="H170" t="s">
+        <v>154</v>
+      </c>
+      <c r="I170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>459</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>254</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G171" t="s">
+        <v>92</v>
+      </c>
+      <c r="H171" t="s">
+        <v>154</v>
+      </c>
+      <c r="I171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>399</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>237</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G172" t="s">
+        <v>92</v>
+      </c>
+      <c r="H172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>432</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G173" t="s">
+        <v>93</v>
+      </c>
+      <c r="H173" t="s">
+        <v>154</v>
+      </c>
+      <c r="I173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>490</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>237</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G174" t="s">
+        <v>94</v>
+      </c>
+      <c r="H174" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>497</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>237</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G175" t="s">
+        <v>94</v>
+      </c>
+      <c r="H175" t="s">
+        <v>154</v>
+      </c>
+      <c r="I175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>499</v>
+      </c>
+      <c r="C176" t="s">
+        <v>152</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G176" t="s">
+        <v>94</v>
+      </c>
+      <c r="H176" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>495</v>
+      </c>
+      <c r="C177" t="s">
+        <v>152</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G177" t="s">
+        <v>94</v>
+      </c>
+      <c r="H177" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25AE52-DDF6-4431-9BFB-92B2B30DD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3793A973-9442-DB40-A098-AC7F9A7D00FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="523">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1458,9 +1458,6 @@
     <t>Deepvine Connection</t>
   </si>
   <si>
-    <t>Pay 1 lie: Prevent the next 1 damage that would be dealt to target creature you control</t>
-  </si>
-  <si>
     <t>Soul Warden</t>
   </si>
   <si>
@@ -1570,6 +1567,48 @@
   </si>
   <si>
     <t>Propagation; At the end of your turn, gain a life for each plant you control</t>
+  </si>
+  <si>
+    <t>Earthen Wisdom</t>
+  </si>
+  <si>
+    <t>2GG</t>
+  </si>
+  <si>
+    <t>Draw a card for each green creature card you control</t>
+  </si>
+  <si>
+    <t>Lash Vine</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; Prevent the first source of damage ~ would receive each turn; ~ must be blocked if able</t>
+  </si>
+  <si>
+    <t>Pay 1 life: Prevent the next 1 damage that would be dealt to target creature you control</t>
+  </si>
+  <si>
+    <t>Fungal Behemoth</t>
+  </si>
+  <si>
+    <t>Broken Clock</t>
+  </si>
+  <si>
+    <t>Players skip their upkeeps</t>
+  </si>
+  <si>
+    <t>Nascent Treant</t>
+  </si>
+  <si>
+    <t>Creature - Treefolk</t>
+  </si>
+  <si>
+    <t>When a you create a creature token, put a +1/+1 counter on ~</t>
+  </si>
+  <si>
+    <t>Wormspawn Matriarch</t>
+  </si>
+  <si>
+    <t>Armor 1; When acreature dealt damage this turn by an attacking creature you control dies, make a 2/1 red Worm creature token</t>
   </si>
 </sst>
 </file>
@@ -2142,19 +2181,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2224,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2232,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2240,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2209,7 +2248,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2256,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2263,7 +2302,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2324,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -2293,7 +2332,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2301,7 +2340,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>363</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>401</v>
       </c>
@@ -2317,7 +2356,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>403</v>
       </c>
@@ -2338,18 +2377,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2372,12 +2411,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2394,7 +2433,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2420,7 +2459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2431,42 +2470,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2525,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2498,7 +2537,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2518,7 +2557,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2538,7 +2577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -2558,7 +2597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -2581,7 +2620,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -2604,7 +2643,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -2627,7 +2666,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -2650,7 +2689,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -2680,25 +2719,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X177"/>
+  <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2728,7 +2767,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2756,14 +2795,14 @@
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2777,10 +2816,10 @@
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2814,24 +2853,24 @@
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2845,21 +2884,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2870,7 +2909,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>243</v>
       </c>
@@ -2903,7 +2942,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
@@ -2917,7 +2956,7 @@
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
@@ -2931,7 +2970,7 @@
       </c>
       <c r="T4" s="20">
         <f>COUNTIF($C:$C,"*Artifact*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>152</v>
@@ -2943,7 +2982,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2972,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3001,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3030,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3059,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3088,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -3117,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3143,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -3172,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3201,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3224,7 +3263,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -3250,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -3273,7 +3312,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -3296,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3325,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -3354,7 +3393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3383,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3412,9 +3451,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -3429,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3441,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3470,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -3499,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3528,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3551,7 +3590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -3580,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -3600,7 +3639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -3623,7 +3662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -3646,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3675,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>455</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3727,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3756,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -3785,7 +3824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3814,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3863,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -3853,24 +3892,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>465</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3882,24 +3921,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="B40" t="s">
         <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -3908,27 +3947,27 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
         <v>60</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>92</v>
@@ -3940,18 +3979,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>431</v>
+        <v>240</v>
       </c>
       <c r="G42" t="s">
         <v>92</v>
@@ -3959,25 +4004,22 @@
       <c r="H42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s">
         <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>465</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -3985,13 +4027,10 @@
       <c r="H43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
@@ -4000,13 +4039,13 @@
         <v>465</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -4018,18 +4057,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>465</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>166</v>
+        <v>470</v>
       </c>
       <c r="G45" t="s">
         <v>92</v>
@@ -4038,56 +4083,50 @@
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
@@ -4099,18 +4138,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>471</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>472</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
         <v>93</v>
@@ -4119,27 +4164,21 @@
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="G49" t="s">
         <v>93</v>
@@ -4148,27 +4187,21 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>256</v>
+        <v>511</v>
       </c>
       <c r="G50" t="s">
         <v>93</v>
@@ -4177,21 +4210,27 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="G51" t="s">
         <v>93</v>
@@ -4203,18 +4242,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -4223,21 +4268,27 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>518</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>519</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -4246,27 +4297,21 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4278,85 +4323,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>465</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>509</v>
+        <v>179</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -4365,18 +4398,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
         <v>94</v>
@@ -4385,27 +4424,27 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>464</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>259</v>
+        <v>508</v>
       </c>
       <c r="G59" t="s">
         <v>94</v>
@@ -4414,132 +4453,141 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="23"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>199</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>93</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C68" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>296</v>
-      </c>
-      <c r="B65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" t="s">
-        <v>386</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>405</v>
-      </c>
-      <c r="B67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" t="s">
-        <v>348</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G67" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>444</v>
-      </c>
-      <c r="B68" t="s">
-        <v>445</v>
-      </c>
-      <c r="C68" t="s">
-        <v>438</v>
-      </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="G68" t="s">
         <v>92</v>
@@ -4548,21 +4596,21 @@
         <v>8</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
         <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="G69" t="s">
         <v>92</v>
@@ -4570,25 +4618,22 @@
       <c r="H69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>436</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="G70" t="s">
         <v>92</v>
@@ -4596,22 +4641,25 @@
       <c r="H70" t="s">
         <v>8</v>
       </c>
-      <c r="I70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="G71" t="s">
         <v>92</v>
@@ -4620,21 +4668,27 @@
         <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>438</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="G72" t="s">
         <v>92</v>
@@ -4642,19 +4696,22 @@
       <c r="H72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
@@ -4662,28 +4719,25 @@
       <c r="H73" t="s">
         <v>8</v>
       </c>
-      <c r="I73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4692,21 +4746,21 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4718,24 +4772,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>438</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4743,138 +4791,129 @@
       <c r="H76" t="s">
         <v>8</v>
       </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>503</v>
+        <v>266</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s">
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>268</v>
+        <v>450</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>267</v>
+        <v>451</v>
       </c>
       <c r="G81" t="s">
         <v>93</v>
@@ -4883,27 +4922,21 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="G82" t="s">
         <v>93</v>
@@ -4915,15 +4948,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4932,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G83" t="s">
         <v>93</v>
@@ -4941,21 +4974,27 @@
         <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>264</v>
+        <v>475</v>
       </c>
       <c r="G84" t="s">
         <v>93</v>
@@ -4964,53 +5003,59 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>454</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
@@ -5019,76 +5064,70 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="B87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" t="s">
+        <v>438</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G87" t="s">
         <v>93</v>
-      </c>
-      <c r="C87" t="s">
-        <v>348</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
       </c>
       <c r="H87" t="s">
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>443</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>453</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -5097,21 +5136,27 @@
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>461</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>462</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -5120,147 +5165,141 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>476</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G91" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>443</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G92" t="s">
+        <v>94</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>383</v>
+      </c>
+      <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="24"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="24"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>87</v>
-      </c>
-      <c r="B92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>313</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>348</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>416</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" t="s">
-        <v>348</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G94" t="s">
-        <v>92</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>426</v>
-      </c>
-      <c r="B95" t="s">
-        <v>427</v>
-      </c>
-      <c r="C95" t="s">
-        <v>348</v>
-      </c>
-      <c r="D95">
-        <v>6</v>
-      </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G95" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>481</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="G96" t="s">
         <v>92</v>
@@ -5268,19 +5307,28 @@
       <c r="H96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>479</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
         <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>348</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="G97" t="s">
         <v>92</v>
@@ -5288,25 +5336,28 @@
       <c r="H97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>273</v>
+        <v>419</v>
       </c>
       <c r="G98" t="s">
         <v>92</v>
@@ -5315,21 +5366,27 @@
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="G99" t="s">
         <v>92</v>
@@ -5338,27 +5395,21 @@
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="G100" t="s">
         <v>92</v>
@@ -5366,22 +5417,19 @@
       <c r="H100" t="s">
         <v>9</v>
       </c>
-      <c r="I100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="B101" t="s">
         <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="G101" t="s">
         <v>92</v>
@@ -5389,22 +5437,25 @@
       <c r="H101" t="s">
         <v>9</v>
       </c>
-      <c r="I101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s">
         <v>92</v>
@@ -5412,22 +5463,22 @@
       <c r="H102" t="s">
         <v>9</v>
       </c>
-      <c r="J102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
         <v>92</v>
@@ -5435,19 +5486,19 @@
       <c r="H103" t="s">
         <v>9</v>
       </c>
-      <c r="J103" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
       <c r="B104" t="s">
         <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5456,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>89</v>
+        <v>418</v>
       </c>
       <c r="G104" t="s">
         <v>92</v>
@@ -5465,30 +5516,24 @@
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
@@ -5497,102 +5542,90 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>348</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>67</v>
+        <v>353</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
       </c>
-      <c r="I107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="G108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
       </c>
       <c r="I108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>241</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5601,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="G109" t="s">
         <v>93</v>
@@ -5610,21 +5643,27 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>407</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="G110" t="s">
         <v>93</v>
@@ -5633,27 +5672,27 @@
         <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>439</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>486</v>
+        <v>67</v>
       </c>
       <c r="G111" t="s">
         <v>93</v>
@@ -5662,12 +5701,12 @@
         <v>9</v>
       </c>
       <c r="I111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B112" t="s">
         <v>49</v>
@@ -5676,13 +5715,13 @@
         <v>348</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="G112" t="s">
         <v>93</v>
@@ -5694,24 +5733,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G113" t="s">
         <v>93</v>
@@ -5720,41 +5759,41 @@
         <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5763,82 +5802,88 @@
         <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>374</v>
+        <v>485</v>
       </c>
       <c r="G115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="B116" t="s">
         <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>174</v>
+        <v>484</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>482</v>
+        <v>85</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>483</v>
+        <v>86</v>
       </c>
       <c r="G117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
       </c>
       <c r="I117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -5847,12 +5892,12 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
@@ -5867,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G119" t="s">
         <v>94</v>
@@ -5879,24 +5924,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
-      </c>
-      <c r="D120">
-        <v>3</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="G120" t="s">
         <v>94</v>
@@ -5908,138 +5947,138 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>481</v>
+      </c>
+      <c r="B121" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G121" t="s">
+        <v>94</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="25"/>
-    </row>
-    <row r="123" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="B122" t="s">
+        <v>352</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G122" t="s">
+        <v>94</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="B123" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" t="s">
+        <v>316</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" t="s">
         <v>94</v>
       </c>
-      <c r="C123" t="s">
-        <v>150</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G123" t="s">
-        <v>92</v>
-      </c>
       <c r="H123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G124" t="s">
         <v>94</v>
       </c>
-      <c r="C124" t="s">
-        <v>321</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G124" t="s">
-        <v>92</v>
-      </c>
       <c r="H124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="25"/>
+    </row>
+    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" t="s">
         <v>94</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>150</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G125" t="s">
-        <v>92</v>
-      </c>
-      <c r="H125" t="s">
-        <v>6</v>
-      </c>
-      <c r="I125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>318</v>
-      </c>
-      <c r="B126" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>409</v>
-      </c>
-      <c r="B127" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" t="s">
-        <v>348</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
       <c r="F127" s="7" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="G127" t="s">
         <v>92</v>
@@ -6048,18 +6087,18 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B128" t="s">
         <v>94</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -6068,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G128" t="s">
         <v>92</v>
@@ -6077,27 +6116,21 @@
         <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="G129" t="s">
         <v>92</v>
@@ -6106,27 +6139,27 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C130" t="s">
         <v>316</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G130" t="s">
         <v>92</v>
@@ -6138,24 +6171,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="G131" t="s">
         <v>92</v>
@@ -6164,21 +6197,27 @@
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="B132" t="s">
         <v>94</v>
       </c>
       <c r="C132" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="G132" t="s">
         <v>92</v>
@@ -6190,18 +6229,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G133" t="s">
         <v>92</v>
@@ -6210,137 +6255,125 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="B134" t="s">
         <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="G134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s">
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s">
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
         <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s">
         <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
-      </c>
-      <c r="D137">
-        <v>5</v>
-      </c>
-      <c r="E137">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H137" t="s">
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>420</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
         <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>421</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
         <v>93</v>
@@ -6349,27 +6382,27 @@
         <v>6</v>
       </c>
       <c r="I138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>241</v>
+      </c>
+      <c r="D139">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>337</v>
-      </c>
-      <c r="B139" t="s">
-        <v>191</v>
-      </c>
-      <c r="C139" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
       <c r="E139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="G139" t="s">
         <v>93</v>
@@ -6378,27 +6411,27 @@
         <v>6</v>
       </c>
       <c r="I139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
         <v>316</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G140" t="s">
         <v>93</v>
@@ -6410,18 +6443,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G141" t="s">
         <v>93</v>
@@ -6429,25 +6468,28 @@
       <c r="H141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="B142" t="s">
         <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="G142" t="s">
         <v>93</v>
@@ -6456,21 +6498,27 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B143" t="s">
         <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="G143" t="s">
         <v>93</v>
@@ -6479,12 +6527,12 @@
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B144" t="s">
         <v>332</v>
@@ -6493,16 +6541,16 @@
         <v>316</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="G144" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H144" t="s">
         <v>6</v>
@@ -6511,131 +6559,125 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>375</v>
       </c>
       <c r="B145" t="s">
-        <v>488</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>415</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>489</v>
+        <v>376</v>
       </c>
       <c r="G145" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
       </c>
-      <c r="I145" t="s">
+    </row>
+    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>521</v>
+      </c>
+      <c r="B146" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>207</v>
-      </c>
-      <c r="B146" t="s">
-        <v>192</v>
-      </c>
-      <c r="C146" t="s">
-        <v>208</v>
+      <c r="E146">
+        <v>2</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>209</v>
+        <v>522</v>
       </c>
       <c r="G146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="B147" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="G147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H147" t="s">
         <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
         <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148">
-        <v>3</v>
-      </c>
-      <c r="E148">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="G148" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H148" t="s">
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="G149" t="s">
         <v>94</v>
@@ -6644,21 +6686,27 @@
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>486</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>183</v>
+        <v>415</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>169</v>
+        <v>488</v>
       </c>
       <c r="G150" t="s">
         <v>94</v>
@@ -6667,164 +6715,155 @@
         <v>6</v>
       </c>
       <c r="I150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C151" t="s">
+        <v>208</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G151" t="s">
+        <v>94</v>
+      </c>
+      <c r="H151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>411</v>
+      </c>
+      <c r="B152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>348</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G152" t="s">
+        <v>94</v>
+      </c>
+      <c r="H152" t="s">
+        <v>6</v>
+      </c>
+      <c r="I152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G153" t="s">
+        <v>94</v>
+      </c>
+      <c r="H153" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" t="s">
+        <v>241</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G154" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G155" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>113</v>
       </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="26"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="26"/>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>59</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B157" t="s">
         <v>28</v>
-      </c>
-      <c r="C152" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" t="s">
-        <v>92</v>
-      </c>
-      <c r="H152" t="s">
-        <v>117</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>61</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>60</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G153" t="s">
-        <v>92</v>
-      </c>
-      <c r="H153" t="s">
-        <v>117</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>377</v>
-      </c>
-      <c r="B154" t="s">
-        <v>378</v>
-      </c>
-      <c r="C154" t="s">
-        <v>150</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G154" t="s">
-        <v>92</v>
-      </c>
-      <c r="H154" t="s">
-        <v>117</v>
-      </c>
-      <c r="I154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155">
-        <v>2</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G155" t="s">
-        <v>92</v>
-      </c>
-      <c r="H155" t="s">
-        <v>117</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>36</v>
-      </c>
-      <c r="B156" t="s">
-        <v>37</v>
-      </c>
-      <c r="C156" t="s">
-        <v>60</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156" t="s">
-        <v>93</v>
-      </c>
-      <c r="H156" t="s">
-        <v>117</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>72</v>
-      </c>
-      <c r="B157" t="s">
-        <v>38</v>
       </c>
       <c r="C157" t="s">
         <v>60</v>
@@ -6836,10 +6875,10 @@
         <v>1</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H157" t="s">
         <v>117</v>
@@ -6848,64 +6887,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>354</v>
-      </c>
-      <c r="B158" t="s">
-        <v>355</v>
+        <v>61</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>356</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>117</v>
       </c>
       <c r="I158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="B159" t="s">
-        <v>501</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H159" t="s">
         <v>117</v>
       </c>
       <c r="I159" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c r="B160" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="C160" t="s">
         <v>60</v>
@@ -6917,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H160" t="s">
         <v>117</v>
@@ -6929,136 +6968,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" t="s">
+        <v>93</v>
+      </c>
+      <c r="H161" t="s">
+        <v>117</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s">
+        <v>60</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G162" t="s">
+        <v>94</v>
+      </c>
+      <c r="H162" t="s">
+        <v>117</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>354</v>
+      </c>
+      <c r="B163" t="s">
+        <v>355</v>
+      </c>
+      <c r="C163" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G163" t="s">
+        <v>94</v>
+      </c>
+      <c r="H163" t="s">
+        <v>117</v>
+      </c>
+      <c r="I163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>499</v>
+      </c>
+      <c r="B164" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G164" t="s">
+        <v>94</v>
+      </c>
+      <c r="H164" t="s">
+        <v>117</v>
+      </c>
+      <c r="I164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" t="s">
+        <v>366</v>
+      </c>
+      <c r="C165" t="s">
+        <v>60</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G165" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" t="s">
+        <v>117</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>114</v>
       </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="27"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="27"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>357</v>
       </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
         <v>358</v>
       </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162">
-        <v>2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>92</v>
-      </c>
-      <c r="H162" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>494</v>
-      </c>
-      <c r="C163" t="s">
-        <v>152</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>253</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>254</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G164" t="s">
-        <v>92</v>
-      </c>
-      <c r="H164" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>493</v>
-      </c>
-      <c r="C165" t="s">
-        <v>152</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G165" t="s">
-        <v>92</v>
-      </c>
-      <c r="H165" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>301</v>
-      </c>
-      <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>208</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G166" t="s">
-        <v>92</v>
-      </c>
-      <c r="H166" t="s">
-        <v>154</v>
-      </c>
-      <c r="I166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>314</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167" t="s">
-        <v>348</v>
-      </c>
       <c r="D167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>423</v>
+        <v>2</v>
       </c>
       <c r="G167" t="s">
         <v>92</v>
@@ -7066,45 +7139,38 @@
       <c r="H167" t="s">
         <v>154</v>
       </c>
-      <c r="I167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>393</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
+        <v>493</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G168" t="s">
+        <v>153</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169">
         <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>394</v>
-      </c>
-      <c r="B169">
-        <v>3</v>
       </c>
       <c r="C169" t="s">
         <v>254</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="G169" t="s">
         <v>92</v>
@@ -7112,22 +7178,16 @@
       <c r="H169" t="s">
         <v>154</v>
       </c>
-      <c r="I169" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>396</v>
-      </c>
-      <c r="B170">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="C170" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="G170" t="s">
         <v>92</v>
@@ -7135,22 +7195,19 @@
       <c r="H170" t="s">
         <v>154</v>
       </c>
-      <c r="I170" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>459</v>
+        <v>301</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="G171" t="s">
         <v>92</v>
@@ -7159,21 +7216,27 @@
         <v>154</v>
       </c>
       <c r="I171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>399</v>
-      </c>
-      <c r="B172">
-        <v>2</v>
-      </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>348</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="G172" t="s">
         <v>92</v>
@@ -7181,110 +7244,248 @@
       <c r="H172" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>348</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="G173" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s">
         <v>154</v>
       </c>
       <c r="I173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H174" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H175" t="s">
         <v>154</v>
       </c>
       <c r="I175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>499</v>
+        <v>459</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="G176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H176" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>237</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G177" t="s">
+        <v>92</v>
+      </c>
+      <c r="H177" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>432</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>348</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G178" t="s">
+        <v>93</v>
+      </c>
+      <c r="H178" t="s">
+        <v>154</v>
+      </c>
+      <c r="I178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>516</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>237</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G179" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" t="s">
+        <v>154</v>
+      </c>
+      <c r="I179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>237</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G180" t="s">
+        <v>94</v>
+      </c>
+      <c r="H180" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>496</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>237</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G181" t="s">
+        <v>94</v>
+      </c>
+      <c r="H181" t="s">
+        <v>154</v>
+      </c>
+      <c r="I181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" t="s">
+        <v>152</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G182" t="s">
+        <v>94</v>
+      </c>
+      <c r="H182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>494</v>
+      </c>
+      <c r="C183" t="s">
+        <v>152</v>
+      </c>
+      <c r="F183" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C177" t="s">
-        <v>152</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="G183" t="s">
         <v>94</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H183" t="s">
         <v>154</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3793A973-9442-DB40-A098-AC7F9A7D00FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C87C5-9419-5C47-BA8D-3CCCF0A4EF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="526">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1609,6 +1609,15 @@
   </si>
   <si>
     <t>Armor 1; When acreature dealt damage this turn by an attacking creature you control dies, make a 2/1 red Worm creature token</t>
+  </si>
+  <si>
+    <t>Treant Linebreaker</t>
+  </si>
+  <si>
+    <t>Trample</t>
+  </si>
+  <si>
+    <t>4GG</t>
   </si>
 </sst>
 </file>
@@ -2719,11 +2728,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X183"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2776,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2802,7 +2811,7 @@
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2867,7 +2876,7 @@
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2884,7 +2893,7 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
@@ -2942,7 +2951,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
@@ -4109,53 +4118,53 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>523</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>519</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>65</v>
+        <v>524</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
         <v>93</v>
@@ -4167,18 +4176,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>471</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>514</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
         <v>93</v>
@@ -4187,21 +4202,21 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="B50" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G50" t="s">
         <v>93</v>
@@ -4215,22 +4230,16 @@
     </row>
     <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>157</v>
+        <v>511</v>
       </c>
       <c r="G51" t="s">
         <v>93</v>
@@ -4239,27 +4248,27 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -4268,27 +4277,27 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>518</v>
+        <v>257</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>519</v>
+        <v>241</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>520</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -4297,21 +4306,27 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>519</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>293</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4320,21 +4335,21 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -4343,21 +4358,21 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -4366,27 +4381,21 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -4395,30 +4404,30 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -4427,24 +4436,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>464</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>508</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
         <v>94</v>
@@ -4453,27 +4462,27 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
         <v>94</v>
@@ -4485,12 +4494,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>60</v>
@@ -4499,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>161</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
         <v>94</v>
@@ -4511,21 +4520,27 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G62" t="s">
         <v>94</v>
@@ -4534,27 +4549,21 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G63" t="s">
         <v>94</v>
@@ -4566,51 +4575,57 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="23"/>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>183</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" t="s">
-        <v>92</v>
-      </c>
-      <c r="H68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" t="s">
-        <v>147</v>
-      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="G69" t="s">
         <v>92</v>
@@ -4619,21 +4634,21 @@
         <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
         <v>150</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="G70" t="s">
         <v>92</v>
@@ -4641,25 +4656,22 @@
       <c r="H70" t="s">
         <v>8</v>
       </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G71" t="s">
         <v>92</v>
@@ -4667,28 +4679,25 @@
       <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="I71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="G72" t="s">
         <v>92</v>
@@ -4697,21 +4706,27 @@
         <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>438</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
@@ -4719,25 +4734,22 @@
       <c r="H73" t="s">
         <v>8</v>
       </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s">
         <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>348</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4745,22 +4757,25 @@
       <c r="H74" t="s">
         <v>8</v>
       </c>
-      <c r="I74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4769,21 +4784,21 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>388</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>390</v>
+        <v>506</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4791,19 +4806,22 @@
       <c r="H76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
         <v>150</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4811,28 +4829,19 @@
       <c r="H77" t="s">
         <v>8</v>
       </c>
-      <c r="I77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -4841,21 +4850,27 @@
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>507</v>
+        <v>265</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -4864,27 +4879,21 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>384</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s">
         <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -4898,10 +4907,10 @@
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
         <v>438</v>
@@ -4913,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
@@ -4927,16 +4936,22 @@
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>438</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="G82" t="s">
         <v>93</v>
@@ -4948,24 +4963,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s">
         <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="G83" t="s">
         <v>93</v>
@@ -4974,27 +4983,27 @@
         <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
         <v>348</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="G84" t="s">
         <v>93</v>
@@ -5006,24 +5015,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="G85" t="s">
         <v>93</v>
@@ -5032,27 +5041,27 @@
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
       <c r="C86" t="s">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>441</v>
+        <v>267</v>
       </c>
       <c r="G86" t="s">
         <v>93</v>
@@ -5061,27 +5070,27 @@
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
         <v>438</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G87" t="s">
         <v>93</v>
@@ -5095,16 +5104,22 @@
     </row>
     <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>447</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>438</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -5113,50 +5128,44 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>452</v>
+        <v>200</v>
       </c>
       <c r="B89" t="s">
-        <v>453</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>454</v>
+        <v>264</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s">
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="C90" t="s">
-        <v>462</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -5170,22 +5179,22 @@
     </row>
     <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G91" t="s">
         <v>94</v>
@@ -5194,21 +5203,27 @@
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>443</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>348</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="G92" t="s">
         <v>94</v>
@@ -5217,27 +5232,21 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>383</v>
-      </c>
-      <c r="B93" t="s">
-        <v>269</v>
+        <v>443</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="G93" t="s">
         <v>94</v>
@@ -5246,21 +5255,27 @@
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="G94" t="s">
         <v>94</v>
@@ -5272,63 +5287,57 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" t="s">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="24"/>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G96" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1</v>
-      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>422</v>
+        <v>84</v>
       </c>
       <c r="G97" t="s">
         <v>92</v>
@@ -5337,27 +5346,27 @@
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
         <v>348</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G98" t="s">
         <v>92</v>
@@ -5369,24 +5378,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
         <v>348</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="G99" t="s">
         <v>92</v>
@@ -5400,16 +5409,22 @@
     </row>
     <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G100" t="s">
         <v>92</v>
@@ -5417,19 +5432,22 @@
       <c r="H100" t="s">
         <v>9</v>
       </c>
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="G101" t="s">
         <v>92</v>
@@ -5438,24 +5456,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="B102" t="s">
         <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>273</v>
+        <v>479</v>
       </c>
       <c r="G102" t="s">
         <v>92</v>
@@ -5463,22 +5475,25 @@
       <c r="H102" t="s">
         <v>9</v>
       </c>
-      <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="G103" t="s">
         <v>92</v>
@@ -5487,27 +5502,21 @@
         <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s">
         <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>418</v>
+        <v>299</v>
       </c>
       <c r="G104" t="s">
         <v>92</v>
@@ -5516,21 +5525,27 @@
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="G105" t="s">
         <v>92</v>
@@ -5539,21 +5554,21 @@
         <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="G106" t="s">
         <v>92</v>
@@ -5561,22 +5576,22 @@
       <c r="H106" t="s">
         <v>9</v>
       </c>
-      <c r="J106" t="s">
-        <v>3</v>
+      <c r="I106" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
         <v>150</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G107" t="s">
         <v>92</v>
@@ -5585,27 +5600,21 @@
         <v>9</v>
       </c>
       <c r="J107" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="G108" t="s">
         <v>92</v>
@@ -5613,57 +5622,57 @@
       <c r="H108" t="s">
         <v>9</v>
       </c>
-      <c r="I108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J108" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="G109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="G110" t="s">
         <v>93</v>
@@ -5672,27 +5681,27 @@
         <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="B111" t="s">
         <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="G111" t="s">
         <v>93</v>
@@ -5701,27 +5710,27 @@
         <v>9</v>
       </c>
       <c r="I111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>424</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>425</v>
+        <v>67</v>
       </c>
       <c r="G112" t="s">
         <v>93</v>
@@ -5730,27 +5739,27 @@
         <v>9</v>
       </c>
       <c r="I112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>424</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>413</v>
-      </c>
-      <c r="B113" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" t="s">
-        <v>415</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
       <c r="E113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G113" t="s">
         <v>93</v>
@@ -5764,16 +5773,22 @@
     </row>
     <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>415</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="G114" t="s">
         <v>93</v>
@@ -5782,27 +5797,21 @@
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>348</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="G115" t="s">
         <v>93</v>
@@ -5811,27 +5820,27 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
         <v>348</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G116" t="s">
         <v>93</v>
@@ -5843,15 +5852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="B117" t="s">
         <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5860,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>86</v>
+        <v>484</v>
       </c>
       <c r="G117" t="s">
         <v>93</v>
@@ -5869,50 +5878,50 @@
         <v>9</v>
       </c>
       <c r="I117" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>316</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="G119" t="s">
         <v>94</v>
@@ -5921,21 +5930,27 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="G120" t="s">
         <v>94</v>
@@ -5944,21 +5959,21 @@
         <v>9</v>
       </c>
       <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
         <v>183</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>482</v>
+        <v>174</v>
       </c>
       <c r="G121" t="s">
         <v>94</v>
@@ -5967,27 +5982,21 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="B122" t="s">
         <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="G122" t="s">
         <v>94</v>
@@ -5996,27 +6005,27 @@
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="G123" t="s">
         <v>94</v>
@@ -6025,27 +6034,27 @@
         <v>9</v>
       </c>
       <c r="I123" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="G124" t="s">
         <v>94</v>
@@ -6054,60 +6063,60 @@
         <v>9</v>
       </c>
       <c r="I124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G125" t="s">
+        <v>94</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="25"/>
-    </row>
-    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="25"/>
+    </row>
+    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>312</v>
-      </c>
-      <c r="B127" t="s">
-        <v>94</v>
-      </c>
-      <c r="C127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G127" t="s">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s">
-        <v>6</v>
-      </c>
-      <c r="I127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>324</v>
       </c>
       <c r="B128" t="s">
         <v>94</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G128" t="s">
         <v>92</v>
@@ -6119,18 +6128,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s">
         <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>321</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="G129" t="s">
         <v>92</v>
@@ -6139,27 +6154,21 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
         <v>94</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
       <c r="G130" t="s">
         <v>92</v>
@@ -6168,18 +6177,18 @@
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6188,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="G131" t="s">
         <v>92</v>
@@ -6197,27 +6206,27 @@
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>283</v>
+        <v>410</v>
       </c>
       <c r="G132" t="s">
         <v>92</v>
@@ -6226,27 +6235,27 @@
         <v>6</v>
       </c>
       <c r="I132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="G133" t="s">
         <v>92</v>
@@ -6255,15 +6264,15 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
         <v>316</v>
@@ -6272,10 +6281,10 @@
         <v>4</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G134" t="s">
         <v>92</v>
@@ -6287,24 +6296,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B135" t="s">
         <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G135" t="s">
         <v>92</v>
@@ -6318,16 +6327,22 @@
     </row>
     <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="B136" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>321</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="G136" t="s">
         <v>92</v>
@@ -6336,21 +6351,21 @@
         <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="G137" t="s">
         <v>92</v>
@@ -6362,9 +6377,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
         <v>191</v>
@@ -6373,36 +6388,30 @@
         <v>150</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="G138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H138" t="s">
         <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
-      </c>
-      <c r="D139">
-        <v>3</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="G139" t="s">
         <v>93</v>
@@ -6411,27 +6420,27 @@
         <v>6</v>
       </c>
       <c r="I139" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G140" t="s">
         <v>93</v>
@@ -6440,27 +6449,27 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
         <v>316</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G141" t="s">
         <v>93</v>
@@ -6472,24 +6481,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="B142" t="s">
         <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="G142" t="s">
         <v>93</v>
@@ -6498,27 +6507,27 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="B143" t="s">
         <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E143">
         <v>3</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="G143" t="s">
         <v>93</v>
@@ -6527,27 +6536,27 @@
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
         <v>316</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G144" t="s">
         <v>93</v>
@@ -6561,16 +6570,22 @@
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G145" t="s">
         <v>93</v>
@@ -6578,25 +6593,22 @@
       <c r="H145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>521</v>
+        <v>375</v>
       </c>
       <c r="B146" t="s">
         <v>285</v>
       </c>
       <c r="C146" t="s">
-        <v>316</v>
-      </c>
-      <c r="D146">
-        <v>3</v>
-      </c>
-      <c r="E146">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
       <c r="G146" t="s">
         <v>93</v>
@@ -6604,28 +6616,25 @@
       <c r="H146" t="s">
         <v>6</v>
       </c>
-      <c r="I146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>521</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C147" t="s">
         <v>316</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>347</v>
+        <v>522</v>
       </c>
       <c r="G147" t="s">
         <v>93</v>
@@ -6637,18 +6646,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
         <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
       <c r="G148" t="s">
         <v>93</v>
@@ -6657,56 +6672,50 @@
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="G149" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H149" t="s">
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="B150" t="s">
-        <v>487</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="G150" t="s">
         <v>94</v>
@@ -6715,21 +6724,27 @@
         <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>415</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>209</v>
+        <v>488</v>
       </c>
       <c r="G151" t="s">
         <v>94</v>
@@ -6737,25 +6752,22 @@
       <c r="H151" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
-      </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
-      <c r="E152">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>412</v>
+        <v>209</v>
       </c>
       <c r="G152" t="s">
         <v>94</v>
@@ -6763,28 +6775,25 @@
       <c r="H152" t="s">
         <v>6</v>
       </c>
-      <c r="I152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C153" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G153" t="s">
         <v>94</v>
@@ -6793,27 +6802,27 @@
         <v>6</v>
       </c>
       <c r="I153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="G154" t="s">
         <v>94</v>
@@ -6822,21 +6831,27 @@
         <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="G155" t="s">
         <v>94</v>
@@ -6848,57 +6863,51 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" t="s">
+        <v>183</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H156" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>113</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="26"/>
-    </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>59</v>
-      </c>
-      <c r="B157" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G157" t="s">
-        <v>92</v>
-      </c>
-      <c r="H157" t="s">
-        <v>117</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1</v>
-      </c>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="26"/>
     </row>
     <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>61</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
       </c>
       <c r="C158" t="s">
         <v>60</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6916,18 +6925,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>377</v>
-      </c>
-      <c r="B159" t="s">
-        <v>378</v>
+        <v>61</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
         <v>92</v>
@@ -6936,27 +6951,21 @@
         <v>117</v>
       </c>
       <c r="I159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
-      </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="G160" t="s">
         <v>92</v>
@@ -6965,30 +6974,30 @@
         <v>117</v>
       </c>
       <c r="I160" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C161" t="s">
         <v>60</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H161" t="s">
         <v>117</v>
@@ -6997,12 +7006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
         <v>60</v>
@@ -7014,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H162" t="s">
         <v>117</v>
@@ -7026,24 +7035,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>354</v>
+        <v>72</v>
       </c>
       <c r="B163" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="G163" t="s">
         <v>94</v>
@@ -7052,21 +7061,27 @@
         <v>117</v>
       </c>
       <c r="I163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>499</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>501</v>
+        <v>356</v>
       </c>
       <c r="G164" t="s">
         <v>94</v>
@@ -7075,27 +7090,21 @@
         <v>117</v>
       </c>
       <c r="I164" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>365</v>
+        <v>499</v>
       </c>
       <c r="B165" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="C165" t="s">
-        <v>60</v>
-      </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-      <c r="E165">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>367</v>
+        <v>501</v>
       </c>
       <c r="G165" t="s">
         <v>94</v>
@@ -7104,90 +7113,102 @@
         <v>117</v>
       </c>
       <c r="I165" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>114</v>
-      </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="27"/>
+        <v>365</v>
+      </c>
+      <c r="B166" t="s">
+        <v>366</v>
+      </c>
+      <c r="C166" t="s">
+        <v>60</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G166" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" t="s">
+        <v>117</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="27"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>357</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>2</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>358</v>
       </c>
-      <c r="D167">
+      <c r="D168">
         <v>2</v>
       </c>
-      <c r="E167">
+      <c r="E168">
         <v>2</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G168" t="s">
         <v>92</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H168" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>493</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>152</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="G169" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-    </row>
-    <row r="169" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>253</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <v>0</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>254</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F170" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G169" t="s">
-        <v>92</v>
-      </c>
-      <c r="H169" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>492</v>
-      </c>
-      <c r="C170" t="s">
-        <v>152</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="G170" t="s">
         <v>92</v>
@@ -7196,18 +7217,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>301</v>
-      </c>
-      <c r="B171">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="C171" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="G171" t="s">
         <v>92</v>
@@ -7215,28 +7233,19 @@
       <c r="H171" t="s">
         <v>154</v>
       </c>
-      <c r="I171" t="s">
+    </row>
+    <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>314</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
       <c r="C172" t="s">
-        <v>348</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="G172" t="s">
         <v>92</v>
@@ -7248,18 +7257,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>254</v>
+        <v>348</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G173" t="s">
         <v>92</v>
@@ -7268,12 +7283,12 @@
         <v>154</v>
       </c>
       <c r="I173" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -7282,7 +7297,7 @@
         <v>254</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G174" t="s">
         <v>92</v>
@@ -7296,7 +7311,7 @@
     </row>
     <row r="175" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -7305,7 +7320,7 @@
         <v>254</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G175" t="s">
         <v>92</v>
@@ -7319,16 +7334,16 @@
     </row>
     <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
         <v>254</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="G176" t="s">
         <v>92</v>
@@ -7340,18 +7355,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="G177" t="s">
         <v>92</v>
@@ -7359,71 +7374,71 @@
       <c r="H177" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>348</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="G178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H178" t="s">
         <v>154</v>
       </c>
-      <c r="I178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>516</v>
+        <v>432</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>237</v>
+        <v>348</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="G179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H179" t="s">
         <v>154</v>
       </c>
       <c r="I179" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>237</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="G180" t="s">
         <v>94</v>
@@ -7431,19 +7446,22 @@
       <c r="H180" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181" t="s">
         <v>237</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G181" t="s">
         <v>94</v>
@@ -7451,19 +7469,19 @@
       <c r="H181" t="s">
         <v>154</v>
       </c>
-      <c r="I181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G182" t="s">
         <v>94</v>
@@ -7471,21 +7489,41 @@
       <c r="H182" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C183" t="s">
         <v>152</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G183" t="s">
         <v>94</v>
       </c>
       <c r="H183" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>494</v>
+      </c>
+      <c r="C184" t="s">
+        <v>152</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G184" t="s">
+        <v>94</v>
+      </c>
+      <c r="H184" t="s">
         <v>154</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C87C5-9419-5C47-BA8D-3CCCF0A4EF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325859D5-D98D-4558-A9C4-401AD424B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="546">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1452,9 +1452,6 @@
     <t>Seedspitter</t>
   </si>
   <si>
-    <t>Propagation; Rooted; When ~ attacks, it dealls 1 damage to target player</t>
-  </si>
-  <si>
     <t>Deepvine Connection</t>
   </si>
   <si>
@@ -1618,6 +1615,69 @@
   </si>
   <si>
     <t>4GG</t>
+  </si>
+  <si>
+    <t>Pollenator Flower</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, put a -1/-1 counter on up to two target tapped creatures</t>
+  </si>
+  <si>
+    <t>Seed cannon</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, it deals 1 damage to target player</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, it deals 1 damage to target creature or player</t>
+  </si>
+  <si>
+    <t>Repeated Failure</t>
+  </si>
+  <si>
+    <t>Counter target spell; Retrace</t>
+  </si>
+  <si>
+    <t>Maim</t>
+  </si>
+  <si>
+    <t>Put 2 -1/-1 counters spread among up to two target creatures</t>
+  </si>
+  <si>
+    <t>Mayhem's Wake</t>
+  </si>
+  <si>
+    <t>As an additional cost to cast ~, delve X. Place X -1/-1 counters spread among up to X target creatures</t>
+  </si>
+  <si>
+    <t>Withered Wisdom</t>
+  </si>
+  <si>
+    <t>For each -1/-1 counter on creatures you control, and each poison counter on you, target player draws a card</t>
+  </si>
+  <si>
+    <t>When ~ attacks, unless the defending player controls an Island, put a stun counter on ~</t>
+  </si>
+  <si>
+    <t>Finned Colossus</t>
+  </si>
+  <si>
+    <t>Ground Bloom</t>
+  </si>
+  <si>
+    <t>Mitotic Growth</t>
+  </si>
+  <si>
+    <t>Make a copy of target creature token; Retrace</t>
+  </si>
+  <si>
+    <t>As an additional cost to cast ~, return X lands you control to their owner's hand.  Create a copy of target creature token you control.  Repeat this X times, then an additional time for each of those lands that was untapped</t>
+  </si>
+  <si>
+    <t>Growth Hormones</t>
+  </si>
+  <si>
+    <t>Target creature gets +1/+0 and first strike until EOT; Retrace</t>
   </si>
 </sst>
 </file>
@@ -2190,19 +2250,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2293,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2241,7 +2301,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2309,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2317,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2325,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2311,7 +2371,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2393,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -2341,7 +2401,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2349,7 +2409,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>363</v>
       </c>
@@ -2357,7 +2417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>401</v>
       </c>
@@ -2365,7 +2425,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>403</v>
       </c>
@@ -2386,18 +2446,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2420,12 +2480,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2442,7 +2502,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2468,7 +2528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2479,42 +2539,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2594,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2546,7 +2606,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2566,7 +2626,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2586,7 +2646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -2606,7 +2666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -2629,7 +2689,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -2652,7 +2712,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -2675,7 +2735,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -2698,7 +2758,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -2728,25 +2788,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X184"/>
+  <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2776,7 +2836,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2790,28 +2850,28 @@
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -2828,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2848,7 +2908,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
@@ -2862,24 +2922,24 @@
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -2893,14 +2953,14 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
@@ -2918,7 +2978,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>243</v>
       </c>
@@ -2951,21 +3011,21 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
@@ -2991,7 +3051,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -3020,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3049,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3078,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3107,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3136,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -3165,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3191,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -3220,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3249,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3272,7 +3332,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -3298,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -3321,7 +3381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -3344,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3373,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -3402,7 +3462,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3431,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3460,9 +3520,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -3477,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3489,7 +3549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3518,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -3547,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3576,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3599,7 +3659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -3628,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -3648,7 +3708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -3671,7 +3731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -3694,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3723,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>455</v>
       </c>
@@ -3746,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3775,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3804,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -3833,7 +3893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3862,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3872,7 +3932,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -3901,9 +3961,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B39" t="s">
         <v>159</v>
@@ -3918,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3930,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -3959,7 +4019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3988,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -4017,18 +4077,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>465</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>431</v>
+        <v>526</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -4036,25 +4102,22 @@
       <c r="H43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>465</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -4062,13 +4125,10 @@
       <c r="H44" t="s">
         <v>7</v>
       </c>
-      <c r="I44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B45" t="s">
         <v>159</v>
@@ -4077,13 +4137,13 @@
         <v>465</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G45" t="s">
         <v>92</v>
@@ -4095,18 +4155,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="B46" t="s">
         <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>465</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>166</v>
+        <v>528</v>
       </c>
       <c r="G46" t="s">
         <v>92</v>
@@ -4115,27 +4181,21 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="G47" t="s">
         <v>92</v>
@@ -4147,15 +4207,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>527</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4164,62 +4224,62 @@
         <v>2</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>65</v>
+        <v>529</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>524</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>518</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -4228,18 +4288,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>509</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>511</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
         <v>93</v>
@@ -4248,27 +4314,27 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -4280,24 +4346,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>256</v>
+        <v>513</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -4306,27 +4366,21 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
       <c r="C54" t="s">
-        <v>519</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4338,18 +4392,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -4361,18 +4421,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -4381,21 +4447,27 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>517</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>518</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>179</v>
+        <v>519</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -4404,27 +4476,21 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
@@ -4436,56 +4502,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>97</v>
+        <v>543</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>508</v>
+        <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
@@ -4494,56 +4548,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>456</v>
+        <v>179</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
@@ -4552,18 +4600,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
         <v>94</v>
@@ -4572,27 +4626,27 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>259</v>
+        <v>507</v>
       </c>
       <c r="G64" t="s">
         <v>94</v>
@@ -4601,132 +4655,141 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>514</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>93</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G69" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>296</v>
-      </c>
-      <c r="B70" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" t="s">
-        <v>150</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>405</v>
-      </c>
-      <c r="B72" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>348</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H72" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>444</v>
-      </c>
-      <c r="B73" t="s">
-        <v>445</v>
-      </c>
-      <c r="C73" t="s">
-        <v>438</v>
-      </c>
-      <c r="D73">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
@@ -4735,21 +4798,21 @@
         <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
         <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4757,25 +4820,22 @@
       <c r="H74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4783,22 +4843,25 @@
       <c r="H75" t="s">
         <v>8</v>
       </c>
-      <c r="I75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4807,21 +4870,27 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>438</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4829,19 +4898,22 @@
       <c r="H77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>530</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
         <v>150</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>308</v>
+        <v>531</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -4850,27 +4922,21 @@
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>265</v>
+        <v>429</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -4878,22 +4944,25 @@
       <c r="H79" t="s">
         <v>8</v>
       </c>
-      <c r="I79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s">
         <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>348</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -4902,27 +4971,27 @@
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="C81" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="G81" t="s">
         <v>92</v>
@@ -4931,30 +5000,24 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s">
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
@@ -4963,50 +5026,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>502</v>
+        <v>388</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
         <v>8</v>
       </c>
-      <c r="I83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>435</v>
+        <v>308</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
@@ -5015,70 +5069,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>475</v>
+        <v>265</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>267</v>
+        <v>506</v>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
         <v>438</v>
@@ -5090,10 +5138,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s">
         <v>8</v>
@@ -5102,24 +5150,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>438</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -5131,9 +5179,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s">
         <v>196</v>
@@ -5142,7 +5190,7 @@
         <v>183</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>264</v>
+        <v>502</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -5151,372 +5199,381 @@
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s">
-        <v>453</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="G90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H91" t="s">
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G92" t="s">
         <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>348</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G92" t="s">
-        <v>94</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>443</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
+        <v>536</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
       </c>
       <c r="C93" t="s">
         <v>208</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>442</v>
+        <v>537</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s">
         <v>8</v>
       </c>
-      <c r="I93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="B94" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>271</v>
+        <v>441</v>
       </c>
       <c r="G94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s">
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>438</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s">
         <v>8</v>
       </c>
       <c r="I95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="24"/>
-    </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>453</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>84</v>
+        <v>454</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>313</v>
+        <v>461</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="G98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
         <v>348</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>426</v>
-      </c>
-      <c r="B100" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
-      </c>
-      <c r="D100">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G102" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="24"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" t="s">
         <v>48</v>
       </c>
-      <c r="C101" t="s">
-        <v>150</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G101" t="s">
-        <v>92</v>
-      </c>
-      <c r="H101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>478</v>
-      </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" t="s">
-        <v>208</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G102" t="s">
-        <v>92</v>
-      </c>
-      <c r="H102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>272</v>
-      </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G103" t="s">
-        <v>92</v>
-      </c>
-      <c r="H103" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="G104" t="s">
         <v>92</v>
@@ -5525,12 +5582,12 @@
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
@@ -5545,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G105" t="s">
         <v>92</v>
@@ -5557,18 +5614,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>532</v>
       </c>
       <c r="B106" t="s">
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="G106" t="s">
         <v>92</v>
@@ -5576,22 +5633,25 @@
       <c r="H106" t="s">
         <v>9</v>
       </c>
-      <c r="I106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="G107" t="s">
         <v>92</v>
@@ -5599,22 +5659,22 @@
       <c r="H107" t="s">
         <v>9</v>
       </c>
-      <c r="J107" t="s">
+      <c r="I107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>353</v>
+        <v>535</v>
       </c>
       <c r="G108" t="s">
         <v>92</v>
@@ -5622,28 +5682,25 @@
       <c r="H108" t="s">
         <v>9</v>
       </c>
-      <c r="J108" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="G109" t="s">
         <v>92</v>
@@ -5652,146 +5709,122 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>479</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
       </c>
-      <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
       </c>
-      <c r="I111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>348</v>
-      </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>425</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -5800,21 +5833,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
         <v>183</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
@@ -5823,85 +5856,73 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>485</v>
+        <v>361</v>
       </c>
       <c r="G116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="G117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
       </c>
-      <c r="I117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J117" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
         <v>60</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -5910,38 +5931,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="G119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5950,56 +5977,68 @@
         <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="G120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
       </c>
       <c r="I120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="G121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>348</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -6008,15 +6047,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -6025,347 +6064,335 @@
         <v>2</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="G123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
       </c>
       <c r="I123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="G124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>439</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="G125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>482</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" t="s">
+        <v>348</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" t="s">
+        <v>93</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>112</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="25"/>
-    </row>
-    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G127" t="s">
+        <v>93</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C128" t="s">
         <v>150</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G128" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G129" t="s">
         <v>94</v>
       </c>
-      <c r="C129" t="s">
-        <v>321</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G129" t="s">
-        <v>92</v>
-      </c>
       <c r="H129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I129" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G130" t="s">
         <v>94</v>
       </c>
-      <c r="C130" t="s">
-        <v>150</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G130" t="s">
-        <v>92</v>
-      </c>
       <c r="H130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I130" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="B131" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" t="s">
+        <v>183</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G131" t="s">
         <v>94</v>
       </c>
-      <c r="C131" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G131" t="s">
-        <v>92</v>
-      </c>
       <c r="H131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="G132" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G133" t="s">
+        <v>94</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>282</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G134" t="s">
         <v>94</v>
       </c>
-      <c r="C133" t="s">
-        <v>241</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G133" t="s">
-        <v>92</v>
-      </c>
-      <c r="H133" t="s">
-        <v>6</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>335</v>
-      </c>
-      <c r="B134" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" t="s">
-        <v>316</v>
-      </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G134" t="s">
-        <v>92</v>
-      </c>
-      <c r="H134" t="s">
-        <v>6</v>
-      </c>
-      <c r="I134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" t="s">
-        <v>191</v>
-      </c>
-      <c r="C135" t="s">
-        <v>316</v>
-      </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G135" t="s">
-        <v>92</v>
-      </c>
-      <c r="H135" t="s">
-        <v>6</v>
-      </c>
-      <c r="I135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>320</v>
-      </c>
-      <c r="B136" t="s">
-        <v>191</v>
-      </c>
-      <c r="C136" t="s">
-        <v>321</v>
-      </c>
-      <c r="D136">
-        <v>3</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G136" t="s">
-        <v>92</v>
-      </c>
-      <c r="H136" t="s">
-        <v>6</v>
-      </c>
-      <c r="I136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="25"/>
+    </row>
+    <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="B137" t="s">
         <v>94</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="G137" t="s">
         <v>92</v>
@@ -6374,21 +6401,27 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>321</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="G138" t="s">
         <v>92</v>
@@ -6397,53 +6430,47 @@
         <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>544</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>206</v>
+        <v>545</v>
       </c>
       <c r="G139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H139" t="s">
         <v>6</v>
       </c>
       <c r="I139" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -6452,9 +6479,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
@@ -6469,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s">
         <v>6</v>
@@ -6481,70 +6508,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s">
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>420</v>
+        <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="G143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s">
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
         <v>316</v>
@@ -6553,13 +6580,13 @@
         <v>4</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G144" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H144" t="s">
         <v>6</v>
@@ -6568,27 +6595,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C145" t="s">
         <v>316</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G145" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
@@ -6597,96 +6624,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>321</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="G146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>521</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
-      </c>
-      <c r="D147">
-        <v>3</v>
-      </c>
-      <c r="E147">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>522</v>
+        <v>167</v>
       </c>
       <c r="G147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H147" t="s">
         <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B148" t="s">
         <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="G148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H148" t="s">
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
         <v>191</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G149" t="s">
         <v>93</v>
@@ -6695,93 +6719,102 @@
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="B150" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>370</v>
+        <v>286</v>
       </c>
       <c r="G150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H150" t="s">
         <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>486</v>
+        <v>315</v>
       </c>
       <c r="B151" t="s">
-        <v>487</v>
+        <v>94</v>
       </c>
       <c r="C151" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>488</v>
+        <v>325</v>
       </c>
       <c r="G151" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H151" t="s">
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="B152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="G152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C153" t="s">
         <v>348</v>
@@ -6793,10 +6826,10 @@
         <v>3</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
         <v>6</v>
@@ -6805,9 +6838,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B154" t="s">
         <v>191</v>
@@ -6816,16 +6849,16 @@
         <v>316</v>
       </c>
       <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
         <v>3</v>
       </c>
-      <c r="E154">
-        <v>2</v>
-      </c>
       <c r="F154" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H154" t="s">
         <v>6</v>
@@ -6834,562 +6867,608 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="C155" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="G155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
         <v>6</v>
       </c>
       <c r="I155" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="B156" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="C156" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="G156" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H156" t="s">
         <v>6</v>
       </c>
-      <c r="I156" t="s">
+    </row>
+    <row r="157" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>520</v>
+      </c>
+      <c r="B157" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" t="s">
+        <v>316</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
+      </c>
+      <c r="H157" t="s">
+        <v>6</v>
+      </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>346</v>
+      </c>
+      <c r="B158" t="s">
+        <v>191</v>
+      </c>
+      <c r="C158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G158" t="s">
+        <v>93</v>
+      </c>
+      <c r="H158" t="s">
+        <v>6</v>
+      </c>
+      <c r="I158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>193</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" t="s">
+        <v>183</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>93</v>
+      </c>
+      <c r="H159" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>113</v>
-      </c>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="26"/>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>59</v>
-      </c>
-      <c r="B158" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" t="s">
-        <v>60</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G158" t="s">
-        <v>92</v>
-      </c>
-      <c r="H158" t="s">
-        <v>117</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>61</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159" t="s">
-        <v>92</v>
-      </c>
-      <c r="H159" t="s">
-        <v>117</v>
-      </c>
-      <c r="I159" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="B160" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C160" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G160" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>486</v>
       </c>
       <c r="C161" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>29</v>
+        <v>487</v>
       </c>
       <c r="G161" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
-        <v>60</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="G162" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
-        <v>117</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="C163" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="G163" t="s">
         <v>94</v>
       </c>
       <c r="H163" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="C164" t="s">
         <v>316</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G164" t="s">
         <v>94</v>
       </c>
       <c r="H164" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I164" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>500</v>
+        <v>287</v>
       </c>
       <c r="C165" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>501</v>
+        <v>288</v>
       </c>
       <c r="G165" t="s">
         <v>94</v>
       </c>
       <c r="H165" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I165" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>366</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
-        <v>60</v>
-      </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
-      <c r="E166">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="G166" t="s">
         <v>94</v>
       </c>
       <c r="H166" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="26"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" t="s">
+        <v>92</v>
+      </c>
+      <c r="H168" t="s">
         <v>117</v>
       </c>
-      <c r="I166" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="I168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G169" t="s">
+        <v>92</v>
+      </c>
+      <c r="H169" t="s">
+        <v>117</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" t="s">
+        <v>378</v>
+      </c>
+      <c r="C170" t="s">
+        <v>150</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G170" t="s">
+        <v>92</v>
+      </c>
+      <c r="H170" t="s">
+        <v>117</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>92</v>
+      </c>
+      <c r="H171" t="s">
+        <v>117</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>36</v>
+      </c>
+      <c r="B172" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" t="s">
+        <v>60</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" t="s">
+        <v>93</v>
+      </c>
+      <c r="H172" t="s">
+        <v>117</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>72</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G173" t="s">
+        <v>94</v>
+      </c>
+      <c r="H173" t="s">
+        <v>117</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>355</v>
+      </c>
+      <c r="C174" t="s">
+        <v>316</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G174" t="s">
+        <v>94</v>
+      </c>
+      <c r="H174" t="s">
+        <v>117</v>
+      </c>
+      <c r="I174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>498</v>
+      </c>
+      <c r="B175" t="s">
+        <v>499</v>
+      </c>
+      <c r="C175" t="s">
+        <v>208</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G175" t="s">
+        <v>94</v>
+      </c>
+      <c r="H175" t="s">
+        <v>117</v>
+      </c>
+      <c r="I175" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>365</v>
+      </c>
+      <c r="B176" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G176" t="s">
+        <v>94</v>
+      </c>
+      <c r="H176" t="s">
+        <v>117</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>114</v>
       </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="27"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="27"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>357</v>
-      </c>
-      <c r="B168">
-        <v>2</v>
-      </c>
-      <c r="C168" t="s">
-        <v>358</v>
-      </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="G168" t="s">
-        <v>92</v>
-      </c>
-      <c r="H168" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>493</v>
-      </c>
-      <c r="C169" t="s">
-        <v>152</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>253</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>254</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G170" t="s">
-        <v>92</v>
-      </c>
-      <c r="H170" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>492</v>
-      </c>
-      <c r="C171" t="s">
-        <v>152</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G171" t="s">
-        <v>92</v>
-      </c>
-      <c r="H171" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>301</v>
-      </c>
-      <c r="B172">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>208</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G172" t="s">
-        <v>92</v>
-      </c>
-      <c r="H172" t="s">
-        <v>154</v>
-      </c>
-      <c r="I172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>314</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>348</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G173" t="s">
-        <v>92</v>
-      </c>
-      <c r="H173" t="s">
-        <v>154</v>
-      </c>
-      <c r="I173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>393</v>
-      </c>
-      <c r="B174">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>254</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G174" t="s">
-        <v>92</v>
-      </c>
-      <c r="H174" t="s">
-        <v>154</v>
-      </c>
-      <c r="I174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>394</v>
-      </c>
-      <c r="B175">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>254</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G175" t="s">
-        <v>92</v>
-      </c>
-      <c r="H175" t="s">
-        <v>154</v>
-      </c>
-      <c r="I175" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>396</v>
-      </c>
-      <c r="B176">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>254</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G176" t="s">
-        <v>92</v>
-      </c>
-      <c r="H176" t="s">
-        <v>154</v>
-      </c>
-      <c r="I176" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>459</v>
-      </c>
-      <c r="B177">
-        <v>2</v>
-      </c>
-      <c r="C177" t="s">
-        <v>254</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G177" t="s">
-        <v>92</v>
-      </c>
-      <c r="H177" t="s">
-        <v>154</v>
-      </c>
-      <c r="I177" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>399</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>237</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
       </c>
       <c r="G178" t="s">
         <v>92</v>
@@ -7398,132 +7477,352 @@
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>432</v>
-      </c>
-      <c r="B179">
-        <v>2</v>
+        <v>492</v>
       </c>
       <c r="C179" t="s">
-        <v>348</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G179" t="s">
-        <v>93</v>
-      </c>
-      <c r="H179" t="s">
+        <v>153</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H179" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>516</v>
+        <v>253</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>517</v>
+        <v>255</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H180" t="s">
         <v>154</v>
       </c>
-      <c r="I180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>489</v>
-      </c>
-      <c r="B181">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="G181" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H181" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>497</v>
+        <v>372</v>
       </c>
       <c r="G182" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H182" t="s">
         <v>154</v>
       </c>
       <c r="I182" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>498</v>
+        <v>314</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>152</v>
+        <v>348</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="G183" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H183" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>393</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G184" t="s">
+        <v>92</v>
+      </c>
+      <c r="H184" t="s">
+        <v>154</v>
+      </c>
+      <c r="I184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>254</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G185" t="s">
+        <v>92</v>
+      </c>
+      <c r="H185" t="s">
+        <v>154</v>
+      </c>
+      <c r="I185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>254</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G186" t="s">
+        <v>92</v>
+      </c>
+      <c r="H186" t="s">
+        <v>154</v>
+      </c>
+      <c r="I186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>459</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>254</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G187" t="s">
+        <v>92</v>
+      </c>
+      <c r="H187" t="s">
+        <v>154</v>
+      </c>
+      <c r="I187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>399</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>237</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G188" t="s">
+        <v>92</v>
+      </c>
+      <c r="H188" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>432</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>348</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G189" t="s">
+        <v>93</v>
+      </c>
+      <c r="H189" t="s">
+        <v>154</v>
+      </c>
+      <c r="I189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>515</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>237</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G190" t="s">
+        <v>94</v>
+      </c>
+      <c r="H190" t="s">
+        <v>154</v>
+      </c>
+      <c r="I190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>488</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>237</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G191" t="s">
+        <v>94</v>
+      </c>
+      <c r="H191" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>237</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G192" t="s">
+        <v>94</v>
+      </c>
+      <c r="H192" t="s">
+        <v>154</v>
+      </c>
+      <c r="I192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>497</v>
+      </c>
+      <c r="C193" t="s">
+        <v>152</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G193" t="s">
+        <v>94</v>
+      </c>
+      <c r="H193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>493</v>
+      </c>
+      <c r="C194" t="s">
+        <v>152</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C184" t="s">
-        <v>152</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="G194" t="s">
         <v>94</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H194" t="s">
         <v>154</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325859D5-D98D-4558-A9C4-401AD424B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F528D-F857-492F-B3B2-3F8F90141A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
@@ -2791,8 +2791,8 @@
   <dimension ref="A1:X194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F528D-F857-492F-B3B2-3F8F90141A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85D4A29-7509-4EA3-830A-D98BA597A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="572">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1065,9 +1065,6 @@
     <t>Armor 1; First Strike; Burrow; Suspend 3: 0</t>
   </si>
   <si>
-    <t>1 CMC Lords</t>
-  </si>
-  <si>
     <t>Suspend Costs are 0</t>
   </si>
   <si>
@@ -1678,6 +1675,89 @@
   </si>
   <si>
     <t>Target creature gets +1/+0 and first strike until EOT; Retrace</t>
+  </si>
+  <si>
+    <t>Seed Cannon</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, it deals 1 damage to any target. You may put a stun counter on it. If you do, it gains Deathtouch until EOT</t>
+  </si>
+  <si>
+    <t>Cunning Captain</t>
+  </si>
+  <si>
+    <t>1G/B</t>
+  </si>
+  <si>
+    <t>Sporeborn; Shroomin you control have Wither</t>
+  </si>
+  <si>
+    <t>Uncommon Effect Lords</t>
+  </si>
+  <si>
+    <t>Grants wither</t>
+  </si>
+  <si>
+    <t>Grants shroud</t>
+  </si>
+  <si>
+    <t>Reduce the cost of fleshcraft by 1</t>
+  </si>
+  <si>
+    <t>Increase conjuration by 1</t>
+  </si>
+  <si>
+    <t>Legendary Lords</t>
+  </si>
+  <si>
+    <t>When casting a spell from somewhere other than your hand, copy it. Tokens sac at EOT</t>
+  </si>
+  <si>
+    <t>Tap 3 Plants, draw a card</t>
+  </si>
+  <si>
+    <t>Rare 1cmc +1/+1 Lords</t>
+  </si>
+  <si>
+    <t>Reduce the cost of Worms you cast by 1</t>
+  </si>
+  <si>
+    <t>Gain an extra Upkeep after your postcombat main phase</t>
+  </si>
+  <si>
+    <t>Aeon Chronicler</t>
+  </si>
+  <si>
+    <t>Creature - Avatar</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Clockspinning</t>
+  </si>
+  <si>
+    <t>Buyback; Choose a counter on target permanent or suspended card. Remove that counter from that permanent or card or put another of those counters on it.</t>
+  </si>
+  <si>
+    <t>Epochrasite</t>
+  </si>
+  <si>
+    <t>Artifact Creature - Construct</t>
+  </si>
+  <si>
+    <t>Epochrasite enters the battlefield with three +1/+1 counters on it if you didn't cast it from your hand.
+When Epochrasite dies, exile it with three time counters on it and it gains suspend.</t>
+  </si>
+  <si>
+    <t>Reality Strobe</t>
+  </si>
+  <si>
+    <t>Return target permanent to its owner's hand. Exile Reality Strobe with three time counters on it.
+Suspend 3—2U</t>
+  </si>
+  <si>
+    <t>Other plants you control have 1G: Regenerate</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2478,7 @@
         <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2411,26 +2491,26 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
         <v>401</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
         <v>403</v>
-      </c>
-      <c r="B18" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2440,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F73AE2-C6DE-4BB1-909A-4EAC744B5ECB}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2485,21 +2565,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,218 +2655,244 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B29" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E29" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2788,11 +2900,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X194"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I164" sqref="I164"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2948,7 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
@@ -2857,7 +2969,7 @@
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
@@ -2871,21 +2983,21 @@
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
       </c>
       <c r="V1" s="15">
         <f>COUNTIF($H:$H,"Gold")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>124</v>
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -2894,7 +3006,7 @@
       </c>
       <c r="L2">
         <f>COUNTIF($I:$I,K2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -2929,14 +3041,14 @@
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2953,21 +3065,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -3011,21 +3123,21 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
@@ -3039,7 +3151,7 @@
       </c>
       <c r="T4" s="20">
         <f>COUNTIF($C:$C,"*Artifact*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>152</v>
@@ -3464,7 +3576,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -3479,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -3522,13 +3634,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3537,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3595,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3624,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3661,10 +3773,10 @@
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" t="s">
         <v>380</v>
-      </c>
-      <c r="B27" t="s">
-        <v>381</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
@@ -3676,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3785,7 +3897,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
         <v>184</v>
@@ -3794,7 +3906,7 @@
         <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -3963,13 +4075,13 @@
     </row>
     <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" t="s">
         <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3978,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -3992,13 +4104,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B40" t="s">
         <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4007,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -4079,13 +4191,13 @@
     </row>
     <row r="43" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4094,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -4108,7 +4220,7 @@
     </row>
     <row r="44" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s">
         <v>159</v>
@@ -4117,7 +4229,7 @@
         <v>208</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -4128,13 +4240,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B45" t="s">
         <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -4143,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G45" t="s">
         <v>92</v>
@@ -4157,13 +4269,13 @@
     </row>
     <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
         <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4172,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G46" t="s">
         <v>92</v>
@@ -4186,7 +4298,7 @@
     </row>
     <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
@@ -4195,7 +4307,7 @@
         <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G47" t="s">
         <v>92</v>
@@ -4209,13 +4321,13 @@
     </row>
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B48" t="s">
         <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4224,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G48" t="s">
         <v>92</v>
@@ -4261,13 +4373,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -4276,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G50" t="s">
         <v>92</v>
@@ -4348,7 +4460,7 @@
     </row>
     <row r="53" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -4357,7 +4469,7 @@
         <v>183</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -4371,16 +4483,16 @@
     </row>
     <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>507</v>
+      </c>
+      <c r="B54" t="s">
         <v>508</v>
-      </c>
-      <c r="B54" t="s">
-        <v>509</v>
       </c>
       <c r="C54" t="s">
         <v>208</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4392,24 +4504,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>545</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>157</v>
+        <v>546</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -4418,27 +4530,27 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -4447,27 +4559,27 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>517</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>518</v>
+        <v>241</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>519</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -4476,21 +4588,27 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>517</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>293</v>
+        <v>518</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
@@ -4499,12 +4617,12 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>540</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
         <v>159</v>
@@ -4513,7 +4631,7 @@
         <v>208</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>543</v>
+        <v>293</v>
       </c>
       <c r="G59" t="s">
         <v>93</v>
@@ -4522,21 +4640,21 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>539</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="G60" t="s">
         <v>93</v>
@@ -4548,18 +4666,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s">
         <v>93</v>
@@ -4568,27 +4686,21 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G62" t="s">
         <v>93</v>
@@ -4597,30 +4709,30 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
@@ -4629,24 +4741,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>507</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
         <v>94</v>
@@ -4655,27 +4767,27 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="G65" t="s">
         <v>94</v>
@@ -4687,12 +4799,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
@@ -4701,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="G66" t="s">
         <v>94</v>
@@ -4713,21 +4825,27 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G67" t="s">
         <v>94</v>
@@ -4736,27 +4854,21 @@
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4768,51 +4880,57 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="23"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" t="s">
-        <v>92</v>
-      </c>
-      <c r="H73" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" t="s">
-        <v>147</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
         <v>92</v>
@@ -4821,21 +4939,21 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
         <v>150</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4843,25 +4961,22 @@
       <c r="H75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>564</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>348</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>406</v>
+        <v>565</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4870,27 +4985,21 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
-      </c>
-      <c r="D77">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -4898,22 +5007,25 @@
       <c r="H77" t="s">
         <v>8</v>
       </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>531</v>
+        <v>405</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -4922,21 +5034,27 @@
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>444</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>437</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -4944,25 +5062,22 @@
       <c r="H79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -4971,27 +5086,21 @@
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>539</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
-      <c r="E81">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>538</v>
+        <v>428</v>
       </c>
       <c r="G81" t="s">
         <v>92</v>
@@ -4999,22 +5108,25 @@
       <c r="H81" t="s">
         <v>8</v>
       </c>
-      <c r="I81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="G82" t="s">
         <v>92</v>
@@ -5023,21 +5135,27 @@
         <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>390</v>
+        <v>537</v>
       </c>
       <c r="G83" t="s">
         <v>92</v>
@@ -5045,10 +5163,13 @@
       <c r="H83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>503</v>
       </c>
       <c r="B84" t="s">
         <v>93</v>
@@ -5057,7 +5178,7 @@
         <v>150</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>308</v>
+        <v>504</v>
       </c>
       <c r="G84" t="s">
         <v>92</v>
@@ -5066,27 +5187,21 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="G85" t="s">
         <v>92</v>
@@ -5094,22 +5209,19 @@
       <c r="H85" t="s">
         <v>8</v>
       </c>
-      <c r="I85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>506</v>
+        <v>308</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
@@ -5118,18 +5230,18 @@
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5138,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -5147,30 +5259,24 @@
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>438</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
@@ -5181,19 +5287,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>437</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>502</v>
+        <v>384</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s">
         <v>8</v>
@@ -5202,24 +5314,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="G90" t="s">
         <v>93</v>
@@ -5228,27 +5340,21 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="G91" t="s">
         <v>93</v>
@@ -5257,27 +5363,27 @@
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>433</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>267</v>
+        <v>434</v>
       </c>
       <c r="G92" t="s">
         <v>93</v>
@@ -5286,21 +5392,27 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -5308,25 +5420,28 @@
       <c r="H93" t="s">
         <v>8</v>
       </c>
+      <c r="I93" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>268</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="C94" t="s">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>441</v>
+        <v>267</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -5335,27 +5450,21 @@
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>438</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="G95" t="s">
         <v>93</v>
@@ -5363,22 +5472,25 @@
       <c r="H95" t="s">
         <v>8</v>
       </c>
-      <c r="I95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>437</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>264</v>
+        <v>440</v>
       </c>
       <c r="G96" t="s">
         <v>93</v>
@@ -5387,24 +5499,24 @@
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="B97" t="s">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="G97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H97" t="s">
         <v>8</v>
@@ -5413,27 +5525,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B98" t="s">
         <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="G98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
@@ -5442,47 +5554,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" t="s">
         <v>93</v>
-      </c>
-      <c r="C99" t="s">
-        <v>348</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G99" t="s">
-        <v>94</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
+        <v>451</v>
+      </c>
+      <c r="B100" t="s">
+        <v>452</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="G100" t="s">
         <v>94</v>
@@ -5494,24 +5600,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="G101" t="s">
         <v>94</v>
@@ -5520,21 +5626,27 @@
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="G102" t="s">
         <v>94</v>
@@ -5543,138 +5655,141 @@
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="24"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="B103" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>562</v>
+      </c>
+      <c r="D103" t="s">
+        <v>563</v>
+      </c>
+      <c r="E103" t="s">
+        <v>563</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G103" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" t="s">
-        <v>48</v>
+        <v>442</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>84</v>
+        <v>441</v>
       </c>
       <c r="G104" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>422</v>
+        <v>271</v>
       </c>
       <c r="G105" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="G106" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>416</v>
-      </c>
-      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="24"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" t="s">
         <v>48</v>
       </c>
-      <c r="C107" t="s">
-        <v>348</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G107" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>534</v>
-      </c>
-      <c r="B108" t="s">
-        <v>88</v>
-      </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>535</v>
+        <v>84</v>
       </c>
       <c r="G108" t="s">
         <v>92</v>
@@ -5682,25 +5797,28 @@
       <c r="H108" t="s">
         <v>9</v>
       </c>
+      <c r="I108" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="B109" t="s">
-        <v>427</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="G109" t="s">
         <v>92</v>
@@ -5712,18 +5830,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
         <v>150</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="G110" t="s">
         <v>92</v>
@@ -5732,18 +5850,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="G111" t="s">
         <v>92</v>
@@ -5751,25 +5875,22 @@
       <c r="H111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>533</v>
       </c>
       <c r="B112" t="s">
         <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>273</v>
+        <v>534</v>
       </c>
       <c r="G112" t="s">
         <v>92</v>
@@ -5777,22 +5898,25 @@
       <c r="H112" t="s">
         <v>9</v>
       </c>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>297</v>
+        <v>425</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>299</v>
+        <v>448</v>
       </c>
       <c r="G113" t="s">
         <v>92</v>
@@ -5801,27 +5925,21 @@
         <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="G114" t="s">
         <v>92</v>
@@ -5829,22 +5947,19 @@
       <c r="H114" t="s">
         <v>9</v>
       </c>
-      <c r="I114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="B115" t="s">
         <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>168</v>
+        <v>477</v>
       </c>
       <c r="G115" t="s">
         <v>92</v>
@@ -5852,22 +5967,25 @@
       <c r="H115" t="s">
         <v>9</v>
       </c>
-      <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="G116" t="s">
         <v>92</v>
@@ -5875,22 +5993,22 @@
       <c r="H116" t="s">
         <v>9</v>
       </c>
-      <c r="J116" t="s">
-        <v>3</v>
+      <c r="I116" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
         <v>150</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="G117" t="s">
         <v>92</v>
@@ -5898,19 +6016,19 @@
       <c r="H117" t="s">
         <v>9</v>
       </c>
-      <c r="J117" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5919,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="G118" t="s">
         <v>92</v>
@@ -5928,30 +6046,24 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-      <c r="E119">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="G119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -5962,100 +6074,88 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
       </c>
-      <c r="I121" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>415</v>
+        <v>241</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -6064,7 +6164,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="G123" t="s">
         <v>93</v>
@@ -6073,21 +6173,27 @@
         <v>9</v>
       </c>
       <c r="I123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>406</v>
       </c>
       <c r="B124" t="s">
         <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>177</v>
+        <v>407</v>
       </c>
       <c r="G124" t="s">
         <v>93</v>
@@ -6096,27 +6202,27 @@
         <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>439</v>
+        <v>66</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>484</v>
+        <v>67</v>
       </c>
       <c r="G125" t="s">
         <v>93</v>
@@ -6125,27 +6231,27 @@
         <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="B126" t="s">
         <v>49</v>
       </c>
       <c r="C126" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="G126" t="s">
         <v>93</v>
@@ -6159,22 +6265,22 @@
     </row>
     <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>412</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>86</v>
+        <v>413</v>
       </c>
       <c r="G127" t="s">
         <v>93</v>
@@ -6183,41 +6289,41 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="G128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6226,82 +6332,88 @@
         <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="G129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>481</v>
       </c>
       <c r="B130" t="s">
         <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>174</v>
+        <v>482</v>
       </c>
       <c r="G130" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="B131" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>481</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="G132" t="s">
         <v>94</v>
@@ -6310,12 +6422,12 @@
         <v>9</v>
       </c>
       <c r="I132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
         <v>88</v>
@@ -6330,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G133" t="s">
         <v>94</v>
@@ -6344,22 +6456,16 @@
     </row>
     <row r="134" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="G134" t="s">
         <v>94</v>
@@ -6371,132 +6477,138 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>479</v>
+      </c>
+      <c r="B135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" t="s">
+        <v>183</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G135" t="s">
+        <v>94</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="25"/>
+        <v>363</v>
+      </c>
+      <c r="B136" t="s">
+        <v>351</v>
+      </c>
+      <c r="C136" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G136" t="s">
+        <v>94</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" t="s">
+        <v>316</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G137" t="s">
         <v>94</v>
       </c>
-      <c r="C137" t="s">
-        <v>150</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G137" t="s">
-        <v>92</v>
-      </c>
       <c r="H137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I137" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G138" t="s">
         <v>94</v>
       </c>
-      <c r="C138" t="s">
-        <v>321</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G138" t="s">
-        <v>92</v>
-      </c>
       <c r="H138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>544</v>
-      </c>
-      <c r="B139" t="s">
-        <v>285</v>
-      </c>
-      <c r="C139" t="s">
-        <v>150</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G139" t="s">
-        <v>92</v>
-      </c>
-      <c r="H139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" t="s">
-        <v>150</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G140" t="s">
-        <v>92</v>
-      </c>
-      <c r="H140" t="s">
-        <v>6</v>
-      </c>
-      <c r="I140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="25"/>
+    </row>
+    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>316</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G141" t="s">
         <v>92</v>
@@ -6510,22 +6622,22 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="G142" t="s">
         <v>92</v>
@@ -6534,27 +6646,21 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>543</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>241</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>283</v>
+        <v>544</v>
       </c>
       <c r="G143" t="s">
         <v>92</v>
@@ -6563,27 +6669,21 @@
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C144" t="s">
-        <v>316</v>
-      </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="G144" t="s">
         <v>92</v>
@@ -6592,27 +6692,27 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C145" t="s">
         <v>316</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G145" t="s">
         <v>92</v>
@@ -6626,22 +6726,22 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C146" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="G146" t="s">
         <v>92</v>
@@ -6650,21 +6750,27 @@
         <v>6</v>
       </c>
       <c r="I146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="G147" t="s">
         <v>92</v>
@@ -6678,16 +6784,22 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G148" t="s">
         <v>92</v>
@@ -6696,137 +6808,125 @@
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="B149" t="s">
         <v>191</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H149" t="s">
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H150" t="s">
         <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
-      </c>
-      <c r="D151">
-        <v>2</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s">
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B152" t="s">
         <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-      <c r="E152">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H152" t="s">
         <v>6</v>
       </c>
       <c r="I152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>420</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
         <v>191</v>
       </c>
       <c r="C153" t="s">
-        <v>348</v>
-      </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>421</v>
+        <v>206</v>
       </c>
       <c r="G153" t="s">
         <v>93</v>
@@ -6835,27 +6935,27 @@
         <v>6</v>
       </c>
       <c r="I153" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="G154" t="s">
         <v>93</v>
@@ -6864,27 +6964,27 @@
         <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B155" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="C155" t="s">
         <v>316</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G155" t="s">
         <v>93</v>
@@ -6898,16 +6998,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G156" t="s">
         <v>93</v>
@@ -6915,25 +7021,28 @@
       <c r="H156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D157">
         <v>3</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>521</v>
+        <v>420</v>
       </c>
       <c r="G157" t="s">
         <v>93</v>
@@ -6942,12 +7051,12 @@
         <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B158" t="s">
         <v>191</v>
@@ -6956,13 +7065,13 @@
         <v>316</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G158" t="s">
         <v>93</v>
@@ -6974,18 +7083,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="G159" t="s">
         <v>93</v>
@@ -6994,134 +7109,128 @@
         <v>6</v>
       </c>
       <c r="I159" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
-      </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
       </c>
-      <c r="I160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="B161" t="s">
-        <v>486</v>
+        <v>285</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>345</v>
       </c>
       <c r="B162" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>411</v>
+        <v>193</v>
       </c>
       <c r="B163" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C163" t="s">
-        <v>348</v>
-      </c>
-      <c r="D163">
-        <v>3</v>
-      </c>
-      <c r="E163">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>412</v>
+        <v>170</v>
       </c>
       <c r="G163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C164" t="s">
         <v>316</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G164" t="s">
         <v>94</v>
@@ -7133,24 +7242,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>484</v>
       </c>
       <c r="B165" t="s">
-        <v>287</v>
+        <v>485</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>414</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="G165" t="s">
         <v>94</v>
@@ -7159,21 +7268,21 @@
         <v>6</v>
       </c>
       <c r="I165" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
         <v>192</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G166" t="s">
         <v>94</v>
@@ -7181,136 +7290,133 @@
       <c r="H166" t="s">
         <v>6</v>
       </c>
-      <c r="I166" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>113</v>
-      </c>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="26"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G167" t="s">
+        <v>94</v>
+      </c>
+      <c r="H167" t="s">
+        <v>6</v>
+      </c>
+      <c r="I167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="C168" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="G168" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H168" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>61</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
+        <v>289</v>
+      </c>
+      <c r="B169" t="s">
+        <v>287</v>
       </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="G169" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I169" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>377</v>
+        <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="G170" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H170" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" t="s">
-        <v>60</v>
-      </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G171" t="s">
-        <v>92</v>
-      </c>
-      <c r="H171" t="s">
-        <v>117</v>
-      </c>
-      <c r="I171" t="s">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="26"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
         <v>60</v>
@@ -7322,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H172" t="s">
         <v>117</v>
@@ -7334,27 +7440,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>72</v>
-      </c>
-      <c r="B173" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
       </c>
       <c r="C173" t="s">
         <v>60</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s">
         <v>117</v>
@@ -7363,64 +7469,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B174" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
-        <v>316</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H174" t="s">
         <v>117</v>
       </c>
       <c r="I174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>498</v>
+        <v>68</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>34</v>
       </c>
       <c r="C175" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H175" t="s">
         <v>117</v>
       </c>
       <c r="I175" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>548</v>
       </c>
       <c r="C176" t="s">
         <v>60</v>
@@ -7432,10 +7538,10 @@
         <v>2</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>367</v>
+        <v>549</v>
       </c>
       <c r="G176" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H176" t="s">
         <v>117</v>
@@ -7446,134 +7552,168 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>114</v>
-      </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="27"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G177" t="s">
+        <v>93</v>
+      </c>
+      <c r="H177" t="s">
+        <v>117</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>357</v>
-      </c>
-      <c r="B178">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G178" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H178" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>492</v>
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>152</v>
+        <v>316</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="G179" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" t="s">
+        <v>117</v>
+      </c>
+      <c r="I179" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>253</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="B180" t="s">
+        <v>498</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>255</v>
+        <v>499</v>
       </c>
       <c r="G180" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>491</v>
+        <v>364</v>
+      </c>
+      <c r="B181" t="s">
+        <v>365</v>
       </c>
       <c r="C181" t="s">
-        <v>152</v>
+        <v>60</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>463</v>
+        <v>366</v>
       </c>
       <c r="G181" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H181" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>301</v>
-      </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>208</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G182" t="s">
-        <v>92</v>
-      </c>
-      <c r="H182" t="s">
-        <v>154</v>
-      </c>
-      <c r="I182" t="s">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="27"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>423</v>
+        <v>2</v>
       </c>
       <c r="G183" t="s">
         <v>92</v>
@@ -7581,45 +7721,38 @@
       <c r="H183" t="s">
         <v>154</v>
       </c>
-      <c r="I183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>393</v>
-      </c>
-      <c r="B184">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="C184" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G184" t="s">
-        <v>92</v>
-      </c>
-      <c r="H184" t="s">
+        <v>153</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H184" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I184" t="s">
-        <v>0</v>
-      </c>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
     </row>
     <row r="185" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
         <v>254</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="G185" t="s">
         <v>92</v>
@@ -7627,22 +7760,16 @@
       <c r="H185" t="s">
         <v>154</v>
       </c>
-      <c r="I185" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>396</v>
-      </c>
-      <c r="B186">
-        <v>3</v>
+        <v>490</v>
       </c>
       <c r="C186" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="G186" t="s">
         <v>92</v>
@@ -7650,22 +7777,19 @@
       <c r="H186" t="s">
         <v>154</v>
       </c>
-      <c r="I186" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>459</v>
+        <v>301</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>460</v>
+        <v>371</v>
       </c>
       <c r="G187" t="s">
         <v>92</v>
@@ -7674,21 +7798,27 @@
         <v>154</v>
       </c>
       <c r="I187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>314</v>
+      </c>
+      <c r="B188">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>399</v>
-      </c>
-      <c r="B188">
-        <v>2</v>
-      </c>
       <c r="C188" t="s">
-        <v>237</v>
+        <v>347</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="G188" t="s">
         <v>92</v>
@@ -7696,133 +7826,274 @@
       <c r="H188" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="G189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H189" t="s">
         <v>154</v>
       </c>
       <c r="I189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>393</v>
+      </c>
+      <c r="B190">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>515</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>516</v>
+        <v>394</v>
       </c>
       <c r="G190" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H190" t="s">
         <v>154</v>
       </c>
       <c r="I190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>488</v>
+        <v>395</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>489</v>
+        <v>396</v>
       </c>
       <c r="G191" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H191" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="G192" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s">
         <v>154</v>
       </c>
       <c r="I192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>497</v>
+        <v>398</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="G193" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H193" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>566</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>567</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G194" t="s">
+        <v>93</v>
+      </c>
+      <c r="H194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>431</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G195" t="s">
+        <v>93</v>
+      </c>
+      <c r="H195" t="s">
+        <v>154</v>
+      </c>
+      <c r="I195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>514</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>237</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G196" t="s">
+        <v>94</v>
+      </c>
+      <c r="H196" t="s">
+        <v>154</v>
+      </c>
+      <c r="I196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>487</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>237</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G197" t="s">
+        <v>94</v>
+      </c>
+      <c r="H197" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>494</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>237</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G198" t="s">
+        <v>94</v>
+      </c>
+      <c r="H198" t="s">
+        <v>154</v>
+      </c>
+      <c r="I198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>496</v>
+      </c>
+      <c r="C199" t="s">
+        <v>152</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G199" t="s">
+        <v>94</v>
+      </c>
+      <c r="H199" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>492</v>
+      </c>
+      <c r="C200" t="s">
+        <v>152</v>
+      </c>
+      <c r="F200" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C194" t="s">
-        <v>152</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="G200" t="s">
         <v>94</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H200" t="s">
         <v>154</v>
       </c>
     </row>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85D4A29-7509-4EA3-830A-D98BA597A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1F202-E6A1-402D-8246-8859598BDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1F202-E6A1-402D-8246-8859598BDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C8115-711A-DB49-8207-497A9BBA5C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="1" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="595">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1716,9 +1716,6 @@
     <t>Tap 3 Plants, draw a card</t>
   </si>
   <si>
-    <t>Rare 1cmc +1/+1 Lords</t>
-  </si>
-  <si>
     <t>Reduce the cost of Worms you cast by 1</t>
   </si>
   <si>
@@ -1758,6 +1755,78 @@
   </si>
   <si>
     <t>Other plants you control have 1G: Regenerate</t>
+  </si>
+  <si>
+    <t>Grand Abolisher effect; Sac: your guys are indestructible</t>
+  </si>
+  <si>
+    <t>General Khazgrakk</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Insect Knight</t>
+  </si>
+  <si>
+    <t>Armor 2; On your turn, your opponents cannot cast spells or activate abilities; Sacrifice ~: Other creatures you control gain indestructible until EOT</t>
+  </si>
+  <si>
+    <t>Drodo, Unififying Dhaman</t>
+  </si>
+  <si>
+    <t>Sporeborn; T: Evaporate or proliferate</t>
+  </si>
+  <si>
+    <t>Arcanum of Singularity</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Elemental</t>
+  </si>
+  <si>
+    <t>Creature - Fungus Legendary Shaman</t>
+  </si>
+  <si>
+    <t>Spend only colored mana to cast ~; ~'s P/T are equal to the number of different names among lands you control; ~ is all colors; Elemental spells you cast cost WUBRG less</t>
+  </si>
+  <si>
+    <t>Emperor Al'Khazul</t>
+  </si>
+  <si>
+    <t>2(2/W)B</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Human Cleric</t>
+  </si>
+  <si>
+    <t>T: Until EOT, you may Fleshcraft target Human creature card from your graveyard. If you do, it ETBs with a Finality counter on it</t>
+  </si>
+  <si>
+    <t>Raid Master Panshir</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Worm</t>
+  </si>
+  <si>
+    <t>Armor 1; Burrow; Suspend 2R; Worm cards  you own have Suspend : 0</t>
+  </si>
+  <si>
+    <t>The Master Root Hub</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Plant</t>
+  </si>
+  <si>
+    <t>Tap 3 untapped Plants you control: Draw a card</t>
+  </si>
+  <si>
+    <t>Shadow of the Wanderer</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Wizard Avatar</t>
+  </si>
+  <si>
+    <t>UC  1cmc +1/+1 Lords</t>
   </si>
 </sst>
 </file>
@@ -2330,19 +2399,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2442,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2381,7 +2450,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2458,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2466,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2474,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2451,7 +2520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2542,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -2481,7 +2550,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -2489,7 +2558,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>362</v>
       </c>
@@ -2497,7 +2566,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -2505,7 +2574,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>402</v>
       </c>
@@ -2522,22 +2591,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F73AE2-C6DE-4BB1-909A-4EAC744B5ECB}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2560,15 +2629,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>555</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>571</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>344</v>
       </c>
@@ -2588,7 +2660,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2614,7 +2686,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2625,37 +2697,37 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -2672,21 +2744,21 @@
         <v>553</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -2718,7 +2790,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2738,7 +2810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2758,7 +2830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -2778,7 +2850,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -2801,7 +2873,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -2824,7 +2896,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -2847,7 +2919,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2870,7 +2942,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -2900,25 +2972,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="A97:XFD97"/>
+    <sheetView zoomScale="115" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2948,14 +3020,14 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="15">
         <f>COUNTIF($H:$H,"White")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>119</v>
@@ -2969,28 +3041,28 @@
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
       </c>
       <c r="V1" s="15">
         <f>COUNTIF($H:$H,"Gold")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>124</v>
@@ -3000,58 +3072,58 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L2">
         <f>COUNTIF($I:$I,K2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2">
         <f>COUNTIF($I:$I,M2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
       </c>
       <c r="R2">
         <f>COUNTIF($I:$I,Q2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -3079,7 +3151,7 @@
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -3090,7 +3162,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>243</v>
       </c>
@@ -3123,7 +3195,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
@@ -3163,7 +3235,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -3192,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3221,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3250,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3308,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -3337,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3363,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -3392,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3421,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3444,7 +3516,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -3470,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -3493,7 +3565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -3516,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3545,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -3574,7 +3646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>390</v>
       </c>
@@ -3603,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3632,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>470</v>
       </c>
@@ -3661,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3690,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -3719,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3748,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3771,7 +3843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>379</v>
       </c>
@@ -3800,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -3820,7 +3892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -3843,7 +3915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -3866,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3895,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>454</v>
       </c>
@@ -3918,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3947,24 +4019,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>572</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>573</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>145</v>
+        <v>574</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -3976,24 +4048,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -4002,27 +4074,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
         <v>94</v>
@@ -4031,66 +4103,66 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>244</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>201</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>241</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>510</v>
-      </c>
-      <c r="B39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" t="s">
-        <v>464</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="G39" t="s">
         <v>92</v>
@@ -4099,27 +4171,27 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>464</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -4131,24 +4203,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="B41" t="s">
         <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>29</v>
+        <v>466</v>
       </c>
       <c r="G41" t="s">
         <v>92</v>
@@ -4157,27 +4229,27 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
         <v>92</v>
@@ -4189,24 +4261,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>524</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -4215,21 +4287,27 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>464</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -4237,25 +4315,22 @@
       <c r="H44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s">
         <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>464</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="G45" t="s">
         <v>92</v>
@@ -4263,28 +4338,25 @@
       <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="I45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>464</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="G46" t="s">
         <v>92</v>
@@ -4296,18 +4368,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>464</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G47" t="s">
         <v>92</v>
@@ -4319,24 +4397,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>464</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G48" t="s">
         <v>92</v>
@@ -4348,18 +4420,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>526</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>464</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>166</v>
+        <v>528</v>
       </c>
       <c r="G49" t="s">
         <v>92</v>
@@ -4368,27 +4446,21 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>521</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>523</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>522</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
         <v>92</v>
@@ -4397,56 +4469,56 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>521</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>523</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>65</v>
+        <v>522</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -4458,18 +4530,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>469</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>512</v>
+        <v>160</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -4478,21 +4556,21 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s">
-        <v>508</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4504,24 +4582,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>508</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -4533,24 +4605,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>545</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>157</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -4559,27 +4631,27 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -4588,27 +4660,27 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>516</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>517</v>
+        <v>241</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>518</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
@@ -4617,21 +4689,27 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>517</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>293</v>
+        <v>518</v>
       </c>
       <c r="G59" t="s">
         <v>93</v>
@@ -4640,12 +4718,12 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
         <v>159</v>
@@ -4654,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>542</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
         <v>93</v>
@@ -4663,21 +4741,21 @@
         <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>539</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="G61" t="s">
         <v>93</v>
@@ -4689,18 +4767,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G62" t="s">
         <v>93</v>
@@ -4709,27 +4787,21 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
         <v>93</v>
@@ -4738,30 +4810,30 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>60</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
         <v>7</v>
@@ -4770,24 +4842,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>463</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>506</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
         <v>94</v>
@@ -4796,27 +4868,27 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="G66" t="s">
         <v>94</v>
@@ -4828,12 +4900,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
@@ -4842,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="G67" t="s">
         <v>94</v>
@@ -4854,21 +4926,27 @@
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4877,27 +4955,21 @@
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G69" t="s">
         <v>94</v>
@@ -4909,51 +4981,86 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>588</v>
+      </c>
+      <c r="B71" t="s">
+        <v>589</v>
+      </c>
+      <c r="C71" t="s">
+        <v>590</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>199</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>93</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>183</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H74" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>296</v>
-      </c>
-      <c r="B75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="G75" t="s">
         <v>92</v>
@@ -4962,21 +5069,21 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>564</v>
+        <v>296</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>565</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -4988,18 +5095,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
         <v>150</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>386</v>
+        <v>564</v>
       </c>
       <c r="G77" t="s">
         <v>92</v>
@@ -5007,25 +5114,22 @@
       <c r="H77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -5033,28 +5137,25 @@
       <c r="H78" t="s">
         <v>8</v>
       </c>
-      <c r="I78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="B79" t="s">
-        <v>444</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -5063,21 +5164,27 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>529</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>444</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>437</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -5089,18 +5196,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>428</v>
+        <v>530</v>
       </c>
       <c r="G81" t="s">
         <v>92</v>
@@ -5108,25 +5215,22 @@
       <c r="H81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s">
         <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G82" t="s">
         <v>92</v>
@@ -5134,28 +5238,25 @@
       <c r="H82" t="s">
         <v>8</v>
       </c>
-      <c r="I82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>538</v>
+        <v>435</v>
       </c>
       <c r="B83" t="s">
-        <v>452</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
         <v>347</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>537</v>
+        <v>436</v>
       </c>
       <c r="G83" t="s">
         <v>92</v>
@@ -5167,18 +5268,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>452</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="G84" t="s">
         <v>92</v>
@@ -5187,21 +5294,21 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>389</v>
+        <v>504</v>
       </c>
       <c r="G85" t="s">
         <v>92</v>
@@ -5209,19 +5316,22 @@
       <c r="H85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>388</v>
       </c>
       <c r="C86" t="s">
         <v>150</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
@@ -5229,28 +5339,19 @@
       <c r="H86" t="s">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -5259,21 +5360,27 @@
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>502</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>505</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -5282,27 +5389,21 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
         <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>437</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="G89" t="s">
         <v>92</v>
@@ -5314,12 +5415,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
         <v>437</v>
@@ -5331,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
@@ -5343,18 +5444,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>437</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="G91" t="s">
         <v>93</v>
@@ -5366,24 +5473,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s">
         <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>347</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="G92" t="s">
         <v>93</v>
@@ -5392,27 +5493,27 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
         <v>347</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="G93" t="s">
         <v>93</v>
@@ -5424,24 +5525,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>472</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -5450,21 +5551,27 @@
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>535</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>536</v>
+        <v>267</v>
       </c>
       <c r="G95" t="s">
         <v>93</v>
@@ -5472,25 +5579,22 @@
       <c r="H95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="G96" t="s">
         <v>93</v>
@@ -5498,22 +5602,25 @@
       <c r="H96" t="s">
         <v>8</v>
       </c>
-      <c r="I96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>569</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s">
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>437</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="G97" t="s">
         <v>93</v>
@@ -5525,24 +5632,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
       <c r="G98" t="s">
         <v>93</v>
@@ -5554,18 +5655,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>437</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>264</v>
+        <v>447</v>
       </c>
       <c r="G99" t="s">
         <v>93</v>
@@ -5574,50 +5681,44 @@
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>451</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>453</v>
+        <v>264</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H100" t="s">
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>452</v>
       </c>
       <c r="C101" t="s">
-        <v>461</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G101" t="s">
         <v>94</v>
@@ -5629,24 +5730,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>347</v>
+        <v>461</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G102" t="s">
         <v>94</v>
@@ -5655,27 +5756,27 @@
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>562</v>
-      </c>
-      <c r="D103" t="s">
-        <v>563</v>
-      </c>
-      <c r="E103" t="s">
-        <v>563</v>
+        <v>347</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="G103" t="s">
         <v>94</v>
@@ -5684,21 +5785,27 @@
         <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>442</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="B104" t="s">
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>561</v>
+      </c>
+      <c r="D104" t="s">
+        <v>562</v>
+      </c>
+      <c r="E104" t="s">
+        <v>562</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="G104" t="s">
         <v>94</v>
@@ -5710,24 +5817,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>382</v>
-      </c>
-      <c r="B105" t="s">
-        <v>269</v>
+        <v>442</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>271</v>
+        <v>441</v>
       </c>
       <c r="G105" t="s">
         <v>94</v>
@@ -5736,21 +5837,27 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="B106" t="s">
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>593</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>173</v>
+        <v>556</v>
       </c>
       <c r="G106" t="s">
         <v>94</v>
@@ -5759,89 +5866,89 @@
         <v>8</v>
       </c>
       <c r="I106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="24"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="24"/>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>87</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>48</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>60</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="7" t="s">
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G108" t="s">
-        <v>92</v>
-      </c>
-      <c r="H108" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>313</v>
-      </c>
-      <c r="B109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G109" t="s">
-        <v>92</v>
-      </c>
-      <c r="H109" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>531</v>
-      </c>
-      <c r="B110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="G110" t="s">
         <v>92</v>
@@ -5849,25 +5956,28 @@
       <c r="H110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
         <v>347</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G111" t="s">
         <v>92</v>
@@ -5879,18 +5989,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B112" t="s">
         <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G112" t="s">
         <v>92</v>
@@ -5899,24 +6009,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
         <v>347</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="G113" t="s">
         <v>92</v>
@@ -5928,18 +6038,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="G114" t="s">
         <v>92</v>
@@ -5948,18 +6058,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="G115" t="s">
         <v>92</v>
@@ -5967,25 +6083,22 @@
       <c r="H115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>273</v>
+        <v>462</v>
       </c>
       <c r="G116" t="s">
         <v>92</v>
@@ -5993,22 +6106,19 @@
       <c r="H116" t="s">
         <v>9</v>
       </c>
-      <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
       <c r="B117" t="s">
         <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>299</v>
+        <v>477</v>
       </c>
       <c r="G117" t="s">
         <v>92</v>
@@ -6016,19 +6126,16 @@
       <c r="H117" t="s">
         <v>9</v>
       </c>
-      <c r="I117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>272</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6037,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="G118" t="s">
         <v>92</v>
@@ -6046,21 +6153,21 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="G119" t="s">
         <v>92</v>
@@ -6069,21 +6176,27 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="G120" t="s">
         <v>92</v>
@@ -6091,22 +6204,22 @@
       <c r="H120" t="s">
         <v>9</v>
       </c>
-      <c r="J120" t="s">
+      <c r="I120" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="G121" t="s">
         <v>92</v>
@@ -6114,28 +6227,22 @@
       <c r="H121" t="s">
         <v>9</v>
       </c>
-      <c r="J121" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>89</v>
+        <v>360</v>
       </c>
       <c r="G122" t="s">
         <v>92</v>
@@ -6143,48 +6250,42 @@
       <c r="H122" t="s">
         <v>9</v>
       </c>
-      <c r="I122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="G123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
       </c>
-      <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6193,27 +6294,27 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>407</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -6222,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="G125" t="s">
         <v>93</v>
@@ -6231,27 +6332,27 @@
         <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>347</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G126" t="s">
         <v>93</v>
@@ -6263,15 +6364,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>412</v>
+        <v>66</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>60</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -6280,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="G127" t="s">
         <v>93</v>
@@ -6289,21 +6390,27 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>423</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" t="s">
+        <v>347</v>
+      </c>
+      <c r="D128">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>188</v>
-      </c>
-      <c r="B128" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" t="s">
-        <v>183</v>
+      <c r="E128">
+        <v>3</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="G128" t="s">
         <v>93</v>
@@ -6312,27 +6419,27 @@
         <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="B129" t="s">
         <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>483</v>
+        <v>413</v>
       </c>
       <c r="G129" t="s">
         <v>93</v>
@@ -6344,24 +6451,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>481</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>482</v>
+        <v>177</v>
       </c>
       <c r="G130" t="s">
         <v>93</v>
@@ -6370,27 +6471,27 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>85</v>
+        <v>438</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>86</v>
+        <v>483</v>
       </c>
       <c r="G131" t="s">
         <v>93</v>
@@ -6399,24 +6500,30 @@
         <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>309</v>
+        <v>482</v>
       </c>
       <c r="G132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6425,47 +6532,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>373</v>
+        <v>86</v>
       </c>
       <c r="G133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C134" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="G134" t="s">
         <v>94</v>
@@ -6474,21 +6581,27 @@
         <v>9</v>
       </c>
       <c r="I134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>480</v>
+        <v>373</v>
       </c>
       <c r="G135" t="s">
         <v>94</v>
@@ -6497,27 +6610,21 @@
         <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="G136" t="s">
         <v>94</v>
@@ -6526,27 +6633,21 @@
         <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>349</v>
+        <v>479</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="G137" t="s">
         <v>94</v>
@@ -6555,18 +6656,18 @@
         <v>9</v>
       </c>
       <c r="I137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>586</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -6575,106 +6676,118 @@
         <v>3</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>280</v>
+        <v>587</v>
       </c>
       <c r="G138" t="s">
         <v>94</v>
       </c>
       <c r="H138" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C139" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G139" t="s">
+        <v>94</v>
+      </c>
+      <c r="H139" t="s">
         <v>9</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" t="s">
+        <v>316</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G140" t="s">
+        <v>94</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" t="s">
+        <v>241</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G141" t="s">
+        <v>94</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>112</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="25"/>
-    </row>
-    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="25"/>
+    </row>
+    <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>312</v>
-      </c>
-      <c r="B141" t="s">
-        <v>94</v>
-      </c>
-      <c r="C141" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G141" t="s">
-        <v>92</v>
-      </c>
-      <c r="H141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>324</v>
-      </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" t="s">
-        <v>321</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G142" t="s">
-        <v>92</v>
-      </c>
-      <c r="H142" t="s">
-        <v>6</v>
-      </c>
-      <c r="I142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>543</v>
-      </c>
-      <c r="B143" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143" t="s">
-        <v>150</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G143" t="s">
-        <v>92</v>
-      </c>
-      <c r="H143" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>149</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
@@ -6683,7 +6796,7 @@
         <v>150</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="G144" t="s">
         <v>92</v>
@@ -6692,27 +6805,27 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
       </c>
       <c r="C145" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G145" t="s">
         <v>92</v>
@@ -6724,24 +6837,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="B146" t="s">
         <v>285</v>
       </c>
       <c r="C146" t="s">
-        <v>347</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>409</v>
+        <v>544</v>
       </c>
       <c r="G146" t="s">
         <v>92</v>
@@ -6750,27 +6857,21 @@
         <v>6</v>
       </c>
       <c r="I146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="G147" t="s">
         <v>92</v>
@@ -6782,24 +6883,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C148" t="s">
         <v>316</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G148" t="s">
         <v>92</v>
@@ -6811,24 +6912,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="G149" t="s">
         <v>92</v>
@@ -6837,27 +6938,27 @@
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="G150" t="s">
         <v>92</v>
@@ -6866,21 +6967,27 @@
         <v>6</v>
       </c>
       <c r="I150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
+        <v>285</v>
+      </c>
+      <c r="C151" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>195</v>
-      </c>
-      <c r="B151" t="s">
-        <v>94</v>
-      </c>
-      <c r="C151" t="s">
-        <v>183</v>
+      <c r="E151">
+        <v>1</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="G151" t="s">
         <v>92</v>
@@ -6889,21 +6996,27 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B152" t="s">
         <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G152" t="s">
         <v>92</v>
@@ -6912,53 +7025,53 @@
         <v>6</v>
       </c>
       <c r="I152" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="B153" t="s">
         <v>191</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>321</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>6</v>
       </c>
       <c r="I153" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="G154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H154" t="s">
         <v>6</v>
@@ -6967,53 +7080,41 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B155" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H155" t="s">
         <v>6</v>
       </c>
       <c r="I155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="B156" t="s">
         <v>191</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="G156" t="s">
         <v>93</v>
@@ -7022,27 +7123,27 @@
         <v>6</v>
       </c>
       <c r="I156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D157">
         <v>3</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>420</v>
+        <v>286</v>
       </c>
       <c r="G157" t="s">
         <v>93</v>
@@ -7051,27 +7152,27 @@
         <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C158" t="s">
         <v>316</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G158" t="s">
         <v>93</v>
@@ -7083,12 +7184,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C159" t="s">
         <v>316</v>
@@ -7100,7 +7201,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G159" t="s">
         <v>93</v>
@@ -7112,18 +7213,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G160" t="s">
         <v>93</v>
@@ -7131,25 +7238,28 @@
       <c r="H160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
         <v>316</v>
       </c>
       <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
         <v>3</v>
       </c>
-      <c r="E161">
-        <v>2</v>
-      </c>
       <c r="F161" s="7" t="s">
-        <v>520</v>
+        <v>339</v>
       </c>
       <c r="G161" t="s">
         <v>93</v>
@@ -7161,24 +7271,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
         <v>316</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G162" t="s">
         <v>93</v>
@@ -7190,18 +7300,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="G163" t="s">
         <v>93</v>
@@ -7209,31 +7319,28 @@
       <c r="H163" t="s">
         <v>6</v>
       </c>
-      <c r="I163" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>333</v>
+        <v>519</v>
       </c>
       <c r="B164" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C164" t="s">
         <v>316</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="G164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7242,73 +7349,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>484</v>
+        <v>345</v>
       </c>
       <c r="B165" t="s">
-        <v>485</v>
+        <v>191</v>
       </c>
       <c r="C165" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>486</v>
+        <v>346</v>
       </c>
       <c r="G165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H165" t="s">
         <v>6</v>
       </c>
       <c r="I165" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C166" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H166" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="B167" t="s">
         <v>332</v>
       </c>
       <c r="C167" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="G167" t="s">
         <v>94</v>
@@ -7317,27 +7427,27 @@
         <v>6</v>
       </c>
       <c r="I167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>348</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="C168" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>370</v>
+        <v>486</v>
       </c>
       <c r="G168" t="s">
         <v>94</v>
@@ -7346,27 +7456,21 @@
         <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
-      </c>
-      <c r="D169">
-        <v>3</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="G169" t="s">
         <v>94</v>
@@ -7374,22 +7478,25 @@
       <c r="H169" t="s">
         <v>6</v>
       </c>
-      <c r="I169" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>410</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>169</v>
+        <v>411</v>
       </c>
       <c r="G170" t="s">
         <v>94</v>
@@ -7398,115 +7505,115 @@
         <v>6</v>
       </c>
       <c r="I170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" t="s">
+        <v>316</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G171" t="s">
+        <v>94</v>
+      </c>
+      <c r="H171" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>289</v>
+      </c>
+      <c r="B172" t="s">
+        <v>287</v>
+      </c>
+      <c r="C172" t="s">
+        <v>241</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G172" t="s">
+        <v>94</v>
+      </c>
+      <c r="H172" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" t="s">
+        <v>183</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G173" t="s">
+        <v>94</v>
+      </c>
+      <c r="H173" t="s">
+        <v>6</v>
+      </c>
+      <c r="I173" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>113</v>
       </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="26"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="26"/>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>59</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B175" t="s">
         <v>28</v>
-      </c>
-      <c r="C172" t="s">
-        <v>60</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s">
-        <v>92</v>
-      </c>
-      <c r="H172" t="s">
-        <v>117</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>61</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>60</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" t="s">
-        <v>92</v>
-      </c>
-      <c r="H173" t="s">
-        <v>117</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>376</v>
-      </c>
-      <c r="B174" t="s">
-        <v>377</v>
-      </c>
-      <c r="C174" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G174" t="s">
-        <v>92</v>
-      </c>
-      <c r="H174" t="s">
-        <v>117</v>
-      </c>
-      <c r="I174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>68</v>
-      </c>
-      <c r="B175" t="s">
-        <v>34</v>
       </c>
       <c r="C175" t="s">
         <v>60</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>29</v>
@@ -7521,27 +7628,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>547</v>
-      </c>
-      <c r="B176" t="s">
-        <v>548</v>
+        <v>61</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
       </c>
       <c r="C176" t="s">
         <v>60</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>549</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H176" t="s">
         <v>117</v>
@@ -7550,56 +7657,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="C177" t="s">
-        <v>60</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="G177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H177" t="s">
         <v>117</v>
       </c>
       <c r="I177" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C178" t="s">
         <v>60</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H178" t="s">
         <v>117</v>
@@ -7608,15 +7709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>547</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>548</v>
       </c>
       <c r="C179" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -7625,50 +7726,56 @@
         <v>2</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>355</v>
+        <v>549</v>
       </c>
       <c r="G179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H179" t="s">
         <v>117</v>
       </c>
       <c r="I179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>497</v>
+        <v>36</v>
       </c>
       <c r="B180" t="s">
-        <v>498</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>499</v>
+        <v>71</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
         <v>117</v>
       </c>
       <c r="I180" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>364</v>
+        <v>575</v>
       </c>
       <c r="B181" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="C181" t="s">
-        <v>60</v>
+        <v>579</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -7677,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="G181" t="s">
         <v>94</v>
@@ -7689,159 +7796,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G182" t="s">
+        <v>94</v>
+      </c>
+      <c r="H182" t="s">
+        <v>117</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" t="s">
+        <v>316</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G183" t="s">
+        <v>94</v>
+      </c>
+      <c r="H183" t="s">
+        <v>117</v>
+      </c>
+      <c r="I183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>581</v>
+      </c>
+      <c r="B184" t="s">
+        <v>582</v>
+      </c>
+      <c r="C184" t="s">
+        <v>583</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G184" t="s">
+        <v>94</v>
+      </c>
+      <c r="H184" t="s">
+        <v>117</v>
+      </c>
+      <c r="I184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>577</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>578</v>
+      </c>
+      <c r="D185" t="s">
+        <v>562</v>
+      </c>
+      <c r="E185" t="s">
+        <v>562</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G185" t="s">
+        <v>94</v>
+      </c>
+      <c r="H185" t="s">
+        <v>117</v>
+      </c>
+      <c r="I185" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>497</v>
+      </c>
+      <c r="B186" t="s">
+        <v>498</v>
+      </c>
+      <c r="C186" t="s">
+        <v>208</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G186" t="s">
+        <v>94</v>
+      </c>
+      <c r="H186" t="s">
+        <v>117</v>
+      </c>
+      <c r="I186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G187" t="s">
+        <v>94</v>
+      </c>
+      <c r="H187" t="s">
+        <v>117</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>114</v>
       </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="27"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="27"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>356</v>
       </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
         <v>357</v>
       </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="G183" t="s">
-        <v>92</v>
-      </c>
-      <c r="H183" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>491</v>
-      </c>
-      <c r="C184" t="s">
-        <v>152</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-    </row>
-    <row r="185" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>253</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>254</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G185" t="s">
-        <v>92</v>
-      </c>
-      <c r="H185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>490</v>
-      </c>
-      <c r="C186" t="s">
-        <v>152</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G186" t="s">
-        <v>92</v>
-      </c>
-      <c r="H186" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>301</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
-        <v>208</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G187" t="s">
-        <v>92</v>
-      </c>
-      <c r="H187" t="s">
-        <v>154</v>
-      </c>
-      <c r="I187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>314</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>347</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G188" t="s">
-        <v>92</v>
-      </c>
-      <c r="H188" t="s">
-        <v>154</v>
-      </c>
-      <c r="I188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>392</v>
-      </c>
-      <c r="B189">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s">
-        <v>254</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>397</v>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
       </c>
       <c r="G189" t="s">
         <v>92</v>
@@ -7849,45 +7996,38 @@
       <c r="H189" t="s">
         <v>154</v>
       </c>
-      <c r="I189" t="s">
+    </row>
+    <row r="190" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>491</v>
+      </c>
+      <c r="C190" t="s">
+        <v>152</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191">
         <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>393</v>
-      </c>
-      <c r="B190">
-        <v>3</v>
-      </c>
-      <c r="C190" t="s">
-        <v>254</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G190" t="s">
-        <v>92</v>
-      </c>
-      <c r="H190" t="s">
-        <v>154</v>
-      </c>
-      <c r="I190" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>395</v>
-      </c>
-      <c r="B191">
-        <v>3</v>
       </c>
       <c r="C191" t="s">
         <v>254</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="G191" t="s">
         <v>92</v>
@@ -7895,22 +8035,16 @@
       <c r="H191" t="s">
         <v>154</v>
       </c>
-      <c r="I191" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>458</v>
-      </c>
-      <c r="B192">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="C192" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G192" t="s">
         <v>92</v>
@@ -7918,22 +8052,19 @@
       <c r="H192" t="s">
         <v>154</v>
       </c>
-      <c r="I192" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G193" t="s">
         <v>92</v>
@@ -7941,165 +8072,309 @@
       <c r="H193" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>566</v>
+        <v>314</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>567</v>
+        <v>347</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>568</v>
+        <v>422</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H194" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>347</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="G195" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H195" t="s">
         <v>154</v>
       </c>
       <c r="I195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>514</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="G196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H196" t="s">
         <v>154</v>
       </c>
       <c r="I196" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>395</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
       <c r="G197" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H197" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="G198" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H198" t="s">
         <v>154</v>
       </c>
       <c r="I198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>496</v>
+        <v>398</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="G199" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H199" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>492</v>
+        <v>565</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>152</v>
+        <v>566</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="G200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H200" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>431</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>347</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G201" t="s">
+        <v>93</v>
+      </c>
+      <c r="H201" t="s">
+        <v>154</v>
+      </c>
+      <c r="I201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>514</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>237</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G202" t="s">
+        <v>94</v>
+      </c>
+      <c r="H202" t="s">
+        <v>154</v>
+      </c>
+      <c r="I202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>487</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>237</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G203" t="s">
+        <v>94</v>
+      </c>
+      <c r="H203" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>494</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>237</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G204" t="s">
+        <v>94</v>
+      </c>
+      <c r="H204" t="s">
+        <v>154</v>
+      </c>
+      <c r="I204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>496</v>
+      </c>
+      <c r="C205" t="s">
+        <v>152</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G205" t="s">
+        <v>94</v>
+      </c>
+      <c r="H205" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>492</v>
+      </c>
+      <c r="C206" t="s">
+        <v>152</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G206" t="s">
+        <v>94</v>
+      </c>
+      <c r="H206" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G36">
-    <sortCondition ref="G5:G36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G37">
+    <sortCondition ref="G5:G37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C8115-711A-DB49-8207-497A9BBA5C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4C604-6D02-C748-9879-EF63078D22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="1" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="610">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -1089,12 +1089,6 @@
     <t>Subterranean Warlord</t>
   </si>
   <si>
-    <t>Herald of the Worm</t>
-  </si>
-  <si>
-    <t>Armor 1; Burrow; Suspend 2: 0; Other Worms you control get +1/+1</t>
-  </si>
-  <si>
     <t>1BB</t>
   </si>
   <si>
@@ -1827,6 +1821,57 @@
   </si>
   <si>
     <t>UC  1cmc +1/+1 Lords</t>
+  </si>
+  <si>
+    <t>Spore Herald</t>
+  </si>
+  <si>
+    <t>Sporeborn; Other Fungus creatures you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Hive Herald</t>
+  </si>
+  <si>
+    <t>Flying; Other Insects you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Growth Herald</t>
+  </si>
+  <si>
+    <t>Rooted; Other Plants you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Herald of the Claw</t>
+  </si>
+  <si>
+    <t>Armor 1; Burrow; Suspend 2: 0; Other Worms you control get +1/+0</t>
+  </si>
+  <si>
+    <t>Chitin Herald</t>
+  </si>
+  <si>
+    <t>Armor 1; Burrow; Suspend 2: 0; Other Worms you control get +0/+1</t>
+  </si>
+  <si>
+    <t>Aether Herald</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>~ is each color of mana that was spent to cast it; Other Elementals you control get +1/+1 for each color they share with ~</t>
+  </si>
+  <si>
+    <t>Herald of Fate</t>
+  </si>
+  <si>
+    <t>Other Wizards you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Herald of Flesh</t>
+  </si>
+  <si>
+    <t>Humans you control get +1/+1</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2592,7 @@
         <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2560,26 +2605,26 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F73AE2-C6DE-4BB1-909A-4EAC744B5ECB}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2636,10 +2681,10 @@
     </row>
     <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>344</v>
@@ -2654,10 +2699,10 @@
         <v>341</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2729,33 +2774,33 @@
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2972,11 +3017,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X206"/>
+  <dimension ref="A1:X213"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,49 +3065,49 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="15">
         <f>COUNTIF($H:$H,"White")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>119</v>
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
       </c>
       <c r="V1" s="15">
         <f>COUNTIF($H:$H,"Gold")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>124</v>
@@ -3078,35 +3123,35 @@
       </c>
       <c r="L2">
         <f>COUNTIF($I:$I,K2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2">
         <f>COUNTIF($I:$I,M2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
       </c>
       <c r="R2">
         <f>COUNTIF($I:$I,Q2)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -3120,7 +3165,7 @@
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3144,14 +3189,14 @@
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -3195,7 +3240,7 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
@@ -3588,24 +3633,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>595</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>596</v>
       </c>
       <c r="G18" t="s">
         <v>93</v>
@@ -3617,15 +3662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>593</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3634,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>594</v>
       </c>
       <c r="G19" t="s">
         <v>93</v>
@@ -3643,15 +3688,15 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>131</v>
@@ -3663,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -3675,24 +3720,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
         <v>93</v>
@@ -3701,27 +3746,27 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>131</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3730,18 +3775,18 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3750,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>93</v>
@@ -3759,27 +3804,27 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3788,27 +3833,27 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
         <v>131</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3820,18 +3865,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -3840,27 +3891,27 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3872,18 +3923,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -3891,71 +3942,71 @@
       <c r="H28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>126</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G31" t="s">
         <v>94</v>
@@ -3964,21 +4015,21 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>454</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -3990,24 +4041,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
         <v>94</v>
@@ -4019,24 +4070,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>573</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>574</v>
+        <v>453</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -4048,24 +4093,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -4077,24 +4122,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>570</v>
       </c>
       <c r="B36" t="s">
         <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>571</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>572</v>
       </c>
       <c r="G36" t="s">
         <v>94</v>
@@ -4103,27 +4148,27 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="G37" t="s">
         <v>94</v>
@@ -4132,28 +4177,47 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4162,65 +4226,46 @@
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>510</v>
-      </c>
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" t="s">
-        <v>464</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>467</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>464</v>
+        <v>241</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>466</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
         <v>92</v>
@@ -4229,27 +4274,27 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>508</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>462</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="G42" t="s">
         <v>92</v>
@@ -4258,27 +4303,27 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>462</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>240</v>
+        <v>464</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -4287,27 +4332,27 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>524</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -4316,21 +4361,27 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
         <v>92</v>
@@ -4338,25 +4389,28 @@
       <c r="H45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="G46" t="s">
         <v>92</v>
@@ -4368,24 +4422,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>527</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
         <v>92</v>
@@ -4393,22 +4441,25 @@
       <c r="H47" t="s">
         <v>7</v>
       </c>
-      <c r="I47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>462</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>541</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
         <v>92</v>
@@ -4422,22 +4473,22 @@
     </row>
     <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G49" t="s">
         <v>92</v>
@@ -4451,16 +4502,16 @@
     </row>
     <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>538</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>166</v>
+        <v>539</v>
       </c>
       <c r="G50" t="s">
         <v>92</v>
@@ -4469,27 +4520,27 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B51" t="s">
-        <v>523</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G51" t="s">
         <v>92</v>
@@ -4501,76 +4552,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>519</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>521</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>515</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>462</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -4582,18 +4633,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>508</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>509</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
         <v>93</v>
@@ -4602,27 +4659,27 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>545</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>546</v>
+        <v>160</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -4631,27 +4688,21 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>157</v>
+        <v>510</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
@@ -4660,27 +4711,21 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>256</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
@@ -4689,27 +4734,27 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
         <v>93</v>
@@ -4723,16 +4768,22 @@
     </row>
     <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
         <v>93</v>
@@ -4744,18 +4795,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>539</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>542</v>
+        <v>256</v>
       </c>
       <c r="G61" t="s">
         <v>93</v>
@@ -4764,21 +4821,27 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>514</v>
       </c>
       <c r="B62" t="s">
         <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>515</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
       <c r="G62" t="s">
         <v>93</v>
@@ -4792,16 +4855,16 @@
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="G63" t="s">
         <v>93</v>
@@ -4810,27 +4873,21 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>83</v>
+        <v>540</v>
       </c>
       <c r="G64" t="s">
         <v>93</v>
@@ -4839,102 +4896,90 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s">
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>463</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>464</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s">
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>60</v>
@@ -4946,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4960,16 +5005,22 @@
     </row>
     <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>462</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>172</v>
+        <v>504</v>
       </c>
       <c r="G69" t="s">
         <v>94</v>
@@ -4978,27 +5029,27 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>259</v>
+        <v>453</v>
       </c>
       <c r="G70" t="s">
         <v>94</v>
@@ -5007,27 +5058,27 @@
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>588</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>589</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>591</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
         <v>94</v>
@@ -5036,100 +5087,112 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>586</v>
+      </c>
+      <c r="B74" t="s">
+        <v>587</v>
+      </c>
+      <c r="C74" t="s">
+        <v>588</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="F74" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>199</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" t="s">
-        <v>150</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
-      <c r="H76" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>563</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G77" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>386</v>
+        <v>165</v>
       </c>
       <c r="G78" t="s">
         <v>92</v>
@@ -5137,25 +5200,22 @@
       <c r="H78" t="s">
         <v>8</v>
       </c>
+      <c r="I78" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -5164,27 +5224,21 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s">
-        <v>444</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>437</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>445</v>
+        <v>562</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -5198,16 +5252,16 @@
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>529</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
         <v>150</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>530</v>
+        <v>384</v>
       </c>
       <c r="G81" t="s">
         <v>92</v>
@@ -5215,22 +5269,25 @@
       <c r="H81" t="s">
         <v>8</v>
       </c>
-      <c r="I81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="G82" t="s">
         <v>92</v>
@@ -5238,25 +5295,28 @@
       <c r="H82" t="s">
         <v>8</v>
       </c>
+      <c r="I82" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" t="s">
+        <v>442</v>
+      </c>
+      <c r="C83" t="s">
         <v>435</v>
       </c>
-      <c r="B83" t="s">
-        <v>295</v>
-      </c>
-      <c r="C83" t="s">
-        <v>347</v>
-      </c>
       <c r="D83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G83" t="s">
         <v>92</v>
@@ -5265,27 +5325,21 @@
         <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B84" t="s">
-        <v>452</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
-      </c>
-      <c r="E84">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G84" t="s">
         <v>92</v>
@@ -5294,21 +5348,21 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>503</v>
+        <v>425</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="G85" t="s">
         <v>92</v>
@@ -5316,22 +5370,25 @@
       <c r="H85" t="s">
         <v>8</v>
       </c>
-      <c r="I85" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
@@ -5339,19 +5396,28 @@
       <c r="H86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>450</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>308</v>
+        <v>535</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -5363,24 +5429,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -5389,21 +5449,21 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>502</v>
+        <v>385</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>505</v>
+        <v>387</v>
       </c>
       <c r="G89" t="s">
         <v>92</v>
@@ -5411,28 +5471,19 @@
       <c r="H89" t="s">
         <v>8</v>
       </c>
-      <c r="I89" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>437</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="G90" t="s">
         <v>92</v>
@@ -5441,18 +5492,18 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>241</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5461,33 +5512,33 @@
         <v>1</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>450</v>
+        <v>265</v>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>500</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
@@ -5496,53 +5547,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -5551,27 +5602,21 @@
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="G95" t="s">
         <v>93</v>
@@ -5580,21 +5625,27 @@
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="B96" t="s">
         <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>536</v>
+        <v>432</v>
       </c>
       <c r="G96" t="s">
         <v>93</v>
@@ -5602,25 +5653,28 @@
       <c r="H96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="G97" t="s">
         <v>93</v>
@@ -5629,21 +5683,27 @@
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>568</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>569</v>
+        <v>267</v>
       </c>
       <c r="G98" t="s">
         <v>93</v>
@@ -5652,27 +5712,27 @@
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>446</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>447</v>
+        <v>607</v>
       </c>
       <c r="G99" t="s">
         <v>93</v>
@@ -5681,21 +5741,21 @@
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>533</v>
       </c>
       <c r="B100" t="s">
         <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>264</v>
+        <v>534</v>
       </c>
       <c r="G100" t="s">
         <v>93</v>
@@ -5703,25 +5763,28 @@
       <c r="H100" t="s">
         <v>8</v>
       </c>
-      <c r="I100" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B101" t="s">
-        <v>452</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>435</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="G101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H101" t="s">
         <v>8</v>
@@ -5730,27 +5793,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>460</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>461</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>462</v>
+        <v>567</v>
       </c>
       <c r="G102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H102" t="s">
         <v>8</v>
@@ -5759,76 +5816,70 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="B103" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" t="s">
+        <v>435</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G103" t="s">
         <v>93</v>
-      </c>
-      <c r="C103" t="s">
-        <v>347</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G103" t="s">
-        <v>94</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>561</v>
-      </c>
-      <c r="D104" t="s">
-        <v>562</v>
-      </c>
-      <c r="E104" t="s">
-        <v>562</v>
+        <v>183</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>462</v>
+        <v>264</v>
       </c>
       <c r="G104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>442</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="B105" t="s">
+        <v>450</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G105" t="s">
         <v>94</v>
@@ -5840,24 +5891,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>592</v>
+        <v>458</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>593</v>
+        <v>459</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>556</v>
+        <v>460</v>
       </c>
       <c r="G106" t="s">
         <v>94</v>
@@ -5869,24 +5920,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>271</v>
+        <v>473</v>
       </c>
       <c r="G107" t="s">
         <v>94</v>
@@ -5895,21 +5946,27 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>559</v>
+      </c>
+      <c r="D108" t="s">
+        <v>560</v>
+      </c>
+      <c r="E108" t="s">
+        <v>560</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>173</v>
+        <v>460</v>
       </c>
       <c r="G108" t="s">
         <v>94</v>
@@ -5918,138 +5975,141 @@
         <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="24"/>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G109" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>84</v>
+        <v>554</v>
       </c>
       <c r="G110" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="G111" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>532</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>415</v>
-      </c>
-      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="24"/>
+    </row>
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" t="s">
         <v>48</v>
       </c>
-      <c r="C113" t="s">
-        <v>347</v>
-      </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="E113">
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114">
         <v>2</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G113" t="s">
-        <v>92</v>
-      </c>
-      <c r="H113" t="s">
-        <v>9</v>
-      </c>
-      <c r="I113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>533</v>
-      </c>
-      <c r="B114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" t="s">
-        <v>208</v>
+      <c r="E114">
+        <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>534</v>
+        <v>84</v>
       </c>
       <c r="G114" t="s">
         <v>92</v>
@@ -6057,25 +6117,28 @@
       <c r="H114" t="s">
         <v>9</v>
       </c>
+      <c r="I114" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
-        <v>426</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
         <v>347</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="G115" t="s">
         <v>92</v>
@@ -6087,18 +6150,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
         <v>150</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="G116" t="s">
         <v>92</v>
@@ -6107,18 +6170,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="B117" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>347</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
       <c r="G117" t="s">
         <v>92</v>
@@ -6126,25 +6195,22 @@
       <c r="H117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>531</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="G118" t="s">
         <v>92</v>
@@ -6152,22 +6218,25 @@
       <c r="H118" t="s">
         <v>9</v>
       </c>
-      <c r="I118" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>299</v>
+        <v>446</v>
       </c>
       <c r="G119" t="s">
         <v>92</v>
@@ -6176,27 +6245,21 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>347</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="G120" t="s">
         <v>92</v>
@@ -6204,22 +6267,19 @@
       <c r="H120" t="s">
         <v>9</v>
       </c>
-      <c r="I120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="B121" t="s">
         <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>168</v>
+        <v>475</v>
       </c>
       <c r="G121" t="s">
         <v>92</v>
@@ -6227,22 +6287,25 @@
       <c r="H121" t="s">
         <v>9</v>
       </c>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="G122" t="s">
         <v>92</v>
@@ -6250,22 +6313,22 @@
       <c r="H122" t="s">
         <v>9</v>
       </c>
-      <c r="J122" t="s">
-        <v>3</v>
+      <c r="I122" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
         <v>150</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="G123" t="s">
         <v>92</v>
@@ -6273,19 +6336,19 @@
       <c r="H123" t="s">
         <v>9</v>
       </c>
-      <c r="J123" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>414</v>
       </c>
       <c r="B124" t="s">
         <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6294,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>89</v>
+        <v>415</v>
       </c>
       <c r="G124" t="s">
         <v>92</v>
@@ -6303,30 +6366,24 @@
         <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="G125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -6337,100 +6394,88 @@
     </row>
     <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>347</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="G126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="G127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
       </c>
-      <c r="I127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J127" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>423</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C128" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="G128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>412</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s">
         <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6439,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="G129" t="s">
         <v>93</v>
@@ -6448,21 +6493,27 @@
         <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="B130" t="s">
         <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="G130" t="s">
         <v>93</v>
@@ -6471,15 +6522,15 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>438</v>
+        <v>608</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
         <v>347</v>
@@ -6491,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="G131" t="s">
         <v>93</v>
@@ -6503,24 +6554,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>481</v>
+        <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C132" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>482</v>
+        <v>67</v>
       </c>
       <c r="G132" t="s">
         <v>93</v>
@@ -6529,27 +6580,27 @@
         <v>9</v>
       </c>
       <c r="I132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s">
         <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
       <c r="G133" t="s">
         <v>93</v>
@@ -6558,24 +6609,30 @@
         <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>412</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="G134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -6584,73 +6641,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>373</v>
+        <v>177</v>
       </c>
       <c r="G135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>601</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="G136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="B137" t="s">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6659,41 +6722,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>585</v>
+        <v>479</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
-        <v>586</v>
+        <v>347</v>
       </c>
       <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G138" t="s">
+        <v>93</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" t="s">
         <v>3</v>
       </c>
-      <c r="E138">
-        <v>3</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="G138" t="s">
-        <v>94</v>
-      </c>
-      <c r="H138" t="s">
-        <v>6</v>
-      </c>
-      <c r="I138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
         <v>60</v>
@@ -6702,13 +6765,13 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="G139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6719,22 +6782,16 @@
     </row>
     <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="B140" t="s">
         <v>88</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="G140" t="s">
         <v>94</v>
@@ -6743,27 +6800,27 @@
         <v>9</v>
       </c>
       <c r="I140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="G141" t="s">
         <v>94</v>
@@ -6772,34 +6829,76 @@
         <v>9</v>
       </c>
       <c r="I141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G142" t="s">
+        <v>94</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+      <c r="I142" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="25"/>
+        <v>477</v>
+      </c>
+      <c r="B143" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" t="s">
+        <v>183</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G143" t="s">
+        <v>94</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>312</v>
+        <v>583</v>
       </c>
       <c r="B144" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" t="s">
+        <v>584</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G144" t="s">
         <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>150</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G144" t="s">
-        <v>92</v>
       </c>
       <c r="H144" t="s">
         <v>6</v>
@@ -6808,128 +6907,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="B145" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G145" t="s">
         <v>94</v>
       </c>
-      <c r="C145" t="s">
-        <v>321</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G145" t="s">
-        <v>92</v>
-      </c>
       <c r="H145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I145" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>543</v>
+        <v>281</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
+        <v>241</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G146" t="s">
+        <v>94</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="25"/>
+    </row>
+    <row r="149" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>312</v>
+      </c>
+      <c r="B149" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" t="s">
         <v>150</v>
       </c>
-      <c r="F146" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G146" t="s">
-        <v>92</v>
-      </c>
-      <c r="H146" t="s">
-        <v>6</v>
-      </c>
-      <c r="I146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" t="s">
-        <v>150</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G147" t="s">
-        <v>92</v>
-      </c>
-      <c r="H147" t="s">
-        <v>6</v>
-      </c>
-      <c r="I147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>318</v>
-      </c>
-      <c r="B148" t="s">
-        <v>94</v>
-      </c>
-      <c r="C148" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G148" t="s">
-        <v>92</v>
-      </c>
-      <c r="H148" t="s">
-        <v>6</v>
-      </c>
-      <c r="I148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>408</v>
-      </c>
-      <c r="B149" t="s">
-        <v>285</v>
-      </c>
-      <c r="C149" t="s">
-        <v>347</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
       <c r="F149" s="7" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="G149" t="s">
         <v>92</v>
@@ -6938,18 +6995,18 @@
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6958,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G150" t="s">
         <v>92</v>
@@ -6967,27 +7024,21 @@
         <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>541</v>
       </c>
       <c r="B151" t="s">
         <v>285</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>336</v>
+        <v>542</v>
       </c>
       <c r="G151" t="s">
         <v>92</v>
@@ -6999,24 +7050,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C152" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152">
-        <v>4</v>
-      </c>
-      <c r="E152">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="G152" t="s">
         <v>92</v>
@@ -7025,27 +7070,27 @@
         <v>6</v>
       </c>
       <c r="I152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G153" t="s">
         <v>92</v>
@@ -7057,18 +7102,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>406</v>
       </c>
       <c r="B154" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>347</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="G154" t="s">
         <v>92</v>
@@ -7077,21 +7128,27 @@
         <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G155" t="s">
         <v>92</v>
@@ -7103,79 +7160,85 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>316</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
         <v>6</v>
       </c>
       <c r="I156" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="G157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H157" t="s">
         <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B158" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>6</v>
@@ -7184,82 +7247,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H159" t="s">
         <v>6</v>
       </c>
       <c r="I159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
         <v>191</v>
       </c>
       <c r="C160" t="s">
-        <v>347</v>
-      </c>
-      <c r="D160">
-        <v>3</v>
-      </c>
-      <c r="E160">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
       </c>
       <c r="I160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>337</v>
+        <v>205</v>
       </c>
       <c r="B161" t="s">
         <v>191</v>
       </c>
       <c r="C161" t="s">
-        <v>316</v>
-      </c>
-      <c r="D161">
-        <v>4</v>
-      </c>
-      <c r="E161">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="G161" t="s">
         <v>93</v>
@@ -7268,27 +7313,27 @@
         <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C162" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="G162" t="s">
         <v>93</v>
@@ -7297,21 +7342,27 @@
         <v>6</v>
       </c>
       <c r="I162" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>316</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="G163" t="s">
         <v>93</v>
@@ -7319,25 +7370,28 @@
       <c r="H163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>519</v>
+        <v>334</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="C164" t="s">
         <v>316</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="G164" t="s">
         <v>93</v>
@@ -7349,24 +7403,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="B165" t="s">
         <v>191</v>
       </c>
       <c r="C165" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="G165" t="s">
         <v>93</v>
@@ -7375,21 +7429,27 @@
         <v>6</v>
       </c>
       <c r="I165" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>599</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="G166" t="s">
         <v>93</v>
@@ -7398,30 +7458,30 @@
         <v>6</v>
       </c>
       <c r="I166" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C167" t="s">
         <v>316</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="G167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H167" t="s">
         <v>6</v>
@@ -7430,87 +7490,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>486</v>
+        <v>340</v>
       </c>
       <c r="G168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H168" t="s">
         <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>372</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
         <v>208</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="G169" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H169" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>410</v>
+        <v>517</v>
       </c>
       <c r="B170" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D170">
         <v>3</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>411</v>
+        <v>518</v>
       </c>
       <c r="G170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H170" t="s">
         <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B171" t="s">
         <v>191</v>
@@ -7519,16 +7579,16 @@
         <v>316</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="G171" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H171" t="s">
         <v>6</v>
@@ -7537,27 +7597,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
-      </c>
-      <c r="D172">
-        <v>3</v>
-      </c>
-      <c r="E172">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>288</v>
+        <v>170</v>
       </c>
       <c r="G172" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H172" t="s">
         <v>6</v>
@@ -7566,18 +7620,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="B173" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="C173" t="s">
-        <v>183</v>
+        <v>316</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="G173" t="s">
         <v>94</v>
@@ -7586,208 +7646,199 @@
         <v>6</v>
       </c>
       <c r="I173" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>113</v>
-      </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="26"/>
-    </row>
-    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="B174" t="s">
+        <v>483</v>
+      </c>
+      <c r="C174" t="s">
+        <v>412</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G174" t="s">
+        <v>94</v>
+      </c>
+      <c r="H174" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C175" t="s">
-        <v>60</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="G175" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H175" t="s">
-        <v>117</v>
-      </c>
-      <c r="I175" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>61</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="B176" t="s">
+        <v>332</v>
       </c>
       <c r="C176" t="s">
+        <v>347</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G176" t="s">
+        <v>94</v>
+      </c>
+      <c r="H176" t="s">
+        <v>6</v>
+      </c>
+      <c r="I176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G177" t="s">
+        <v>94</v>
+      </c>
+      <c r="H177" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>289</v>
+      </c>
+      <c r="B178" t="s">
+        <v>287</v>
+      </c>
+      <c r="C178" t="s">
+        <v>241</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G178" t="s">
+        <v>94</v>
+      </c>
+      <c r="H178" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" t="s">
+        <v>183</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G179" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>113</v>
+      </c>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="26"/>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
         <v>60</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176" s="7" t="s">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G181" t="s">
         <v>92</v>
-      </c>
-      <c r="H176" t="s">
-        <v>117</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>376</v>
-      </c>
-      <c r="B177" t="s">
-        <v>377</v>
-      </c>
-      <c r="C177" t="s">
-        <v>150</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G177" t="s">
-        <v>92</v>
-      </c>
-      <c r="H177" t="s">
-        <v>117</v>
-      </c>
-      <c r="I177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>68</v>
-      </c>
-      <c r="B178" t="s">
-        <v>34</v>
-      </c>
-      <c r="C178" t="s">
-        <v>60</v>
-      </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178">
-        <v>2</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>92</v>
-      </c>
-      <c r="H178" t="s">
-        <v>117</v>
-      </c>
-      <c r="I178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>547</v>
-      </c>
-      <c r="B179" t="s">
-        <v>548</v>
-      </c>
-      <c r="C179" t="s">
-        <v>60</v>
-      </c>
-      <c r="D179">
-        <v>2</v>
-      </c>
-      <c r="E179">
-        <v>2</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G179" t="s">
-        <v>93</v>
-      </c>
-      <c r="H179" t="s">
-        <v>117</v>
-      </c>
-      <c r="I179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" t="s">
-        <v>37</v>
-      </c>
-      <c r="C180" t="s">
-        <v>60</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G180" t="s">
-        <v>93</v>
-      </c>
-      <c r="H180" t="s">
-        <v>117</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>575</v>
-      </c>
-      <c r="B181" t="s">
-        <v>37</v>
-      </c>
-      <c r="C181" t="s">
-        <v>579</v>
-      </c>
-      <c r="D181">
-        <v>2</v>
-      </c>
-      <c r="E181">
-        <v>2</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G181" t="s">
-        <v>94</v>
       </c>
       <c r="H181" t="s">
         <v>117</v>
@@ -7796,27 +7847,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>72</v>
-      </c>
-      <c r="B182" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
       </c>
       <c r="C182" t="s">
         <v>60</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H182" t="s">
         <v>117</v>
@@ -7825,85 +7876,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C183" t="s">
-        <v>316</v>
-      </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="G183" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H183" t="s">
         <v>117</v>
       </c>
       <c r="I183" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>581</v>
+        <v>68</v>
       </c>
       <c r="B184" t="s">
-        <v>582</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>583</v>
+        <v>60</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>584</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H184" t="s">
         <v>117</v>
       </c>
       <c r="I184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>577</v>
-      </c>
-      <c r="B185">
-        <v>3</v>
+        <v>603</v>
+      </c>
+      <c r="B185" t="s">
+        <v>604</v>
       </c>
       <c r="C185" t="s">
-        <v>578</v>
-      </c>
-      <c r="D185" t="s">
-        <v>562</v>
-      </c>
-      <c r="E185" t="s">
-        <v>562</v>
+        <v>241</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="G185" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H185" t="s">
         <v>117</v>
@@ -7912,50 +7957,56 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="B186" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="C186" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="G186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>117</v>
       </c>
       <c r="I186" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="C187" t="s">
         <v>60</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>366</v>
+        <v>71</v>
       </c>
       <c r="G187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H187" t="s">
         <v>117</v>
@@ -7964,182 +8015,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>114</v>
-      </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="27"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="B188" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" t="s">
+        <v>577</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G188" t="s">
+        <v>94</v>
+      </c>
+      <c r="H188" t="s">
+        <v>117</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>356</v>
-      </c>
-      <c r="B189">
+        <v>72</v>
+      </c>
+      <c r="B189" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H189" t="s">
+        <v>117</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>351</v>
+      </c>
+      <c r="B190" t="s">
+        <v>352</v>
+      </c>
+      <c r="C190" t="s">
+        <v>316</v>
+      </c>
+      <c r="D190">
         <v>2</v>
       </c>
-      <c r="C189" t="s">
-        <v>357</v>
-      </c>
-      <c r="D189">
+      <c r="E190">
         <v>2</v>
       </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
-      <c r="G189" t="s">
-        <v>92</v>
-      </c>
-      <c r="H189" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>491</v>
-      </c>
-      <c r="C190" t="s">
-        <v>152</v>
-      </c>
       <c r="F190" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-    </row>
-    <row r="191" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="G190" t="s">
+        <v>94</v>
+      </c>
+      <c r="H190" t="s">
+        <v>117</v>
+      </c>
+      <c r="I190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>253</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
+        <v>579</v>
+      </c>
+      <c r="B191" t="s">
+        <v>580</v>
       </c>
       <c r="C191" t="s">
-        <v>254</v>
+        <v>581</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>255</v>
+        <v>582</v>
       </c>
       <c r="G191" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H191" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>490</v>
+        <v>575</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>152</v>
+        <v>576</v>
+      </c>
+      <c r="D192" t="s">
+        <v>560</v>
+      </c>
+      <c r="E192" t="s">
+        <v>560</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="G192" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H192" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I192" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>301</v>
-      </c>
-      <c r="B193">
-        <v>3</v>
+        <v>495</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
       </c>
       <c r="C193" t="s">
         <v>208</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="G193" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H193" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>314</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="B194" t="s">
+        <v>363</v>
       </c>
       <c r="C194" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="G194" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H194" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>392</v>
-      </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>254</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G195" t="s">
-        <v>92</v>
-      </c>
-      <c r="H195" t="s">
-        <v>154</v>
-      </c>
-      <c r="I195" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="27"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>254</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>394</v>
+        <v>355</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
       </c>
       <c r="G196" t="s">
         <v>92</v>
@@ -8147,45 +8244,38 @@
       <c r="H196" t="s">
         <v>154</v>
       </c>
-      <c r="I196" t="s">
+    </row>
+    <row r="197" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>489</v>
+      </c>
+      <c r="C197" t="s">
+        <v>152</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>253</v>
+      </c>
+      <c r="B198">
         <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>395</v>
-      </c>
-      <c r="B197">
-        <v>3</v>
-      </c>
-      <c r="C197" t="s">
-        <v>254</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G197" t="s">
-        <v>92</v>
-      </c>
-      <c r="H197" t="s">
-        <v>154</v>
-      </c>
-      <c r="I197" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>458</v>
-      </c>
-      <c r="B198">
-        <v>2</v>
       </c>
       <c r="C198" t="s">
         <v>254</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="G198" t="s">
         <v>92</v>
@@ -8193,22 +8283,16 @@
       <c r="H198" t="s">
         <v>154</v>
       </c>
-      <c r="I198" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>398</v>
-      </c>
-      <c r="B199">
-        <v>2</v>
+        <v>488</v>
       </c>
       <c r="C199" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="G199" t="s">
         <v>92</v>
@@ -8217,53 +8301,50 @@
         <v>154</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>565</v>
+        <v>301</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>566</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>567</v>
+        <v>369</v>
       </c>
       <c r="G200" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H200" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>431</v>
+        <v>314</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
         <v>347</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G201" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H201" t="s">
         <v>154</v>
@@ -8272,109 +8353,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="G202" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H202" t="s">
         <v>154</v>
       </c>
       <c r="I202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="B203">
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="G203" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H203" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="G204" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s">
         <v>154</v>
       </c>
       <c r="I204" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>496</v>
+        <v>456</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="G205" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H205" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>492</v>
+        <v>396</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>493</v>
+        <v>397</v>
       </c>
       <c r="G206" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H206" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="207" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>563</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>564</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G207" t="s">
+        <v>93</v>
+      </c>
+      <c r="H207" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>429</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>347</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G208" t="s">
+        <v>93</v>
+      </c>
+      <c r="H208" t="s">
+        <v>154</v>
+      </c>
+      <c r="I208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>512</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>237</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G209" t="s">
+        <v>94</v>
+      </c>
+      <c r="H209" t="s">
+        <v>154</v>
+      </c>
+      <c r="I209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>485</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>237</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G210" t="s">
+        <v>94</v>
+      </c>
+      <c r="H210" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>492</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>237</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G211" t="s">
+        <v>94</v>
+      </c>
+      <c r="H211" t="s">
+        <v>154</v>
+      </c>
+      <c r="I211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>494</v>
+      </c>
+      <c r="C212" t="s">
+        <v>152</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G212" t="s">
+        <v>94</v>
+      </c>
+      <c r="H212" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>490</v>
+      </c>
+      <c r="C213" t="s">
+        <v>152</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G213" t="s">
+        <v>94</v>
+      </c>
+      <c r="H213" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G37">
-    <sortCondition ref="G5:G37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G39">
+    <sortCondition ref="G5:G39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/btd mtg.xlsx
+++ b/btd mtg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/Documents/wargame-tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nicholas\Documents\wargame\wargame-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4C604-6D02-C748-9879-EF63078D22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB78F09-2A12-4E26-96A5-93E18F1D0640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24000" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FBAB4E1-BC52-3645-BE0D-36FD61AE4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="686">
   <si>
     <t>Hive Courts</t>
   </si>
@@ -918,9 +918,6 @@
     <t>Evaporate 1U</t>
   </si>
   <si>
-    <t>If an opponent has more lands, fetch a Plains. More creatures, make a 1/1. More life, gain 2 life; Retrace</t>
-  </si>
-  <si>
     <t>Destroy target artifact or enchantment; Retrace</t>
   </si>
   <si>
@@ -1086,9 +1083,6 @@
     <t>Creature - Human</t>
   </si>
   <si>
-    <t>Subterranean Warlord</t>
-  </si>
-  <si>
     <t>1BB</t>
   </si>
   <si>
@@ -1581,9 +1575,6 @@
     <t>Broken Clock</t>
   </si>
   <si>
-    <t>Players skip their upkeeps</t>
-  </si>
-  <si>
     <t>Nascent Treant</t>
   </si>
   <si>
@@ -1618,9 +1609,6 @@
   </si>
   <si>
     <t>Propagation; Rooted; When ~ attacks, it deals 1 damage to target player</t>
-  </si>
-  <si>
-    <t>Propagation; Rooted; When ~ attacks, it deals 1 damage to target creature or player</t>
   </si>
   <si>
     <t>Repeated Failure</t>
@@ -1799,12 +1787,6 @@
     <t>Legendary Creature - Worm</t>
   </si>
   <si>
-    <t>Armor 1; Burrow; Suspend 2R; Worm cards  you own have Suspend : 0</t>
-  </si>
-  <si>
-    <t>The Master Root Hub</t>
-  </si>
-  <si>
     <t>GGG</t>
   </si>
   <si>
@@ -1859,19 +1841,265 @@
     <t>X</t>
   </si>
   <si>
-    <t>~ is each color of mana that was spent to cast it; Other Elementals you control get +1/+1 for each color they share with ~</t>
-  </si>
-  <si>
     <t>Herald of Fate</t>
   </si>
   <si>
-    <t>Other Wizards you control get +1/+1</t>
-  </si>
-  <si>
     <t>Herald of Flesh</t>
   </si>
   <si>
     <t>Humans you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Cruel Accountant</t>
+  </si>
+  <si>
+    <t>Armor 1; Burrow; Suspend 2R; Pay 1 life: Remove a Time counter from a suspended spell you control</t>
+  </si>
+  <si>
+    <t>Chain Devolution</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an additional cost, you may sacrifice any number of creatures. If you do, create a copy for each sacrificed creature. These copies may select different targets; Target creature gets -X/-X until EOT. </t>
+  </si>
+  <si>
+    <t>Time to Think</t>
+  </si>
+  <si>
+    <t>Put a stun counter on X creatures you control.  Scry X, then draw a card</t>
+  </si>
+  <si>
+    <t>Other Wizards and Avatars you control get +1/+1</t>
+  </si>
+  <si>
+    <t>Wither; Noncombat damage sources have Wither; Sacrifice ~: Deal 1 damage to any target</t>
+  </si>
+  <si>
+    <t>Cunning Cruelty</t>
+  </si>
+  <si>
+    <t>If an opponent has more lands, fetch a Plains. More creatures, make a 1/1 Insect Soldier. More life, gain 2 life; Retrace</t>
+  </si>
+  <si>
+    <t>Wise Logistician</t>
+  </si>
+  <si>
+    <t>Flying; Counters cannot be placed on players or permanents</t>
+  </si>
+  <si>
+    <t>Surprise Attack</t>
+  </si>
+  <si>
+    <t>Deal X+2 damage to target attacking or blocking creature, where X is the number of creatures you control.  This costs Y less, where Y is the greatest power among creatures you control</t>
+  </si>
+  <si>
+    <t>Formic Squire</t>
+  </si>
+  <si>
+    <t>Create X 1/1 Insect Soldier tokens with Flying, where X is the number of attacking creatures</t>
+  </si>
+  <si>
+    <t>Formic Strike</t>
+  </si>
+  <si>
+    <t>Chloroplastic Clone</t>
+  </si>
+  <si>
+    <t>~ ETBs as a copy of any token you control. It is a Green Plant</t>
+  </si>
+  <si>
+    <t>Oaken Brawler</t>
+  </si>
+  <si>
+    <t>Reach; Defender; Rooted</t>
+  </si>
+  <si>
+    <t>Surge of Growth</t>
+  </si>
+  <si>
+    <t>Create a tapped copy of each creature token you control</t>
+  </si>
+  <si>
+    <t>Suicidal Charge</t>
+  </si>
+  <si>
+    <t>Creatures you control get +2/+0 until EOT</t>
+  </si>
+  <si>
+    <t>Sacrifice a creature: Deal X damage to any target, where X is its power. Activate only as a sorcery</t>
+  </si>
+  <si>
+    <t>Explosive Evolution</t>
+  </si>
+  <si>
+    <t>Aether Vine</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ ETBs, destroy target Artifact or Enchantment</t>
+  </si>
+  <si>
+    <t>Reverse Time</t>
+  </si>
+  <si>
+    <t>Counter target spell; Evaporate</t>
+  </si>
+  <si>
+    <t>Armament Gatherer</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, Scry X where X is the amount of equipment attached to creatures you control plus the amount of auras enchanting creatures you control</t>
+  </si>
+  <si>
+    <t>Poison Creeper</t>
+  </si>
+  <si>
+    <t>Deathtouch; Propagation</t>
+  </si>
+  <si>
+    <t>Corpse Collector</t>
+  </si>
+  <si>
+    <t>Burrow; When another creature dies, gain 1 life</t>
+  </si>
+  <si>
+    <t>Corruption Creeper</t>
+  </si>
+  <si>
+    <t>Knowledge Seeker</t>
+  </si>
+  <si>
+    <t>~ gets +1/+1 for each spell, permanent, or card with a time counter on it</t>
+  </si>
+  <si>
+    <t>Corpsedrinker Roots</t>
+  </si>
+  <si>
+    <t>Propagation; When a creature token dies, put a +1/+1 counter on ~</t>
+  </si>
+  <si>
+    <t>Burrow; Sacrifice ~: Deal 1 damage to any target</t>
+  </si>
+  <si>
+    <t>Violence Sprite</t>
+  </si>
+  <si>
+    <t>Charging Chronomancer</t>
+  </si>
+  <si>
+    <t>Creature - Knight Avatar</t>
+  </si>
+  <si>
+    <t>Haste; Whenever a time counter is added or removed, ~ gets +1/+1 until EOT</t>
+  </si>
+  <si>
+    <t>Recursive Logic</t>
+  </si>
+  <si>
+    <t>Draw a card. Exile ~ with 3 Time counters and it gains suspend</t>
+  </si>
+  <si>
+    <t>At the start of each player's turn, you may choose to have them skip all of their Upkeep steps</t>
+  </si>
+  <si>
+    <t>Greedy Chloroplast</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; When ~ attacks, put a +1/+1 counter on target Plant you control</t>
+  </si>
+  <si>
+    <t>Recurring Flames</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to any target; Remove this from the game with 3 time counters. It gains suspend</t>
+  </si>
+  <si>
+    <t>Periodic Fervor</t>
+  </si>
+  <si>
+    <t>Creatures you control get +1/+0 until EOT. Remove ~ from the game with 3 Time counters on it. It gains suspend</t>
+  </si>
+  <si>
+    <t>Curious Carving</t>
+  </si>
+  <si>
+    <t>Sacrifice ~: Shuffle all cards removed from the game into their owner's libraries</t>
+  </si>
+  <si>
+    <t>Exiled Freeblade</t>
+  </si>
+  <si>
+    <t>2BB</t>
+  </si>
+  <si>
+    <t>Armor 2; Whenever a creature card dies, you pay pay 1 life. If you do, draw a card</t>
+  </si>
+  <si>
+    <t>War Profiteering</t>
+  </si>
+  <si>
+    <t>When a creature dies, creature a treasure token and put a counter on ~; Sacrifice ~: Exile the top X cards of your library, where X is the number of counters on ~. Until the end of your next turn, you may play those cards.  Shuffle any unplayed cards into your library</t>
+  </si>
+  <si>
+    <t>Master Root Hub</t>
+  </si>
+  <si>
+    <t>Blood, Sweat, and Tears</t>
+  </si>
+  <si>
+    <t>Pay 4 life: Proliferate</t>
+  </si>
+  <si>
+    <t>Romulus</t>
+  </si>
+  <si>
+    <t>Legendary Creature - Human</t>
+  </si>
+  <si>
+    <t>0: ~'s base P/T become 1/1 and it loses any other abilities gained through this ability. Then you may change its base P/T to 3/3, or you may give it flying, vigilance, lifelink, first strike, or deathtouch. Activate this ability only if you control a Human Cleric. This costs 1 more for each prior time it was used this phase</t>
+  </si>
+  <si>
+    <t>Highbough Strategist</t>
+  </si>
+  <si>
+    <t>Reach; Rooted; Sacrifice a Plant token: Regenerate target Plant</t>
+  </si>
+  <si>
+    <t>Propagation; Rooted; Reach; When ~ attacks, it deals 1 damage to target creature or player</t>
+  </si>
+  <si>
+    <t>Vitality Sprite</t>
+  </si>
+  <si>
+    <t>Striving Sprite</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Cowardice Sprite</t>
+  </si>
+  <si>
+    <t>Flying; 0: Untap ~ and remove it from combat</t>
+  </si>
+  <si>
+    <t>Lifelink; Flying</t>
+  </si>
+  <si>
+    <t>Sacrificial Sprite</t>
+  </si>
+  <si>
+    <t>Sacrifice ~: Target player sacrifices a creature</t>
+  </si>
+  <si>
+    <t>Vitriolic Sprite</t>
+  </si>
+  <si>
+    <t>Sacrifice ~: Deal 2 damage to target creature</t>
+  </si>
+  <si>
+    <t>~ is each color of mana that was spent to cast it; Other Elementals you control get +1/+1 for each color they share with ~. ~ ETBs with half X +1/+1 counters on it, rounded down</t>
   </si>
 </sst>
 </file>
@@ -2444,19 +2672,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2715,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2723,7 @@
       <c r="D3" s="6"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2731,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2739,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2747,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
@@ -2565,7 +2793,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>17</v>
       </c>
@@ -2587,44 +2815,44 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>328</v>
       </c>
-      <c r="B14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>329</v>
       </c>
-      <c r="B15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>398</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2636,22 +2864,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F73AE2-C6DE-4BB1-909A-4EAC744B5ECB}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="14.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2674,38 +2902,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2731,7 +2959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2742,68 +2970,68 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +3051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -2835,7 +3063,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2855,7 +3083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2875,7 +3103,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -2895,7 +3123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -2918,7 +3146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -2941,7 +3169,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -2964,7 +3192,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2987,7 +3215,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -3017,25 +3245,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA90A0-4951-4ECF-AE6C-D6938F4AC6B5}">
-  <dimension ref="A1:X213"/>
+  <dimension ref="A1:X248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="A131:XFD131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3065,42 +3293,42 @@
       </c>
       <c r="J1">
         <f>SUM(L1,N1,P1,R1,T1,V1,X1)</f>
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="15">
         <f>COUNTIF($H:$H,"White")</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>119</v>
       </c>
       <c r="N1" s="15">
         <f>COUNTIF($H:$H,"Black")</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>120</v>
       </c>
       <c r="P1" s="15">
         <f>COUNTIF($H:$H,"Blue")</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="R1" s="15">
         <f>COUNTIF($H:$H,"Red")</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="T1" s="15">
         <f>COUNTIF($H:$H,"Green")</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>123</v>
@@ -3114,10 +3342,10 @@
       </c>
       <c r="X1" s="16">
         <f>COUNTIF($H:$H,"Colorless")</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3130,45 +3358,45 @@
       </c>
       <c r="N2">
         <f>COUNTIF($I:$I,M2)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="P2">
         <f>COUNTIF($I:$I,O2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
       </c>
       <c r="R2">
         <f>COUNTIF($I:$I,Q2)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2">
         <f>COUNTIF($I:$I,S2)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2">
         <f>COUNTIF($I:$I,U2)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="18">
         <f>COUNTIF($I:$I,W2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -3182,21 +3410,21 @@
       </c>
       <c r="L3" s="20">
         <f>COUNTIF($G:$G,K3)</f>
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="20">
         <f>COUNTIF($G:$G,M3)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P3" s="20">
         <f>COUNTIF($G:$G,O3)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -3207,7 +3435,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>243</v>
       </c>
@@ -3240,35 +3468,35 @@
       </c>
       <c r="L4" s="20">
         <f>COUNTIF($C:$C,"*Creature*")</f>
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N4" s="20">
         <f>COUNTIF($C:$C,"*Instant*")</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>208</v>
       </c>
       <c r="P4" s="20">
         <f>COUNTIF($C:$C,"*Sorcery*")</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>183</v>
       </c>
       <c r="R4" s="20">
         <f>COUNTIF($C:$C,"*Enchantment*")</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>237</v>
       </c>
       <c r="T4" s="20">
         <f>COUNTIF($C:$C,"*Artifact*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>152</v>
@@ -3280,7 +3508,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -3309,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3338,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3367,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3396,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3425,9 +3653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -3442,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -3454,21 +3682,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>675</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>680</v>
       </c>
       <c r="G11" t="s">
         <v>92</v>
@@ -3477,15 +3708,15 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -3496,9 +3727,6 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="G12" t="s">
         <v>92</v>
       </c>
@@ -3509,9 +3737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
         <v>129</v>
@@ -3526,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
         <v>92</v>
@@ -3538,18 +3766,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
@@ -3558,24 +3792,21 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="G15" t="s">
         <v>92</v>
@@ -3584,21 +3815,24 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>92</v>
@@ -3607,53 +3841,53 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -3662,82 +3896,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="G21" t="s">
         <v>93</v>
@@ -3746,27 +3962,27 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>589</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>590</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -3778,24 +3994,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>588</v>
       </c>
       <c r="G23" t="s">
         <v>93</v>
@@ -3807,24 +4023,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -3833,27 +4049,27 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -3862,15 +4078,15 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>131</v>
@@ -3882,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -3894,24 +4110,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -3920,21 +4136,27 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>410</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -3943,27 +4165,27 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>379</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
         <v>93</v>
@@ -3975,18 +4197,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>131</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>452</v>
       </c>
       <c r="G30" t="s">
         <v>93</v>
@@ -3994,74 +4222,83 @@
       <c r="H30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>453</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -4070,47 +4307,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>453</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
       </c>
-      <c r="I34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -4119,27 +4347,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>571</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="G36" t="s">
         <v>94</v>
@@ -4151,24 +4379,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>612</v>
       </c>
       <c r="G37" t="s">
         <v>94</v>
@@ -4180,15 +4402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -4197,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
         <v>94</v>
@@ -4206,27 +4428,21 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>450</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>63</v>
+        <v>451</v>
       </c>
       <c r="G39" t="s">
         <v>94</v>
@@ -4235,182 +4451,182 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>566</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" t="s">
         <v>241</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>508</v>
-      </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" t="s">
-        <v>462</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>465</v>
-      </c>
-      <c r="B43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>462</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>522</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
+        <v>241</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>523</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
         <v>92</v>
@@ -4419,21 +4635,27 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="B47" t="s">
         <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>460</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="G47" t="s">
         <v>92</v>
@@ -4441,25 +4663,28 @@
       <c r="H47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>463</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
+        <v>460</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="G48" t="s">
         <v>92</v>
@@ -4471,24 +4696,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>92</v>
@@ -4497,21 +4722,27 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>538</v>
+        <v>676</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>539</v>
+        <v>677</v>
       </c>
       <c r="G50" t="s">
         <v>92</v>
@@ -4520,27 +4751,27 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>524</v>
+        <v>620</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="G51" t="s">
         <v>92</v>
@@ -4552,18 +4783,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>622</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>512</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>166</v>
+        <v>623</v>
       </c>
       <c r="G52" t="s">
         <v>92</v>
@@ -4572,27 +4809,27 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>519</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>515</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>520</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
         <v>92</v>
@@ -4601,30 +4838,30 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
@@ -4633,79 +4870,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
-      <c r="I55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s">
         <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>160</v>
+        <v>462</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>460</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -4714,21 +4948,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="B58" t="s">
-        <v>506</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>208</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -4737,15 +4971,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -4754,10 +4988,10 @@
         <v>2</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>544</v>
+        <v>674</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -4766,56 +5000,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>630</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>157</v>
+        <v>631</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
@@ -4824,27 +5052,27 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>518</v>
       </c>
       <c r="C62" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
@@ -4853,18 +5081,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>591</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>460</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>293</v>
+        <v>592</v>
       </c>
       <c r="G63" t="s">
         <v>93</v>
@@ -4873,21 +5107,27 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>537</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>540</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
         <v>93</v>
@@ -4896,21 +5136,27 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="G65" t="s">
         <v>93</v>
@@ -4919,12 +5165,12 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>465</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -4933,7 +5179,7 @@
         <v>183</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>179</v>
+        <v>508</v>
       </c>
       <c r="G66" t="s">
         <v>93</v>
@@ -4942,27 +5188,21 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>504</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="G67" t="s">
         <v>93</v>
@@ -4971,198 +5211,186 @@
         <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>539</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>97</v>
+        <v>540</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>504</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s">
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>453</v>
+        <v>256</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>512</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>161</v>
+        <v>513</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s">
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>260</v>
+        <v>533</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>259</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>586</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>587</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>588</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>589</v>
+        <v>305</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -5171,299 +5399,358 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G77" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>509</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>624</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G84" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>666</v>
+      </c>
+      <c r="B85" t="s">
+        <v>581</v>
+      </c>
+      <c r="C85" t="s">
+        <v>582</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G85" t="s">
+        <v>94</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>672</v>
+      </c>
+      <c r="B86" t="s">
+        <v>504</v>
+      </c>
+      <c r="C86" t="s">
+        <v>512</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="23"/>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>199</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B89" t="s">
         <v>93</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C89" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>296</v>
-      </c>
-      <c r="B79" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" t="s">
-        <v>150</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>561</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G80" t="s">
-        <v>92</v>
-      </c>
-      <c r="H80" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" t="s">
-        <v>383</v>
-      </c>
-      <c r="C81" t="s">
-        <v>150</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G81" t="s">
-        <v>92</v>
-      </c>
-      <c r="H81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>402</v>
-      </c>
-      <c r="B82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" t="s">
-        <v>347</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>441</v>
-      </c>
-      <c r="B83" t="s">
-        <v>442</v>
-      </c>
-      <c r="C83" t="s">
-        <v>435</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G83" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>527</v>
-      </c>
-      <c r="B84" t="s">
-        <v>269</v>
-      </c>
-      <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
-      </c>
-      <c r="H84" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>425</v>
-      </c>
-      <c r="B85" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G85" t="s">
-        <v>92</v>
-      </c>
-      <c r="H85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>433</v>
-      </c>
-      <c r="B86" t="s">
-        <v>295</v>
-      </c>
-      <c r="C86" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G86" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>536</v>
-      </c>
-      <c r="B87" t="s">
-        <v>450</v>
-      </c>
-      <c r="C87" t="s">
-        <v>347</v>
-      </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87">
-        <v>6</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G87" t="s">
-        <v>92</v>
-      </c>
-      <c r="H87" t="s">
-        <v>8</v>
-      </c>
-      <c r="I87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>501</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H88" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>385</v>
-      </c>
-      <c r="B89" t="s">
-        <v>386</v>
-      </c>
-      <c r="C89" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="G89" t="s">
         <v>92</v>
@@ -5471,19 +5758,22 @@
       <c r="H89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
         <v>150</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G90" t="s">
         <v>92</v>
@@ -5492,27 +5782,21 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>265</v>
+        <v>558</v>
       </c>
       <c r="G91" t="s">
         <v>92</v>
@@ -5521,21 +5805,21 @@
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>503</v>
+        <v>382</v>
       </c>
       <c r="G92" t="s">
         <v>92</v>
@@ -5543,28 +5827,25 @@
       <c r="H92" t="s">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G93" t="s">
         <v>92</v>
@@ -5573,30 +5854,24 @@
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>447</v>
+        <v>650</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>448</v>
+        <v>651</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
         <v>8</v>
@@ -5605,209 +5880,209 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>498</v>
+        <v>678</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>499</v>
+        <v>679</v>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>431</v>
+        <v>634</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>432</v>
+        <v>635</v>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="C97" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s">
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>267</v>
+        <v>524</v>
       </c>
       <c r="G98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>606</v>
+        <v>423</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>607</v>
+        <v>424</v>
       </c>
       <c r="G99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
       </c>
-      <c r="I99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>346</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s">
         <v>8</v>
@@ -5816,27 +6091,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>435</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
@@ -5845,73 +6114,64 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>384</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
       </c>
-      <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
         <v>150</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>451</v>
+        <v>307</v>
       </c>
       <c r="G105" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>607</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>459</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>460</v>
+        <v>608</v>
       </c>
       <c r="G106" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s">
         <v>8</v>
@@ -5920,15 +6180,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="B107" t="s">
         <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5937,39 +6197,33 @@
         <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="G107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>559</v>
-      </c>
-      <c r="D108" t="s">
-        <v>560</v>
-      </c>
-      <c r="E108" t="s">
-        <v>560</v>
+        <v>208</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
@@ -5978,21 +6232,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>440</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="B109" t="s">
+        <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>433</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="G109" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
@@ -6001,27 +6261,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>590</v>
+        <v>445</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>591</v>
+        <v>433</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>554</v>
+        <v>446</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -6030,77 +6290,96 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="G111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>429</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>346</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>173</v>
+        <v>430</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H112" t="s">
         <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="24"/>
-    </row>
-    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
+        <v>346</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G113" t="s">
+        <v>93</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -6109,27 +6388,27 @@
         <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="G114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -6138,165 +6417,174 @@
         <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>419</v>
+        <v>609</v>
       </c>
       <c r="G115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>529</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>530</v>
       </c>
       <c r="G116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C118" t="s">
         <v>208</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="G118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B119" t="s">
-        <v>424</v>
+        <v>294</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G119" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>200</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C120" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G120" t="s">
+        <v>93</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>447</v>
+      </c>
+      <c r="B121" t="s">
+        <v>448</v>
+      </c>
+      <c r="C121" t="s">
         <v>150</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>474</v>
-      </c>
-      <c r="B121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" t="s">
-        <v>208</v>
-      </c>
       <c r="F121" s="7" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>641</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>555</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6305,50 +6593,56 @@
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>273</v>
+        <v>642</v>
       </c>
       <c r="G122" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>457</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="G123" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6357,334 +6651,315 @@
         <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="G124" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>554</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
+        <v>555</v>
+      </c>
+      <c r="D125" t="s">
+        <v>556</v>
+      </c>
+      <c r="E125" t="s">
+        <v>556</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G125" t="s">
+        <v>94</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>438</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G126" t="s">
+        <v>94</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>584</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>585</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G127" t="s">
+        <v>94</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>378</v>
+      </c>
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" t="s">
+        <v>94</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" t="s">
         <v>183</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G125" t="s">
-        <v>92</v>
-      </c>
-      <c r="H125" t="s">
-        <v>9</v>
-      </c>
-      <c r="I125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>357</v>
-      </c>
-      <c r="B126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" t="s">
-        <v>150</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s">
-        <v>9</v>
-      </c>
-      <c r="J126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" t="s">
-        <v>349</v>
-      </c>
-      <c r="C127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G127" t="s">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s">
-        <v>9</v>
-      </c>
-      <c r="J127" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>47</v>
-      </c>
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G128" t="s">
-        <v>92</v>
-      </c>
-      <c r="H128" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>274</v>
-      </c>
-      <c r="B129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>2</v>
-      </c>
       <c r="F129" s="7" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>404</v>
-      </c>
-      <c r="B130" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" t="s">
-        <v>347</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G130" t="s">
-        <v>93</v>
-      </c>
-      <c r="H130" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="24"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>608</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>609</v>
+        <v>84</v>
       </c>
       <c r="G131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="G132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
       </c>
       <c r="I132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>421</v>
+        <v>525</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>347</v>
-      </c>
-      <c r="D133">
-        <v>3</v>
-      </c>
-      <c r="E133">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>422</v>
+        <v>526</v>
       </c>
       <c r="G133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
       </c>
-      <c r="I133" t="s">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>640</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134">
         <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>410</v>
-      </c>
-      <c r="B134" t="s">
-        <v>48</v>
-      </c>
-      <c r="C134" t="s">
-        <v>412</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="G134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
       </c>
       <c r="I134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>411</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>188</v>
-      </c>
-      <c r="B135" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" t="s">
-        <v>183</v>
+      <c r="E135">
+        <v>2</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="G136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6693,15 +6968,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>436</v>
+        <v>681</v>
       </c>
       <c r="B137" t="s">
         <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6710,143 +6985,128 @@
         <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>481</v>
+        <v>682</v>
       </c>
       <c r="G137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
       </c>
       <c r="I137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>347</v>
-      </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="G138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
       </c>
-      <c r="I138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>85</v>
+        <v>421</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="C139" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>86</v>
+        <v>444</v>
       </c>
       <c r="G139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
       </c>
       <c r="I139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>474</v>
       </c>
       <c r="B140" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
         <v>150</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="G140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
       </c>
-      <c r="I140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="B141" t="s">
         <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>316</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="G141" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
       </c>
-      <c r="I141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>241</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6855,108 +7115,102 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>477</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>478</v>
+        <v>298</v>
       </c>
       <c r="G143" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
       </c>
       <c r="I143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" t="s">
+        <v>346</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G144" t="s">
+        <v>92</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>583</v>
-      </c>
-      <c r="B144" t="s">
-        <v>332</v>
-      </c>
-      <c r="C144" t="s">
-        <v>584</v>
-      </c>
-      <c r="D144">
-        <v>3</v>
-      </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G144" t="s">
-        <v>94</v>
-      </c>
-      <c r="H144" t="s">
-        <v>6</v>
-      </c>
-      <c r="I144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>361</v>
+        <v>636</v>
       </c>
       <c r="B145" t="s">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>365</v>
+        <v>637</v>
       </c>
       <c r="G145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
       </c>
       <c r="I145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
-      </c>
-      <c r="D146">
-        <v>3</v>
-      </c>
-      <c r="E146">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="G146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6965,48 +7219,81 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>604</v>
+      </c>
+      <c r="B147" t="s">
+        <v>605</v>
+      </c>
+      <c r="C147" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G147" t="s">
+        <v>92</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="25"/>
-    </row>
-    <row r="149" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" t="s">
+        <v>150</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G148" t="s">
+        <v>92</v>
+      </c>
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+      <c r="J148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G149" t="s">
         <v>92</v>
       </c>
       <c r="H149" t="s">
-        <v>6</v>
-      </c>
-      <c r="I149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J149" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C150" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -7015,632 +7302,622 @@
         <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
         <v>92</v>
       </c>
       <c r="H150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>541</v>
+        <v>274</v>
       </c>
       <c r="B151" t="s">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>241</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>542</v>
+        <v>275</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>346</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
       <c r="G152" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I152" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>600</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C153" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>326</v>
+        <v>601</v>
       </c>
       <c r="G153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>406</v>
+        <v>66</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>407</v>
+        <v>67</v>
       </c>
       <c r="G154" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H154" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>419</v>
+      </c>
+      <c r="B155" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" t="s">
+        <v>346</v>
+      </c>
+      <c r="D155">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>282</v>
-      </c>
-      <c r="B155" t="s">
-        <v>94</v>
-      </c>
-      <c r="C155" t="s">
-        <v>241</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
       <c r="E155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="G155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" t="s">
+        <v>410</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G156" t="s">
+        <v>93</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+      <c r="I156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+      <c r="I157" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>335</v>
-      </c>
-      <c r="B156" t="s">
-        <v>285</v>
-      </c>
-      <c r="C156" t="s">
-        <v>316</v>
-      </c>
-      <c r="D156">
-        <v>4</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G156" t="s">
-        <v>92</v>
-      </c>
-      <c r="H156" t="s">
-        <v>6</v>
-      </c>
-      <c r="I156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>319</v>
-      </c>
-      <c r="B157" t="s">
-        <v>191</v>
-      </c>
-      <c r="C157" t="s">
-        <v>316</v>
-      </c>
-      <c r="D157">
-        <v>4</v>
-      </c>
-      <c r="E157">
-        <v>2</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G157" t="s">
-        <v>92</v>
-      </c>
-      <c r="H157" t="s">
-        <v>6</v>
-      </c>
-      <c r="I157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>595</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C158" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>322</v>
+        <v>596</v>
       </c>
       <c r="G158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>346</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>167</v>
+        <v>479</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I159" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>477</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s">
-        <v>150</v>
+        <v>346</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>298</v>
+        <v>478</v>
       </c>
       <c r="G160" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I160" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="G161" t="s">
         <v>93</v>
       </c>
       <c r="H161" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I161" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>241</v>
-      </c>
-      <c r="D162">
+        <v>150</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G162" t="s">
+        <v>94</v>
+      </c>
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+      <c r="I162" t="s">
         <v>3</v>
       </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G162" t="s">
-        <v>93</v>
-      </c>
-      <c r="H162" t="s">
-        <v>6</v>
-      </c>
-      <c r="I162" t="s">
+    </row>
+    <row r="163" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" t="s">
+        <v>49</v>
+      </c>
+      <c r="C163" t="s">
+        <v>183</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G163" t="s">
+        <v>94</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+      <c r="I163" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>315</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="164" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>661</v>
+      </c>
+      <c r="B164" t="s">
+        <v>662</v>
+      </c>
+      <c r="C164" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="G164" t="s">
         <v>94</v>
       </c>
-      <c r="C163" t="s">
-        <v>316</v>
-      </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G163" t="s">
-        <v>93</v>
-      </c>
-      <c r="H163" t="s">
-        <v>6</v>
-      </c>
-      <c r="I163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>334</v>
-      </c>
-      <c r="B164" t="s">
-        <v>191</v>
-      </c>
-      <c r="C164" t="s">
-        <v>316</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G164" t="s">
-        <v>93</v>
-      </c>
       <c r="H164" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
-      </c>
-      <c r="D165">
-        <v>3</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="G165" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H165" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I165" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" t="s">
+        <v>315</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G166" t="s">
         <v>94</v>
       </c>
-      <c r="C166" t="s">
-        <v>316</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G166" t="s">
-        <v>93</v>
-      </c>
       <c r="H166" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>337</v>
+        <v>643</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>339</v>
+        <v>644</v>
       </c>
       <c r="G167" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H167" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I167" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C168" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168">
         <v>2</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="G168" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H168" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
       <c r="G169" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I169" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>517</v>
+        <v>669</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C170" t="s">
-        <v>316</v>
+        <v>670</v>
       </c>
       <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G170" t="s">
+        <v>94</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" t="s">
         <v>3</v>
       </c>
-      <c r="E170">
-        <v>2</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G170" t="s">
-        <v>93</v>
-      </c>
-      <c r="H170" t="s">
-        <v>6</v>
-      </c>
-      <c r="I170" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>345</v>
+        <v>667</v>
       </c>
       <c r="B171" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>316</v>
-      </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>346</v>
+        <v>668</v>
       </c>
       <c r="G171" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H171" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I171" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>193</v>
-      </c>
-      <c r="B172" t="s">
-        <v>191</v>
-      </c>
-      <c r="C172" t="s">
-        <v>183</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G172" t="s">
-        <v>93</v>
-      </c>
-      <c r="H172" t="s">
-        <v>6</v>
-      </c>
-      <c r="I172" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="25"/>
+    </row>
+    <row r="173" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B173" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="C173" t="s">
-        <v>316</v>
-      </c>
-      <c r="D173">
-        <v>2</v>
-      </c>
-      <c r="E173">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="G173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s">
         <v>6</v>
@@ -7649,15 +7926,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>482</v>
+        <v>323</v>
       </c>
       <c r="B174" t="s">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7666,117 +7943,108 @@
         <v>1</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H174" t="s">
         <v>6</v>
       </c>
       <c r="I174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>537</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="C175" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>209</v>
+        <v>538</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H175" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>657</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
-        <v>347</v>
-      </c>
-      <c r="D176">
-        <v>3</v>
-      </c>
-      <c r="E176">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>409</v>
+        <v>658</v>
       </c>
       <c r="G176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H176" t="s">
         <v>6</v>
       </c>
       <c r="I176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>683</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>368</v>
+        <v>684</v>
       </c>
       <c r="G177" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H177" t="s">
         <v>6</v>
       </c>
       <c r="I177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
-      </c>
-      <c r="D178">
-        <v>3</v>
-      </c>
-      <c r="E178">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="G178" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H178" t="s">
         <v>6</v>
@@ -7785,721 +8053,793 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="C179" t="s">
-        <v>183</v>
+        <v>315</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="G179" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H179" t="s">
         <v>6</v>
       </c>
       <c r="I179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>404</v>
+      </c>
+      <c r="B180" t="s">
+        <v>285</v>
+      </c>
+      <c r="C180" t="s">
+        <v>346</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G180" t="s">
+        <v>92</v>
+      </c>
+      <c r="H180" t="s">
+        <v>6</v>
+      </c>
+      <c r="I180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G181" t="s">
+        <v>92</v>
+      </c>
+      <c r="H181" t="s">
+        <v>6</v>
+      </c>
+      <c r="I181" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>113</v>
-      </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="26"/>
-    </row>
-    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>59</v>
-      </c>
-      <c r="B181" t="s">
-        <v>28</v>
-      </c>
-      <c r="C181" t="s">
-        <v>60</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" t="s">
-        <v>92</v>
-      </c>
-      <c r="H181" t="s">
-        <v>117</v>
-      </c>
-      <c r="I181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>61</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="B182" t="s">
+        <v>285</v>
       </c>
       <c r="C182" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="G182" t="s">
         <v>92</v>
       </c>
       <c r="H182" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B183" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="C183" t="s">
-        <v>150</v>
+        <v>315</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="G183" t="s">
         <v>92</v>
       </c>
       <c r="H183" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I183" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="G184" t="s">
         <v>92</v>
       </c>
       <c r="H184" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>603</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>605</v>
+        <v>167</v>
       </c>
       <c r="G185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H185" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I185" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>545</v>
+        <v>316</v>
       </c>
       <c r="B186" t="s">
-        <v>546</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>60</v>
-      </c>
-      <c r="D186">
+        <v>150</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G186" t="s">
+        <v>92</v>
+      </c>
+      <c r="H186" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>646</v>
+      </c>
+      <c r="B187" t="s">
+        <v>94</v>
+      </c>
+      <c r="C187" t="s">
+        <v>241</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G187" t="s">
+        <v>92</v>
+      </c>
+      <c r="H187" t="s">
+        <v>6</v>
+      </c>
+      <c r="I187" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>629</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188" t="s">
+        <v>183</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G188" t="s">
+        <v>92</v>
+      </c>
+      <c r="H188" t="s">
+        <v>6</v>
+      </c>
+      <c r="I188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>626</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
+      </c>
+      <c r="C189" t="s">
+        <v>208</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G189" t="s">
+        <v>92</v>
+      </c>
+      <c r="H189" t="s">
+        <v>6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>647</v>
+      </c>
+      <c r="B190" t="s">
+        <v>94</v>
+      </c>
+      <c r="C190" t="s">
+        <v>648</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G190" t="s">
+        <v>92</v>
+      </c>
+      <c r="H190" t="s">
+        <v>6</v>
+      </c>
+      <c r="I190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>611</v>
+      </c>
+      <c r="B191" t="s">
+        <v>285</v>
+      </c>
+      <c r="C191" t="s">
+        <v>183</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G191" t="s">
+        <v>92</v>
+      </c>
+      <c r="H191" t="s">
+        <v>6</v>
+      </c>
+      <c r="I191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>655</v>
+      </c>
+      <c r="B192" t="s">
+        <v>331</v>
+      </c>
+      <c r="C192" t="s">
+        <v>208</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G192" t="s">
+        <v>93</v>
+      </c>
+      <c r="H192" t="s">
+        <v>6</v>
+      </c>
+      <c r="I192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>150</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G193" t="s">
+        <v>93</v>
+      </c>
+      <c r="H193" t="s">
+        <v>6</v>
+      </c>
+      <c r="I193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" t="s">
+        <v>285</v>
+      </c>
+      <c r="C194" t="s">
+        <v>241</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G194" t="s">
+        <v>93</v>
+      </c>
+      <c r="H194" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" t="s">
+        <v>94</v>
+      </c>
+      <c r="C195" t="s">
+        <v>315</v>
+      </c>
+      <c r="D195">
         <v>2</v>
       </c>
-      <c r="E186">
-        <v>2</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G195" t="s">
         <v>93</v>
       </c>
-      <c r="H186" t="s">
-        <v>117</v>
-      </c>
-      <c r="I186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>36</v>
-      </c>
-      <c r="B187" t="s">
-        <v>37</v>
-      </c>
-      <c r="C187" t="s">
-        <v>60</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G187" t="s">
-        <v>93</v>
-      </c>
-      <c r="H187" t="s">
-        <v>117</v>
-      </c>
-      <c r="I187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>573</v>
-      </c>
-      <c r="B188" t="s">
-        <v>37</v>
-      </c>
-      <c r="C188" t="s">
-        <v>577</v>
-      </c>
-      <c r="D188">
-        <v>2</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G188" t="s">
-        <v>94</v>
-      </c>
-      <c r="H188" t="s">
-        <v>117</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>72</v>
-      </c>
-      <c r="B189" t="s">
-        <v>38</v>
-      </c>
-      <c r="C189" t="s">
-        <v>60</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G189" t="s">
-        <v>94</v>
-      </c>
-      <c r="H189" t="s">
-        <v>117</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>351</v>
-      </c>
-      <c r="B190" t="s">
-        <v>352</v>
-      </c>
-      <c r="C190" t="s">
-        <v>316</v>
-      </c>
-      <c r="D190">
-        <v>2</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G190" t="s">
-        <v>94</v>
-      </c>
-      <c r="H190" t="s">
-        <v>117</v>
-      </c>
-      <c r="I190" t="s">
+      <c r="H195" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>579</v>
-      </c>
-      <c r="B191" t="s">
-        <v>580</v>
-      </c>
-      <c r="C191" t="s">
-        <v>581</v>
-      </c>
-      <c r="D191">
-        <v>4</v>
-      </c>
-      <c r="E191">
-        <v>4</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G191" t="s">
-        <v>94</v>
-      </c>
-      <c r="H191" t="s">
-        <v>117</v>
-      </c>
-      <c r="I191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>575</v>
-      </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192" t="s">
-        <v>576</v>
-      </c>
-      <c r="D192" t="s">
-        <v>560</v>
-      </c>
-      <c r="E192" t="s">
-        <v>560</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G192" t="s">
-        <v>94</v>
-      </c>
-      <c r="H192" t="s">
-        <v>117</v>
-      </c>
-      <c r="I192" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>495</v>
-      </c>
-      <c r="B193" t="s">
-        <v>496</v>
-      </c>
-      <c r="C193" t="s">
-        <v>208</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G193" t="s">
-        <v>94</v>
-      </c>
-      <c r="H193" t="s">
-        <v>117</v>
-      </c>
-      <c r="I193" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>362</v>
-      </c>
-      <c r="B194" t="s">
-        <v>363</v>
-      </c>
-      <c r="C194" t="s">
-        <v>60</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194">
-        <v>2</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G194" t="s">
-        <v>94</v>
-      </c>
-      <c r="H194" t="s">
-        <v>117</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>114</v>
-      </c>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="27"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>354</v>
-      </c>
-      <c r="B196">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="B196" t="s">
+        <v>191</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
+      <c r="F196" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="G196" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H196" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>489</v>
+        <v>415</v>
+      </c>
+      <c r="B197" t="s">
+        <v>191</v>
       </c>
       <c r="C197" t="s">
-        <v>152</v>
+        <v>346</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-    </row>
-    <row r="198" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="G197" t="s">
+        <v>93</v>
+      </c>
+      <c r="H197" t="s">
+        <v>6</v>
+      </c>
+      <c r="I197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>253</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
+        <v>593</v>
+      </c>
+      <c r="B198" t="s">
+        <v>94</v>
       </c>
       <c r="C198" t="s">
-        <v>254</v>
+        <v>315</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>255</v>
+        <v>594</v>
       </c>
       <c r="G198" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H198" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>488</v>
+        <v>336</v>
+      </c>
+      <c r="B199" t="s">
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>152</v>
+        <v>315</v>
+      </c>
+      <c r="D199">
+        <v>4</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="G199" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H199" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>301</v>
-      </c>
-      <c r="B200">
+        <v>330</v>
+      </c>
+      <c r="B200" t="s">
+        <v>331</v>
+      </c>
+      <c r="C200" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G200" t="s">
+        <v>93</v>
+      </c>
+      <c r="H200" t="s">
+        <v>6</v>
+      </c>
+      <c r="I200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>370</v>
+      </c>
+      <c r="B201" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G201" t="s">
+        <v>93</v>
+      </c>
+      <c r="H201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>514</v>
+      </c>
+      <c r="B202" t="s">
+        <v>285</v>
+      </c>
+      <c r="C202" t="s">
+        <v>315</v>
+      </c>
+      <c r="D202">
         <v>3</v>
       </c>
-      <c r="C200" t="s">
-        <v>208</v>
-      </c>
-      <c r="F200" s="7" t="s">
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G202" t="s">
+        <v>93</v>
+      </c>
+      <c r="H202" t="s">
+        <v>6</v>
+      </c>
+      <c r="I202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>344</v>
+      </c>
+      <c r="B203" t="s">
+        <v>191</v>
+      </c>
+      <c r="C203" t="s">
+        <v>315</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G203" t="s">
+        <v>93</v>
+      </c>
+      <c r="H203" t="s">
+        <v>6</v>
+      </c>
+      <c r="I203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" t="s">
+        <v>183</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G204" t="s">
+        <v>93</v>
+      </c>
+      <c r="H204" t="s">
+        <v>6</v>
+      </c>
+      <c r="I204" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>332</v>
+      </c>
+      <c r="B205" t="s">
+        <v>331</v>
+      </c>
+      <c r="C205" t="s">
+        <v>315</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G205" t="s">
+        <v>94</v>
+      </c>
+      <c r="H205" t="s">
+        <v>6</v>
+      </c>
+      <c r="I205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>368</v>
+      </c>
+      <c r="B206" t="s">
+        <v>94</v>
+      </c>
+      <c r="C206" t="s">
+        <v>315</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G200" t="s">
-        <v>92</v>
-      </c>
-      <c r="H200" t="s">
-        <v>154</v>
-      </c>
-      <c r="I200" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>314</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="C201" t="s">
-        <v>347</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G201" t="s">
-        <v>92</v>
-      </c>
-      <c r="H201" t="s">
-        <v>154</v>
-      </c>
-      <c r="I201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>390</v>
-      </c>
-      <c r="B202">
-        <v>3</v>
-      </c>
-      <c r="C202" t="s">
-        <v>254</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G202" t="s">
-        <v>92</v>
-      </c>
-      <c r="H202" t="s">
-        <v>154</v>
-      </c>
-      <c r="I202" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>391</v>
-      </c>
-      <c r="B203">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>254</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G203" t="s">
-        <v>92</v>
-      </c>
-      <c r="H203" t="s">
-        <v>154</v>
-      </c>
-      <c r="I203" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>393</v>
-      </c>
-      <c r="B204">
-        <v>3</v>
-      </c>
-      <c r="C204" t="s">
-        <v>254</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G204" t="s">
-        <v>92</v>
-      </c>
-      <c r="H204" t="s">
-        <v>154</v>
-      </c>
-      <c r="I204" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>456</v>
-      </c>
-      <c r="B205">
-        <v>2</v>
-      </c>
-      <c r="C205" t="s">
-        <v>254</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G205" t="s">
-        <v>92</v>
-      </c>
-      <c r="H205" t="s">
-        <v>154</v>
-      </c>
-      <c r="I205" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>396</v>
-      </c>
-      <c r="B206">
-        <v>2</v>
-      </c>
-      <c r="C206" t="s">
-        <v>237</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="G206" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H206" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>563</v>
-      </c>
-      <c r="B207">
-        <v>2</v>
+        <v>664</v>
+      </c>
+      <c r="B207" t="s">
+        <v>94</v>
       </c>
       <c r="C207" t="s">
-        <v>564</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>565</v>
+        <v>665</v>
       </c>
       <c r="G207" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H207" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>429</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
+        <v>480</v>
+      </c>
+      <c r="B208" t="s">
+        <v>481</v>
       </c>
       <c r="C208" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -8508,122 +8848,988 @@
         <v>1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="G208" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H208" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I208" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>512</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>192</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>513</v>
+        <v>209</v>
       </c>
       <c r="G209" t="s">
         <v>94</v>
       </c>
       <c r="H209" t="s">
-        <v>154</v>
-      </c>
-      <c r="I209" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>485</v>
-      </c>
-      <c r="B210">
+        <v>406</v>
+      </c>
+      <c r="B210" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" t="s">
+        <v>346</v>
+      </c>
+      <c r="D210">
         <v>3</v>
       </c>
-      <c r="C210" t="s">
-        <v>237</v>
+      <c r="E210">
+        <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="G210" t="s">
         <v>94</v>
       </c>
       <c r="H210" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>492</v>
-      </c>
-      <c r="B211">
-        <v>5</v>
+        <v>579</v>
+      </c>
+      <c r="B211" t="s">
+        <v>191</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>580</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>493</v>
+        <v>366</v>
       </c>
       <c r="G211" t="s">
         <v>94</v>
       </c>
       <c r="H211" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I211" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>494</v>
+        <v>289</v>
+      </c>
+      <c r="B212" t="s">
+        <v>287</v>
       </c>
       <c r="C212" t="s">
-        <v>152</v>
+        <v>241</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>487</v>
+        <v>288</v>
       </c>
       <c r="G212" t="s">
         <v>94</v>
       </c>
       <c r="H212" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I212" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>490</v>
+        <v>194</v>
+      </c>
+      <c r="B213" t="s">
+        <v>192</v>
       </c>
       <c r="C213" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="G213" t="s">
         <v>94</v>
       </c>
       <c r="H213" t="s">
+        <v>6</v>
+      </c>
+      <c r="I213" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>113</v>
+      </c>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="26"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>59</v>
+      </c>
+      <c r="B215" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" t="s">
+        <v>60</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" t="s">
+        <v>92</v>
+      </c>
+      <c r="H215" t="s">
+        <v>117</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>61</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>60</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" t="s">
+        <v>92</v>
+      </c>
+      <c r="H216" t="s">
+        <v>117</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>372</v>
+      </c>
+      <c r="B217" t="s">
+        <v>373</v>
+      </c>
+      <c r="C217" t="s">
+        <v>150</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G217" t="s">
+        <v>92</v>
+      </c>
+      <c r="H217" t="s">
+        <v>117</v>
+      </c>
+      <c r="I217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>68</v>
+      </c>
+      <c r="B218" t="s">
+        <v>34</v>
+      </c>
+      <c r="C218" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" t="s">
+        <v>92</v>
+      </c>
+      <c r="H218" t="s">
+        <v>117</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>597</v>
+      </c>
+      <c r="B219" t="s">
+        <v>598</v>
+      </c>
+      <c r="C219" t="s">
+        <v>241</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G219" t="s">
+        <v>93</v>
+      </c>
+      <c r="H219" t="s">
+        <v>117</v>
+      </c>
+      <c r="I219" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>541</v>
+      </c>
+      <c r="B220" t="s">
+        <v>542</v>
+      </c>
+      <c r="C220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G220" t="s">
+        <v>93</v>
+      </c>
+      <c r="H220" t="s">
+        <v>117</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G221" t="s">
+        <v>93</v>
+      </c>
+      <c r="H221" t="s">
+        <v>117</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>569</v>
+      </c>
+      <c r="B222" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" t="s">
+        <v>573</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G222" t="s">
+        <v>94</v>
+      </c>
+      <c r="H222" t="s">
+        <v>117</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>72</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G223" t="s">
+        <v>94</v>
+      </c>
+      <c r="H223" t="s">
+        <v>117</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>349</v>
+      </c>
+      <c r="B224" t="s">
+        <v>350</v>
+      </c>
+      <c r="C224" t="s">
+        <v>315</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G224" t="s">
+        <v>94</v>
+      </c>
+      <c r="H224" t="s">
+        <v>117</v>
+      </c>
+      <c r="I224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>575</v>
+      </c>
+      <c r="B225" t="s">
+        <v>576</v>
+      </c>
+      <c r="C225" t="s">
+        <v>577</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G225" t="s">
+        <v>94</v>
+      </c>
+      <c r="H225" t="s">
+        <v>117</v>
+      </c>
+      <c r="I225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>571</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>572</v>
+      </c>
+      <c r="D226" t="s">
+        <v>556</v>
+      </c>
+      <c r="E226" t="s">
+        <v>556</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G226" t="s">
+        <v>94</v>
+      </c>
+      <c r="H226" t="s">
+        <v>117</v>
+      </c>
+      <c r="I226" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>493</v>
+      </c>
+      <c r="B227" t="s">
+        <v>494</v>
+      </c>
+      <c r="C227" t="s">
+        <v>208</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G227" t="s">
+        <v>94</v>
+      </c>
+      <c r="H227" t="s">
+        <v>117</v>
+      </c>
+      <c r="I227" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>360</v>
+      </c>
+      <c r="B228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C228" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G228" t="s">
+        <v>94</v>
+      </c>
+      <c r="H228" t="s">
+        <v>117</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>114</v>
+      </c>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="27"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>352</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>353</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>92</v>
+      </c>
+      <c r="H230" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="231" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>487</v>
+      </c>
+      <c r="C231" t="s">
+        <v>152</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I231" s="7"/>
+      <c r="J231" s="7"/>
+    </row>
+    <row r="232" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>253</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>254</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G232" t="s">
+        <v>92</v>
+      </c>
+      <c r="H232" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" t="s">
+        <v>152</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G233" t="s">
+        <v>92</v>
+      </c>
+      <c r="H233" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>300</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>208</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G234" t="s">
+        <v>92</v>
+      </c>
+      <c r="H234" t="s">
+        <v>154</v>
+      </c>
+      <c r="I234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>313</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>346</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G235" t="s">
+        <v>92</v>
+      </c>
+      <c r="H235" t="s">
+        <v>154</v>
+      </c>
+      <c r="I235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>388</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>254</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G236" t="s">
+        <v>92</v>
+      </c>
+      <c r="H236" t="s">
+        <v>154</v>
+      </c>
+      <c r="I236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>389</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>254</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G237" t="s">
+        <v>92</v>
+      </c>
+      <c r="H237" t="s">
+        <v>154</v>
+      </c>
+      <c r="I237" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>391</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>254</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G238" t="s">
+        <v>92</v>
+      </c>
+      <c r="H238" t="s">
+        <v>154</v>
+      </c>
+      <c r="I238" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>454</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>254</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G239" t="s">
+        <v>92</v>
+      </c>
+      <c r="H239" t="s">
+        <v>154</v>
+      </c>
+      <c r="I239" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>394</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240" t="s">
+        <v>237</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G240" t="s">
+        <v>92</v>
+      </c>
+      <c r="H240" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>659</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>237</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="G241" t="s">
+        <v>93</v>
+      </c>
+      <c r="H241" t="s">
+        <v>154</v>
+      </c>
+      <c r="I241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>559</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>560</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G242" t="s">
+        <v>93</v>
+      </c>
+      <c r="H242" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>427</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>346</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G243" t="s">
+        <v>93</v>
+      </c>
+      <c r="H243" t="s">
+        <v>154</v>
+      </c>
+      <c r="I243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>510</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>237</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G244" t="s">
+        <v>94</v>
+      </c>
+      <c r="H244" t="s">
+        <v>154</v>
+      </c>
+      <c r="I244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>483</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>237</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G245" t="s">
+        <v>94</v>
+      </c>
+      <c r="H245" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>237</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G246" t="s">
+        <v>94</v>
+      </c>
+      <c r="H246" t="s">
+        <v>154</v>
+      </c>
+      <c r="I246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+      <c r="C247" t="s">
+        <v>152</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G247" t="s">
+        <v>94</v>
+      </c>
+      <c r="H247" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" t="s">
+        <v>152</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G248" t="s">
+        <v>94</v>
+      </c>
+      <c r="H248" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G39">
-    <sortCondition ref="G5:G39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G44">
+    <sortCondition ref="G5:G44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>